--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -1414,9 +1414,6 @@
     <t>/home/ubuntu/Grovo_Automation/TestData/test.pdf</t>
   </si>
   <si>
-    <t>testadmin@grovo.com</t>
-  </si>
-  <si>
     <t>Campaigns Page display</t>
   </si>
   <si>
@@ -2435,6 +2432,9 @@
   </si>
   <si>
     <t>Lesson_for_CampTrack_FourLessons_Three(4)</t>
+  </si>
+  <si>
+    <t>mymaster@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2819,38 +2819,8 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2864,17 +2834,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3280,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -3329,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>458</v>
+        <v>798</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>7</v>
@@ -3355,6 +3355,7 @@
     <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3387,7 +3388,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.95" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -3416,16 +3417,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>611</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -3439,16 +3440,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>613</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -3465,16 +3466,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>615</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -3491,16 +3492,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>617</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -3721,10 +3722,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -3747,10 +3748,10 @@
       <c r="B4" s="12"/>
     </row>
     <row r="6" spans="1:2" ht="14.1" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
@@ -3797,10 +3798,10 @@
       <c r="B12" s="12"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -3827,10 +3828,10 @@
       <c r="B18" s="12"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
@@ -3861,10 +3862,10 @@
       <c r="B24" s="12"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="48"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
@@ -3939,14 +3940,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="43"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -4005,14 +4006,14 @@
       <c r="B7" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
@@ -4083,14 +4084,14 @@
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="50"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
@@ -4153,14 +4154,14 @@
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="43"/>
+      <c r="D26" s="50"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
@@ -4227,14 +4228,14 @@
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="42" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="50"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
@@ -4301,14 +4302,14 @@
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="42" t="s">
+      <c r="B43" s="50"/>
+      <c r="C43" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="43"/>
+      <c r="D43" s="50"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
@@ -4391,14 +4392,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="42" t="s">
+      <c r="B52" s="50"/>
+      <c r="C52" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="43"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="93.75">
@@ -4492,14 +4493,14 @@
       <c r="E58" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="42" t="s">
+      <c r="B60" s="50"/>
+      <c r="C60" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="43"/>
+      <c r="D60" s="50"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
@@ -4592,14 +4593,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="46"/>
-      <c r="C70" s="42" t="s">
+      <c r="B70" s="54"/>
+      <c r="C70" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="43"/>
+      <c r="D70" s="50"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="11" t="s">
@@ -4636,10 +4637,10 @@
       <c r="B73" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="43"/>
+      <c r="D73" s="50"/>
     </row>
     <row r="74" spans="1:4" ht="37.5">
       <c r="A74" s="11" t="s">
@@ -4682,14 +4683,14 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="45" t="s">
+      <c r="A79" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="46"/>
-      <c r="C79" s="42" t="s">
+      <c r="B79" s="54"/>
+      <c r="C79" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="43"/>
+      <c r="D79" s="50"/>
     </row>
     <row r="80" spans="1:4" ht="37.5">
       <c r="A80" s="11" t="s">
@@ -4726,10 +4727,10 @@
       <c r="B82" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C82" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="D82" s="43"/>
+      <c r="D82" s="50"/>
     </row>
     <row r="83" spans="1:4" ht="37.5">
       <c r="A83" s="11" t="s">
@@ -4770,14 +4771,14 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="41" t="s">
+      <c r="B88" s="51"/>
+      <c r="C88" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="41"/>
+      <c r="D88" s="48"/>
     </row>
     <row r="89" spans="1:4" ht="37.5">
       <c r="A89" s="11" t="s">
@@ -4828,10 +4829,10 @@
       <c r="B92" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="D92" s="41"/>
+      <c r="D92" s="48"/>
     </row>
     <row r="93" spans="1:4" ht="56.25">
       <c r="A93" s="11" t="s">
@@ -4870,10 +4871,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
-      <c r="C96" s="41" t="s">
+      <c r="C96" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="41"/>
+      <c r="D96" s="48"/>
     </row>
     <row r="97" spans="1:4" ht="37.5">
       <c r="A97" s="11"/>
@@ -4916,14 +4917,14 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A103" s="44" t="s">
+      <c r="A103" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="44"/>
-      <c r="C103" s="41" t="s">
+      <c r="B103" s="51"/>
+      <c r="C103" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="D103" s="41"/>
+      <c r="D103" s="48"/>
     </row>
     <row r="104" spans="1:4" ht="37.5">
       <c r="A104" s="11" t="s">
@@ -4946,10 +4947,10 @@
       <c r="B105" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C105" s="42" t="s">
+      <c r="C105" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="D105" s="43"/>
+      <c r="D105" s="50"/>
     </row>
     <row r="106" spans="1:4" ht="37.5">
       <c r="A106" s="11" t="s">
@@ -5064,14 +5065,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="44" t="s">
+      <c r="A118" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="44"/>
-      <c r="C118" s="41" t="s">
+      <c r="B118" s="51"/>
+      <c r="C118" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="41"/>
+      <c r="D118" s="48"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="11" t="s">
@@ -5154,10 +5155,10 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="47" t="s">
+      <c r="A125" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="43"/>
+      <c r="B125" s="50"/>
       <c r="C125" s="11" t="s">
         <v>24</v>
       </c>
@@ -5204,14 +5205,14 @@
       <c r="D128" s="12"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="44" t="s">
+      <c r="A131" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="B131" s="44"/>
-      <c r="C131" s="41" t="s">
+      <c r="B131" s="51"/>
+      <c r="C131" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="41"/>
+      <c r="D131" s="48"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="11" t="s">
@@ -5342,14 +5343,14 @@
       <c r="D141" s="11"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="44" t="s">
+      <c r="A144" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="B144" s="44"/>
-      <c r="C144" s="41" t="s">
+      <c r="B144" s="51"/>
+      <c r="C144" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="D144" s="41"/>
+      <c r="D144" s="48"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="11" t="s">
@@ -5476,14 +5477,14 @@
       <c r="D154" s="11"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="44" t="s">
+      <c r="A157" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="B157" s="44"/>
-      <c r="C157" s="41" t="s">
+      <c r="B157" s="51"/>
+      <c r="C157" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="D157" s="41"/>
+      <c r="D157" s="48"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
@@ -5617,6 +5618,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -5627,34 +5656,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6802,3854 +6803,3846 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" style="49" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="49" customWidth="1"/>
-    <col min="5" max="5" width="33" style="49" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="49" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" style="49" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="1" width="31.5703125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="33" style="41" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" style="41" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="D1" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="D1" s="50" t="s">
+      <c r="E1" s="56"/>
+      <c r="G1" s="55" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1" s="56"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1">
+      <c r="A2" s="42" t="s">
         <v>460</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="G1" s="50" t="s">
+      <c r="B2" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="H2" s="42" t="s">
         <v>626</v>
       </c>
-      <c r="H1" s="51"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1">
-      <c r="A2" s="52" t="s">
-        <v>461</v>
-      </c>
-      <c r="B2" s="53" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="28.5" customHeight="1">
+      <c r="A3" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>465</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="G5" s="57" t="s">
+        <v>629</v>
+      </c>
+      <c r="H5" s="58"/>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>478</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>479</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" s="42" t="s">
+        <v>480</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="G8" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="42" t="s">
+        <v>482</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="G9" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45">
+      <c r="A10" s="42" t="s">
+        <v>484</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="G10" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="G11" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8" ht="30">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="G13" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="D15" s="55" t="s">
+        <v>636</v>
+      </c>
+      <c r="E15" s="56"/>
+    </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="55" t="s">
+        <v>488</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="D16" s="42" t="s">
         <v>462</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>464</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A3" s="52" t="s">
-        <v>465</v>
-      </c>
-      <c r="B3" s="53" t="s">
+      <c r="E16" s="42" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>466</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>468</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="52" t="s">
-        <v>469</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>470</v>
-      </c>
-      <c r="D4" s="52" t="s">
+      <c r="E17" s="42" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45">
+      <c r="A18" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="D18" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>471</v>
-      </c>
-      <c r="G4" s="52" t="s">
+      <c r="E18" s="42" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="B19" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="D19" s="57" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="52" t="s">
-        <v>472</v>
-      </c>
-      <c r="B5" s="53" t="s">
+      <c r="E19" s="58"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="G5" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="H5" s="55"/>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="52" t="s">
-        <v>475</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>476</v>
-      </c>
-      <c r="D6" s="52" t="s">
+      <c r="B20" s="56"/>
+      <c r="D20" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30">
+      <c r="A21" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>477</v>
-      </c>
-      <c r="G6" s="52" t="s">
+      <c r="B21" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30">
+      <c r="A22" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="D23" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45">
+      <c r="D24" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" s="57" t="s">
+        <v>473</v>
+      </c>
+      <c r="E25" s="58"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A26" s="55" t="s">
+        <v>494</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="D26" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30">
+      <c r="A29" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B30" s="56"/>
+      <c r="D30" s="55" t="s">
+        <v>644</v>
+      </c>
+      <c r="E30" s="56"/>
+    </row>
+    <row r="31" spans="1:5" ht="30">
+      <c r="A31" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30">
+      <c r="A32" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45">
+      <c r="A33" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="42">
+        <v>200</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="D34" s="57" t="s">
+        <v>629</v>
+      </c>
+      <c r="E34" s="58"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A35" s="55" t="s">
+        <v>500</v>
+      </c>
+      <c r="B35" s="56"/>
+      <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="52" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
-      <c r="A7" s="52" t="s">
-        <v>478</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>479</v>
-      </c>
-      <c r="D7" s="52" t="s">
+      <c r="E35" s="42" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30">
+      <c r="A36" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30">
+      <c r="A37" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30">
+      <c r="A38" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45">
+      <c r="A39" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B39" s="56"/>
+      <c r="D39" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>504</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>473</v>
+      </c>
+      <c r="E40" s="58"/>
+    </row>
+    <row r="41" spans="1:5" ht="30">
+      <c r="A41" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30">
+      <c r="A42" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="42">
+        <v>200</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="D43" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A44" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="B44" s="56"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>507</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E46" s="56"/>
+    </row>
+    <row r="47" spans="1:5" ht="30">
+      <c r="A47" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>508</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30">
+      <c r="A48" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B48" s="56"/>
+      <c r="D48" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45">
+      <c r="A49" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>509</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="D50" s="57" t="s">
+        <v>629</v>
+      </c>
+      <c r="E50" s="58"/>
+    </row>
+    <row r="51" spans="1:5" ht="30">
+      <c r="A51" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30">
+      <c r="A52" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30">
+      <c r="A53" s="42" t="s">
+        <v>512</v>
+      </c>
+      <c r="B53" s="42">
+        <v>2</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="D54" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A55" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="B55" s="56"/>
+      <c r="D55" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="D56" s="57" t="s">
+        <v>473</v>
+      </c>
+      <c r="E56" s="58"/>
+    </row>
+    <row r="57" spans="1:5" ht="30">
+      <c r="A57" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>515</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30">
+      <c r="A58" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B59" s="56"/>
+      <c r="D59" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30">
+      <c r="A62" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="D62" s="55" t="s">
+        <v>660</v>
+      </c>
+      <c r="E62" s="56"/>
+    </row>
+    <row r="63" spans="1:5" ht="30">
+      <c r="A63" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30">
+      <c r="A64" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="42">
+        <v>200</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E64" s="42" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="45">
+      <c r="A65" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="E66" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="E67" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>664</v>
+      </c>
+      <c r="E68" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="59" t="s">
+        <v>519</v>
+      </c>
+      <c r="B69" s="59"/>
+      <c r="D69" s="57" t="s">
+        <v>629</v>
+      </c>
+      <c r="E69" s="58"/>
+    </row>
+    <row r="70" spans="1:5" ht="30">
+      <c r="A70" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30">
+      <c r="A71" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E71" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30">
+      <c r="A72" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="D73" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="E73" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="45">
+      <c r="D74" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="E74" s="42" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A75" s="55" t="s">
+        <v>523</v>
+      </c>
+      <c r="B75" s="56"/>
+      <c r="D75" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E75" s="45"/>
+    </row>
+    <row r="76" spans="1:5" ht="30">
+      <c r="A76" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="42" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30">
+      <c r="A77" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="D77" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="42" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="45">
+      <c r="A78" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="D78" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="E78" s="42" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B79" s="56"/>
+      <c r="D79" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="E79" s="42" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="42" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" s="42" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30">
+      <c r="A82" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="D82" s="55" t="s">
+        <v>674</v>
+      </c>
+      <c r="E82" s="56"/>
+      <c r="F82" s="46" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30">
+      <c r="A83" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E83" s="42" t="s">
+        <v>676</v>
+      </c>
+      <c r="F83" s="42" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30">
+      <c r="A84" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E84" s="42" t="s">
+        <v>678</v>
+      </c>
+      <c r="F84" s="42" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="45">
+      <c r="A85" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="42" t="s">
+        <v>680</v>
+      </c>
+      <c r="F85" s="42" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="B86" s="42">
+        <v>50</v>
+      </c>
+      <c r="D86" s="57" t="s">
+        <v>629</v>
+      </c>
+      <c r="E86" s="58"/>
+      <c r="F86" s="47" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30">
+      <c r="D87" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" s="42" t="s">
+        <v>682</v>
+      </c>
+      <c r="F87" s="42" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30">
+      <c r="D88" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="F88" s="42"/>
+    </row>
+    <row r="89" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A89" s="55" t="s">
+        <v>529</v>
+      </c>
+      <c r="B89" s="56"/>
+      <c r="D89" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" s="42" t="s">
+        <v>684</v>
+      </c>
+      <c r="F89" s="42" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B90" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="D90" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="E90" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F90" s="42"/>
+    </row>
+    <row r="91" spans="1:6" ht="45">
+      <c r="A91" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B91" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="E91" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="F91" s="42" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30">
+      <c r="A92" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="D92" s="57" t="s">
+        <v>473</v>
+      </c>
+      <c r="E92" s="58"/>
+      <c r="F92" s="47" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30">
+      <c r="A93" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B93" s="56"/>
+      <c r="D93" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="42" t="s">
+        <v>688</v>
+      </c>
+      <c r="F93" s="42" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="D94" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>480</v>
-      </c>
-      <c r="G7" s="52" t="s">
+      <c r="E94" s="42" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30">
+      <c r="A95" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="D95" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="E95" s="42" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="52" t="s">
-        <v>481</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>482</v>
-      </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="G8" s="52" t="s">
+    <row r="96" spans="1:6" ht="30">
+      <c r="A96" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="E96" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" s="42">
+        <v>200</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>691</v>
+      </c>
+      <c r="E97" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30">
+      <c r="A98" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="D98" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="E98" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B99" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="D99" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="42" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="E100" s="42" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B101" s="42">
+        <v>60</v>
+      </c>
+      <c r="D101" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="E101" s="42" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="B102" s="42">
+        <v>2</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="E102" s="42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="D103" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="E103" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="D104" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="E104" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A105" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="B105" s="59"/>
+      <c r="D105" s="42" t="s">
+        <v>694</v>
+      </c>
+      <c r="E105" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B106" s="42" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30">
+      <c r="A107" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>538</v>
+      </c>
+      <c r="D107" s="55" t="s">
+        <v>695</v>
+      </c>
+      <c r="E107" s="56"/>
+    </row>
+    <row r="108" spans="1:5" ht="30">
+      <c r="A108" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="D108" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E108" s="42" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30">
+      <c r="A109" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B109" s="42">
+        <v>60</v>
+      </c>
+      <c r="D109" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E109" s="42" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="45">
+      <c r="A110" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="B110" s="42">
+        <v>3</v>
+      </c>
+      <c r="D110" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E110" s="42" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="B111" s="59"/>
+      <c r="D111" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="E111" s="42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" s="42" t="s">
+        <v>540</v>
+      </c>
+      <c r="D112" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="E112" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30">
+      <c r="A113" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B113" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="D113" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="E113" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B114" s="42">
+        <v>200</v>
+      </c>
+      <c r="D114" s="57" t="s">
+        <v>629</v>
+      </c>
+      <c r="E114" s="58"/>
+    </row>
+    <row r="115" spans="1:5" ht="30">
+      <c r="A115" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B115" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="D115" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E115" s="42" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="30">
+      <c r="A116" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E116" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30">
+      <c r="A117" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B117" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="E117" s="42" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="D118" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="E118" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="45">
+      <c r="D119" s="42" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="52" t="s">
-        <v>483</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>484</v>
-      </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="G9" s="52" t="s">
+      <c r="E119" s="42" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="D120" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E120" s="45"/>
+    </row>
+    <row r="121" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A121" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="B121" s="59"/>
+      <c r="D121" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="42" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B122" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="D122" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E122" s="42" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="30">
+      <c r="A123" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B123" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="D123" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30">
+      <c r="A124" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="42" t="s">
+        <v>544</v>
+      </c>
+      <c r="D124" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="42" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="B125" s="59"/>
+      <c r="D125" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="E125" s="42" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30">
+      <c r="A126" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="B126" s="42" t="s">
+        <v>546</v>
+      </c>
+      <c r="D126" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="E126" s="42" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" s="42" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="30">
+      <c r="A128" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B128" s="42" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30">
+      <c r="A129" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="D129" s="55" t="s">
+        <v>703</v>
+      </c>
+      <c r="E129" s="56"/>
+    </row>
+    <row r="130" spans="1:5" ht="30">
+      <c r="D130" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E130" s="42" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="30">
+      <c r="D131" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E131" s="42" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A132" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="B132" s="59"/>
+      <c r="D132" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E132" s="42" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B133" s="42" t="s">
+        <v>551</v>
+      </c>
+      <c r="D133" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="E133" s="42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="30">
+      <c r="A134" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B134" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="D134" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="E134" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="30">
+      <c r="A135" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B135" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="D135" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="E135" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="B136" s="59"/>
+      <c r="D136" s="57" t="s">
+        <v>629</v>
+      </c>
+      <c r="E136" s="58"/>
+    </row>
+    <row r="137" spans="1:5" ht="30">
+      <c r="A137" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="B137" s="42" t="s">
+        <v>554</v>
+      </c>
+      <c r="D137" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E137" s="42" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="30">
+      <c r="A138" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B138" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="D138" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E138" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="30">
+      <c r="A139" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B139" s="42" t="s">
+        <v>555</v>
+      </c>
+      <c r="D139" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E139" s="42" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="30">
+      <c r="A140" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="B140" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="D140" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="E140" s="42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45">
-      <c r="A10" s="52" t="s">
-        <v>485</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>486</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="G10" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="G11" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="H11" s="57"/>
-    </row>
-    <row r="12" spans="1:8" ht="30">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53" t="s">
-        <v>488</v>
-      </c>
-      <c r="G12" s="52" t="s">
+    <row r="141" spans="1:5" ht="45">
+      <c r="A141" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" s="42">
+        <v>200</v>
+      </c>
+      <c r="D141" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="E141" s="42" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="D142" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E142" s="45"/>
+    </row>
+    <row r="143" spans="1:5" ht="30">
+      <c r="D143" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="52" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="G13" s="52" t="s">
+      <c r="E143" s="42" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A144" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="B144" s="59"/>
+      <c r="D144" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E144" s="42" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="30">
+      <c r="A145" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B145" s="42" t="s">
+        <v>558</v>
+      </c>
+      <c r="D145" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="E145" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="30">
+      <c r="A146" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B146" s="42" t="s">
+        <v>559</v>
+      </c>
+      <c r="D146" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E146" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="45">
+      <c r="A147" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B147" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="D147" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="42" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="B148" s="59"/>
+      <c r="D148" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="E148" s="42" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="B149" s="42" t="s">
+        <v>561</v>
+      </c>
+      <c r="D149" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="E149" s="42" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="30">
+      <c r="A150" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="B150" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B151" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B152" s="42" t="s">
+        <v>562</v>
+      </c>
+      <c r="D152" s="55" t="s">
+        <v>711</v>
+      </c>
+      <c r="E152" s="56"/>
+    </row>
+    <row r="153" spans="1:5" ht="30">
+      <c r="A153" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="B153" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="D153" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E153" s="42" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="30">
+      <c r="A154" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B154" s="42">
+        <v>100</v>
+      </c>
+      <c r="D154" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E154" s="42" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="45">
+      <c r="A155" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B155" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="D155" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E155" s="42" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D156" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="E156" s="42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="E157" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="D158" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="E158" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B159" s="42">
+        <v>60</v>
+      </c>
+      <c r="D159" s="57" t="s">
+        <v>629</v>
+      </c>
+      <c r="E159" s="58"/>
+    </row>
+    <row r="160" spans="1:5" ht="30">
+      <c r="D160" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E160" s="42" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="30">
+      <c r="D161" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E161" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A162" s="59" t="s">
+        <v>566</v>
+      </c>
+      <c r="B162" s="59"/>
+      <c r="D162" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E162" s="42" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B163" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="D163" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="E163" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="45">
+      <c r="A164" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B164" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="D164" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="E164" s="42" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="45">
+      <c r="A165" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B165" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="D165" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E165" s="45"/>
+    </row>
+    <row r="166" spans="1:5" ht="30">
+      <c r="A166" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B166" s="42">
+        <v>60</v>
+      </c>
+      <c r="D166" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" s="42" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="B167" s="42">
+        <v>3</v>
+      </c>
+      <c r="D167" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E167" s="42" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="30">
+      <c r="A168" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="B168" s="59"/>
+      <c r="D168" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="E168" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="B169" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="D169" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E169" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="30">
+      <c r="A170" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B170" s="42" t="s">
+        <v>572</v>
+      </c>
+      <c r="D170" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="E170" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B171" s="42" t="s">
+        <v>573</v>
+      </c>
+      <c r="D171" s="42" t="s">
+        <v>719</v>
+      </c>
+      <c r="E171" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H13" s="52" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="D15" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="E15" s="51"/>
-    </row>
-    <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="50" t="s">
-        <v>489</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="D16" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>490</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45">
-      <c r="A18" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>491</v>
-      </c>
-      <c r="D18" s="52" t="s">
+      <c r="B172" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172" s="42" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="30">
+      <c r="A173" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B173" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="D173" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="E173" s="42" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="30">
+      <c r="A174" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="B174" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="D174" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="E174" s="42" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B175" s="42">
+        <v>200</v>
+      </c>
+      <c r="D175" s="42"/>
+      <c r="E175" s="42"/>
+    </row>
+    <row r="176" spans="1:5" ht="30">
+      <c r="A176" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="B176" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B177" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B178" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="55" t="s">
+        <v>720</v>
+      </c>
+      <c r="E178" s="56"/>
+    </row>
+    <row r="179" spans="1:5" ht="30">
+      <c r="A179" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B179" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="D179" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E179" s="42" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="30">
+      <c r="D180" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E180" s="42" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="45">
+      <c r="D181" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="52" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="52" t="s">
+      <c r="E181" s="42" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A182" s="59" t="s">
+        <v>574</v>
+      </c>
+      <c r="B182" s="59"/>
+      <c r="D182" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="E182" s="42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B183" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="D183" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="E183" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="30">
+      <c r="A184" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B184" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="D184" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="E184" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="30">
+      <c r="A185" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="52" t="s">
-        <v>492</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="D20" s="52" t="s">
+      <c r="B185" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="D185" s="57" t="s">
+        <v>629</v>
+      </c>
+      <c r="E185" s="58"/>
+    </row>
+    <row r="186" spans="1:5" ht="30">
+      <c r="A186" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B186" s="42">
+        <v>60</v>
+      </c>
+      <c r="D186" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="52" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>493</v>
-      </c>
-      <c r="D21" s="52" t="s">
+      <c r="E186" s="42" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="30">
+      <c r="A187" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="B187" s="42">
+        <v>3</v>
+      </c>
+      <c r="D187" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E187" s="42" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="52" t="s">
-        <v>494</v>
-      </c>
-      <c r="B22" s="52" t="s">
+    <row r="188" spans="1:5" ht="30">
+      <c r="A188" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="B188" s="59"/>
+      <c r="D188" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E188" s="42" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="B189" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="D189" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="E189" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="45">
+      <c r="A190" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B190" s="42" t="s">
+        <v>579</v>
+      </c>
+      <c r="D190" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="E190" s="42" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B191" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="D191" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E191" s="45"/>
+    </row>
+    <row r="192" spans="1:5" ht="30">
+      <c r="A192" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="B192" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="D192" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="E192" s="42" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B193" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="D193" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E193" s="42" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="30">
+      <c r="A194" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B194" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D194" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="E194" s="42" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="30">
+      <c r="A195" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="B195" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="D195" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E195" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B196" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="30">
+      <c r="A197" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="B197" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B198" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D198" s="55" t="s">
+        <v>730</v>
+      </c>
+      <c r="E198" s="56"/>
+    </row>
+    <row r="199" spans="1:5" ht="30">
+      <c r="A199" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B199" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E199" s="42" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="30">
+      <c r="A200" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B200" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="D200" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E200" s="42" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="45">
+      <c r="A201" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="B201" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D201" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E201" s="42" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="D202" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="E202" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A203" s="59" t="s">
+        <v>585</v>
+      </c>
+      <c r="B203" s="59"/>
+      <c r="D203" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="E203" s="45"/>
+    </row>
+    <row r="204" spans="1:5" ht="30">
+      <c r="A204" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B204" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="D204" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E204" s="42" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="30">
+      <c r="A205" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B205" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="D205" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E205" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="30">
+      <c r="A206" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B206" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="D206" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="52" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="D23" s="52" t="s">
+      <c r="E206" s="42" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B207" s="42">
+        <v>40</v>
+      </c>
+      <c r="D207" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E207" s="42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45">
-      <c r="D24" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="D25" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="E25" s="55"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="50" t="s">
-        <v>495</v>
-      </c>
-      <c r="B26" s="51"/>
-      <c r="D26" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30">
-      <c r="A27" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>496</v>
-      </c>
-      <c r="D27" s="52" t="s">
+    <row r="208" spans="1:5" ht="45">
+      <c r="A208" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="B208" s="42">
+        <v>1</v>
+      </c>
+      <c r="D208" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="E208" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="B209" s="59"/>
+      <c r="D209" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E209" s="45"/>
+    </row>
+    <row r="210" spans="1:5" ht="30">
+      <c r="A210" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="B210" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="D210" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="E210" s="42" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="30">
+      <c r="A211" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B211" s="42" t="s">
+        <v>590</v>
+      </c>
+      <c r="D211" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E211" s="42" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30">
-      <c r="A29" s="52" t="s">
+    <row r="212" spans="1:5" ht="30">
+      <c r="A212" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B212" s="42" t="s">
+        <v>591</v>
+      </c>
+      <c r="D212" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="E212" s="42" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="30">
+      <c r="A213" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="B213" s="42" t="s">
+        <v>592</v>
+      </c>
+      <c r="D213" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E213" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B214" s="42" t="s">
+        <v>593</v>
+      </c>
+      <c r="D214" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E214" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="30">
+      <c r="A215" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B215" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="30">
+      <c r="A216" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="B216" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B217" s="42">
+        <v>200</v>
+      </c>
+      <c r="D217" s="55" t="s">
+        <v>739</v>
+      </c>
+      <c r="E217" s="56"/>
+    </row>
+    <row r="218" spans="1:5" ht="30">
+      <c r="A218" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B218" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D218" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E218" s="42" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="45">
+      <c r="A219" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B219" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D219" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E219" s="42" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="45">
+      <c r="A220" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B220" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="D220" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="52" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="B30" s="51"/>
-      <c r="D30" s="50" t="s">
-        <v>645</v>
-      </c>
-      <c r="E30" s="51"/>
-    </row>
-    <row r="31" spans="1:5" ht="30">
-      <c r="A31" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>499</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30">
-      <c r="A32" s="52" t="s">
-        <v>500</v>
-      </c>
-      <c r="B32" s="52" t="s">
+      <c r="E220" s="42" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="D221" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="E221" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="D222" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="E222" s="45"/>
+    </row>
+    <row r="223" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A223" s="59" t="s">
+        <v>594</v>
+      </c>
+      <c r="B223" s="59"/>
+      <c r="D223" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E223" s="42" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="30">
+      <c r="A224" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B224" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="D224" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E224" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="45">
+      <c r="A225" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B225" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="D225" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E225" s="42" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="30">
+      <c r="A226" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B226" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="D226" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="E226" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="45">
+      <c r="A227" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B227" s="42">
+        <v>30</v>
+      </c>
+      <c r="D227" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="E227" s="42" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="B228" s="42">
+        <v>2</v>
+      </c>
+      <c r="D228" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E228" s="45"/>
+    </row>
+    <row r="229" spans="1:5" ht="30">
+      <c r="A229" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="B229" s="59"/>
+      <c r="D229" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="E229" s="42" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="30">
+      <c r="A230" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="B230" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="D230" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E230" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D32" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45">
-      <c r="A33" s="52" t="s">
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B231" s="42" t="s">
+        <v>599</v>
+      </c>
+      <c r="D231" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="52">
+      <c r="E231" s="42">
         <v>200</v>
       </c>
-      <c r="D33" s="52" t="s">
+    </row>
+    <row r="232" spans="1:5" ht="30">
+      <c r="A232" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B232" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="D232" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="E232" s="42" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="30">
+      <c r="A233" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="B233" s="42" t="s">
+        <v>601</v>
+      </c>
+      <c r="D233" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="E233" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="D234" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E234" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="30">
+      <c r="A235" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B235" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="D235" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="E235" s="42" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="30">
+      <c r="A236" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="B236" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="D236" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E236" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B237" s="42">
+        <v>200</v>
+      </c>
+      <c r="D237" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="E237" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="30">
+      <c r="A238" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="B238" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="D238" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="E238" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B239" s="42">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B240" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B241" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" s="55" t="s">
+        <v>751</v>
+      </c>
+      <c r="E241" s="56"/>
+    </row>
+    <row r="242" spans="1:5" ht="30">
+      <c r="A242" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B242" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="D242" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E242" s="42" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="45">
+      <c r="D243" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E243" s="42" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="45">
+      <c r="D244" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="52" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="D34" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="E34" s="55"/>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="50" t="s">
-        <v>501</v>
-      </c>
-      <c r="B35" s="51"/>
-      <c r="D35" s="52" t="s">
+      <c r="E244" s="42" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="41" t="s">
+        <v>755</v>
+      </c>
+      <c r="D245" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="E245" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="D246" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="E246" s="42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="55" t="s">
+        <v>756</v>
+      </c>
+      <c r="B247" s="56"/>
+      <c r="D247" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="E247" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B248" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="D248" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="E248" s="45"/>
+    </row>
+    <row r="249" spans="1:5" ht="30">
+      <c r="A249" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B249" s="42" t="s">
+        <v>759</v>
+      </c>
+      <c r="D249" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="52" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30">
-      <c r="A36" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>502</v>
-      </c>
-      <c r="D36" s="52" t="s">
+      <c r="E249" s="42" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="30">
+      <c r="A250" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B250" s="42" t="s">
+        <v>761</v>
+      </c>
+      <c r="D250" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E250" s="42" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>503</v>
-      </c>
-      <c r="D37" s="52" t="s">
+    <row r="251" spans="1:5" ht="45">
+      <c r="A251" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="B251" s="42">
+        <v>2</v>
+      </c>
+      <c r="D251" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="52" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30">
-      <c r="A38" s="52" t="s">
+      <c r="E251" s="42" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B252" s="42">
+        <v>90</v>
+      </c>
+      <c r="D252" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="E252" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="45">
+      <c r="A253" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="B253" s="42">
+        <v>1</v>
+      </c>
+      <c r="D253" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="E253" s="42" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="B254" s="45"/>
+      <c r="D254" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E254" s="45"/>
+    </row>
+    <row r="255" spans="1:5" ht="30">
+      <c r="A255" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B255" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="D255" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="E255" s="42" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="30">
+      <c r="A256" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B256" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="D256" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="E256" s="42" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="30">
+      <c r="A257" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B257" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="D257" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="E257" s="42" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="B258" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D258" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E258" s="42" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="45">
+      <c r="A259" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="B259" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="D259" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E259" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="30">
+      <c r="A260" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="B260" s="45"/>
+      <c r="D260" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E260" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="B261" s="42" t="s">
+        <v>771</v>
+      </c>
+      <c r="D261" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E261" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="30">
+      <c r="A262" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B262" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="D262" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="E262" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B263" s="42" t="s">
+        <v>773</v>
+      </c>
+      <c r="D263" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E263" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="B264" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="D264" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E264" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B265" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="D265" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="E265" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="30">
+      <c r="A266" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B266" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="D266" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="E266" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="30">
+      <c r="A267" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B267" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B268" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="30">
+      <c r="A269" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B269" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B270" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B272" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B273" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="55" t="s">
+        <v>775</v>
+      </c>
+      <c r="B276" s="56"/>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B277" s="42" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="30">
+      <c r="A278" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B278" s="42" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="30">
+      <c r="A279" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="52" t="s">
-        <v>504</v>
-      </c>
-      <c r="D38" s="52" t="s">
+      <c r="B279" s="42" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="B280" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B281" s="42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="B282" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="B283" s="45"/>
+    </row>
+    <row r="284" spans="1:2" ht="30">
+      <c r="A284" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B284" s="42" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="30">
+      <c r="A285" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B285" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="30">
+      <c r="A286" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B286" s="42" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="B287" s="42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="B39" s="51"/>
-      <c r="D39" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>505</v>
-      </c>
-      <c r="D40" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="E40" s="55"/>
-    </row>
-    <row r="41" spans="1:5" ht="30">
-      <c r="A41" s="52" t="s">
-        <v>500</v>
-      </c>
-      <c r="B41" s="52" t="s">
+    <row r="288" spans="1:2" ht="45">
+      <c r="A288" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="B288" s="42" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="B289" s="45"/>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="B290" s="42" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B291" s="42" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B292" s="42" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="B293" s="42" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B294" s="42" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="30">
+      <c r="A295" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B295" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="30">
+      <c r="A296" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B296" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B297" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="30">
+      <c r="A298" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B298" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="D41" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30">
-      <c r="A42" s="52" t="s">
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B299" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B300" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B301" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B302" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="55" t="s">
+        <v>787</v>
+      </c>
+      <c r="B305" s="56"/>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B306" s="42" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="30">
+      <c r="A307" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B307" s="42" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="30">
+      <c r="A308" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B308" s="42" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="B309" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B310" s="42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="B311" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="B312" s="45"/>
+    </row>
+    <row r="313" spans="1:2" ht="30">
+      <c r="A313" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B313" s="42" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="30">
+      <c r="A314" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B314" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="30">
+      <c r="A315" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B315" s="42" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="B316" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="45">
+      <c r="A317" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="B317" s="42" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="B318" s="45"/>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="B319" s="42" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B320" s="42" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B321" s="42" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="B322" s="42" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B323" s="42" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="30">
+      <c r="A324" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B324" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="30">
+      <c r="A325" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B325" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="52">
+      <c r="B326" s="42">
         <v>200</v>
       </c>
-      <c r="D42" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="D43" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="52">
+    </row>
+    <row r="327" spans="1:2" ht="30">
+      <c r="A327" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B327" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B328" s="42">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="50" t="s">
-        <v>506</v>
-      </c>
-      <c r="B44" s="51"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>508</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>653</v>
-      </c>
-      <c r="E46" s="51"/>
-    </row>
-    <row r="47" spans="1:5" ht="30">
-      <c r="A47" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>509</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="E47" s="52" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="B48" s="51"/>
-      <c r="D48" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="45">
-      <c r="A49" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>510</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="52" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="52" t="s">
+    <row r="329" spans="1:2">
+      <c r="A329" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="52" t="s">
-        <v>511</v>
-      </c>
-      <c r="D50" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="E50" s="55"/>
-    </row>
-    <row r="51" spans="1:5" ht="30">
-      <c r="A51" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="52" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30">
-      <c r="A52" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30">
-      <c r="A53" s="52" t="s">
-        <v>513</v>
-      </c>
-      <c r="B53" s="52">
-        <v>2</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="D54" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="50" t="s">
-        <v>514</v>
-      </c>
-      <c r="B55" s="51"/>
-      <c r="D55" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>515</v>
-      </c>
-      <c r="D56" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="E56" s="55"/>
-    </row>
-    <row r="57" spans="1:5" ht="30">
-      <c r="A57" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>516</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="52" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30">
-      <c r="A58" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="52" t="s">
-        <v>517</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>564</v>
-      </c>
-      <c r="E58" s="52" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="B59" s="51"/>
-      <c r="D59" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" s="52" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="30">
-      <c r="A62" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="D62" s="50" t="s">
-        <v>661</v>
-      </c>
-      <c r="E62" s="51"/>
-    </row>
-    <row r="63" spans="1:5" ht="30">
-      <c r="A63" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="E63" s="52" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30">
-      <c r="A64" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="52">
-        <v>200</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E64" s="52" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="45">
-      <c r="A65" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="B65" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="52" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="52" t="s">
-        <v>511</v>
-      </c>
-      <c r="D66" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="E66" s="52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="D67" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="E67" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="52" t="s">
-        <v>665</v>
-      </c>
-      <c r="E68" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="48" t="s">
-        <v>520</v>
-      </c>
-      <c r="B69" s="48"/>
-      <c r="D69" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="E69" s="55"/>
-    </row>
-    <row r="70" spans="1:5" ht="30">
-      <c r="A70" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" s="52" t="s">
-        <v>521</v>
-      </c>
-      <c r="D70" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E70" s="52" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30">
-      <c r="A71" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B71" s="52" t="s">
-        <v>522</v>
-      </c>
-      <c r="D71" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E71" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30">
-      <c r="A72" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B72" s="52" t="s">
-        <v>523</v>
-      </c>
-      <c r="D72" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E72" s="52" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="D73" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="E73" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="45">
-      <c r="D74" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="E74" s="52" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="50" t="s">
-        <v>524</v>
-      </c>
-      <c r="B75" s="51"/>
-      <c r="D75" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="E75" s="57"/>
-    </row>
-    <row r="76" spans="1:5" ht="30">
-      <c r="A76" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B76" s="52" t="s">
-        <v>525</v>
-      </c>
-      <c r="D76" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="52" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30">
-      <c r="A77" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B77" s="52" t="s">
-        <v>526</v>
-      </c>
-      <c r="D77" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="52" t="s">
+      <c r="B329" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="42" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="45">
-      <c r="A78" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" s="52" t="s">
-        <v>527</v>
-      </c>
-      <c r="D78" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="E78" s="52" t="s">
+      <c r="B330" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="42" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="B79" s="51"/>
-      <c r="D79" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="E79" s="52" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B80" s="52" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="B81" s="52" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="30">
-      <c r="A82" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="B82" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="D82" s="50" t="s">
-        <v>675</v>
-      </c>
-      <c r="E82" s="51"/>
-      <c r="F82" s="58" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="30">
-      <c r="A83" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83" s="52" t="s">
-        <v>511</v>
-      </c>
-      <c r="D83" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="E83" s="52" t="s">
-        <v>677</v>
-      </c>
-      <c r="F83" s="52" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="30">
-      <c r="A84" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B84" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="D84" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E84" s="52" t="s">
-        <v>679</v>
-      </c>
-      <c r="F84" s="52" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="45">
-      <c r="A85" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B85" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E85" s="52" t="s">
-        <v>681</v>
-      </c>
-      <c r="F85" s="52" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="52" t="s">
-        <v>529</v>
-      </c>
-      <c r="B86" s="52">
-        <v>50</v>
-      </c>
-      <c r="D86" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="E86" s="55"/>
-      <c r="F86" s="59" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="30">
-      <c r="D87" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E87" s="52" t="s">
-        <v>683</v>
-      </c>
-      <c r="F87" s="52" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="30">
-      <c r="D88" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E88" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="F88" s="52"/>
-    </row>
-    <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="50" t="s">
-        <v>530</v>
-      </c>
-      <c r="B89" s="51"/>
-      <c r="D89" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E89" s="52" t="s">
-        <v>685</v>
-      </c>
-      <c r="F89" s="52" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B90" s="52" t="s">
-        <v>531</v>
-      </c>
-      <c r="D90" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="E90" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="F90" s="52"/>
-    </row>
-    <row r="91" spans="1:6" ht="45">
-      <c r="A91" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B91" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="D91" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="E91" s="52" t="s">
-        <v>687</v>
-      </c>
-      <c r="F91" s="52" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="30">
-      <c r="A92" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B92" s="52" t="s">
-        <v>533</v>
-      </c>
-      <c r="D92" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="E92" s="55"/>
-      <c r="F92" s="59" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="B93" s="51"/>
-      <c r="D93" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" s="52" t="s">
-        <v>689</v>
-      </c>
-      <c r="F93" s="52" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B94" s="52" t="s">
-        <v>534</v>
-      </c>
-      <c r="D94" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E94" s="52" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="30">
-      <c r="A95" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="B95" s="52" t="s">
-        <v>519</v>
-      </c>
-      <c r="D95" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E95" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="30">
-      <c r="A96" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="D96" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="E96" s="52" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B97" s="52">
-        <v>200</v>
-      </c>
-      <c r="D97" s="52" t="s">
-        <v>692</v>
-      </c>
-      <c r="E97" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="30">
-      <c r="A98" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B98" s="52" t="s">
-        <v>511</v>
-      </c>
-      <c r="D98" s="52" t="s">
-        <v>564</v>
-      </c>
-      <c r="E98" s="52" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B99" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="D99" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="52" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B100" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="E100" s="52" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="B101" s="52">
-        <v>60</v>
-      </c>
-      <c r="D101" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="E101" s="52" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="52" t="s">
-        <v>536</v>
-      </c>
-      <c r="B102" s="52">
-        <v>2</v>
-      </c>
-      <c r="D102" s="52" t="s">
-        <v>693</v>
-      </c>
-      <c r="E102" s="52">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="D103" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="E103" s="52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="D104" s="52" t="s">
-        <v>694</v>
-      </c>
-      <c r="E104" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="48" t="s">
-        <v>537</v>
-      </c>
-      <c r="B105" s="48"/>
-      <c r="D105" s="52" t="s">
-        <v>695</v>
-      </c>
-      <c r="E105" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B106" s="52" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="30">
-      <c r="A107" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B107" s="52" t="s">
-        <v>539</v>
-      </c>
-      <c r="D107" s="50" t="s">
-        <v>696</v>
-      </c>
-      <c r="E107" s="51"/>
-    </row>
-    <row r="108" spans="1:5" ht="30">
-      <c r="A108" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" s="52" t="s">
-        <v>540</v>
-      </c>
-      <c r="D108" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="E108" s="52" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30">
-      <c r="A109" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="B109" s="52">
-        <v>60</v>
-      </c>
-      <c r="D109" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E109" s="52" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="45">
-      <c r="A110" s="52" t="s">
-        <v>536</v>
-      </c>
-      <c r="B110" s="52">
-        <v>3</v>
-      </c>
-      <c r="D110" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E110" s="52" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="B111" s="48"/>
-      <c r="D111" s="52" t="s">
-        <v>693</v>
-      </c>
-      <c r="E111" s="52">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B112" s="52" t="s">
-        <v>541</v>
-      </c>
-      <c r="D112" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="E112" s="52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30">
-      <c r="A113" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="B113" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="D113" s="52" t="s">
-        <v>694</v>
-      </c>
-      <c r="E113" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B114" s="52">
-        <v>200</v>
-      </c>
-      <c r="D114" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="E114" s="55"/>
-    </row>
-    <row r="115" spans="1:5" ht="30">
-      <c r="A115" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="B115" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="D115" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E115" s="52" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="30">
-      <c r="A116" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B116" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D116" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E116" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="30">
-      <c r="A117" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B117" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E117" s="52" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B118" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="D118" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="E118" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="45">
-      <c r="D119" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="E119" s="52" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="D120" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="E120" s="57"/>
-    </row>
-    <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="48" t="s">
-        <v>542</v>
-      </c>
-      <c r="B121" s="48"/>
-      <c r="D121" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121" s="52" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B122" s="52" t="s">
-        <v>543</v>
-      </c>
-      <c r="D122" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E122" s="52" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="30">
-      <c r="A123" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B123" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="D123" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E123" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="30">
-      <c r="A124" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B124" s="52" t="s">
-        <v>545</v>
-      </c>
-      <c r="D124" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E124" s="52" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="B125" s="48"/>
-      <c r="D125" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="E125" s="52" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="30">
-      <c r="A126" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="B126" s="52" t="s">
-        <v>547</v>
-      </c>
-      <c r="D126" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="E126" s="52" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="B127" s="52" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="30">
-      <c r="A128" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="B128" s="52" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="30">
-      <c r="A129" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="B129" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="D129" s="50" t="s">
-        <v>704</v>
-      </c>
-      <c r="E129" s="51"/>
-    </row>
-    <row r="130" spans="1:5" ht="30">
-      <c r="D130" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="E130" s="52" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="30">
-      <c r="D131" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E131" s="52" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="48" t="s">
-        <v>551</v>
-      </c>
-      <c r="B132" s="48"/>
-      <c r="D132" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E132" s="52" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B133" s="52" t="s">
-        <v>552</v>
-      </c>
-      <c r="D133" s="52" t="s">
-        <v>693</v>
-      </c>
-      <c r="E133" s="52">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="30">
-      <c r="A134" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B134" s="52" t="s">
-        <v>553</v>
-      </c>
-      <c r="D134" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="E134" s="52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="30">
-      <c r="A135" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B135" s="52" t="s">
-        <v>554</v>
-      </c>
-      <c r="D135" s="52" t="s">
-        <v>694</v>
-      </c>
-      <c r="E135" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="B136" s="48"/>
-      <c r="D136" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="E136" s="55"/>
-    </row>
-    <row r="137" spans="1:5" ht="30">
-      <c r="A137" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="B137" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="D137" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E137" s="52" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="30">
-      <c r="A138" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="B138" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="D138" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E138" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="30">
-      <c r="A139" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="B139" s="52" t="s">
-        <v>556</v>
-      </c>
-      <c r="D139" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E139" s="52" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="30">
-      <c r="A140" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="B140" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="D140" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="E140" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="45">
-      <c r="A141" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B141" s="52">
-        <v>200</v>
-      </c>
-      <c r="D141" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="E141" s="52" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="D142" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="E142" s="57"/>
-    </row>
-    <row r="143" spans="1:5" ht="30">
-      <c r="D143" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E143" s="52" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="B144" s="48"/>
-      <c r="D144" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E144" s="52" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="30">
-      <c r="A145" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B145" s="52" t="s">
-        <v>559</v>
-      </c>
-      <c r="D145" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="E145" s="52" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="30">
-      <c r="A146" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B146" s="52" t="s">
-        <v>560</v>
-      </c>
-      <c r="D146" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E146" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="45">
-      <c r="A147" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B147" s="52" t="s">
-        <v>561</v>
-      </c>
-      <c r="D147" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E147" s="52" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="B148" s="48"/>
-      <c r="D148" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="E148" s="52" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="B149" s="52" t="s">
-        <v>562</v>
-      </c>
-      <c r="D149" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="E149" s="52" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="30">
-      <c r="A150" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="B150" s="52" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B151" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="B152" s="52" t="s">
-        <v>563</v>
-      </c>
-      <c r="D152" s="50" t="s">
-        <v>712</v>
-      </c>
-      <c r="E152" s="51"/>
-    </row>
-    <row r="153" spans="1:5" ht="30">
-      <c r="A153" s="52" t="s">
-        <v>564</v>
-      </c>
-      <c r="B153" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="D153" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="E153" s="52" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="30">
-      <c r="A154" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="B154" s="52">
-        <v>100</v>
-      </c>
-      <c r="D154" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E154" s="52" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="45">
-      <c r="A155" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="B155" s="52" t="s">
-        <v>566</v>
-      </c>
-      <c r="D155" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E155" s="52" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B156" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D156" s="52" t="s">
-        <v>693</v>
-      </c>
-      <c r="E156" s="52">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B157" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D157" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="E157" s="52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B158" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="D158" s="52" t="s">
-        <v>694</v>
-      </c>
-      <c r="E158" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="B159" s="52">
-        <v>60</v>
-      </c>
-      <c r="D159" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="E159" s="55"/>
-    </row>
-    <row r="160" spans="1:5" ht="30">
-      <c r="D160" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E160" s="52" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="30">
-      <c r="D161" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E161" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="48" t="s">
-        <v>567</v>
-      </c>
-      <c r="B162" s="48"/>
-      <c r="D162" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E162" s="52" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B163" s="52" t="s">
-        <v>568</v>
-      </c>
-      <c r="D163" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="E163" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="45">
-      <c r="A164" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B164" s="52" t="s">
-        <v>569</v>
-      </c>
-      <c r="D164" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="E164" s="52" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="45">
-      <c r="A165" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B165" s="52" t="s">
-        <v>570</v>
-      </c>
-      <c r="D165" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="E165" s="57"/>
-    </row>
-    <row r="166" spans="1:5" ht="30">
-      <c r="A166" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="B166" s="52">
-        <v>60</v>
-      </c>
-      <c r="D166" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E166" s="52" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="B167" s="52">
-        <v>3</v>
-      </c>
-      <c r="D167" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E167" s="52" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="30">
-      <c r="A168" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="B168" s="48"/>
-      <c r="D168" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="E168" s="52" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="B169" s="52" t="s">
-        <v>572</v>
-      </c>
-      <c r="D169" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E169" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="30">
-      <c r="A170" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="B170" s="52" t="s">
-        <v>573</v>
-      </c>
-      <c r="D170" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="E170" s="52" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="B171" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="D171" s="52" t="s">
-        <v>720</v>
-      </c>
-      <c r="E171" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="B172" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D172" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E172" s="52" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="30">
-      <c r="A173" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B173" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="D173" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="E173" s="52" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="30">
-      <c r="A174" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="B174" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="D174" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="E174" s="52" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B175" s="52">
-        <v>200</v>
-      </c>
-      <c r="D175" s="52"/>
-      <c r="E175" s="52"/>
-    </row>
-    <row r="176" spans="1:5" ht="30">
-      <c r="A176" s="52" t="s">
-        <v>564</v>
-      </c>
-      <c r="B176" s="52" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B177" s="52" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B178" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D178" s="50" t="s">
-        <v>721</v>
-      </c>
-      <c r="E178" s="51"/>
-    </row>
-    <row r="179" spans="1:5" ht="30">
-      <c r="A179" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B179" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="D179" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="E179" s="52" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="30">
-      <c r="D180" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E180" s="52" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="45">
-      <c r="D181" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E181" s="52" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="48" t="s">
-        <v>575</v>
-      </c>
-      <c r="B182" s="48"/>
-      <c r="D182" s="52" t="s">
-        <v>693</v>
-      </c>
-      <c r="E182" s="52">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B183" s="52" t="s">
-        <v>576</v>
-      </c>
-      <c r="D183" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="E183" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="30">
-      <c r="A184" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B184" s="52" t="s">
-        <v>577</v>
-      </c>
-      <c r="D184" s="52" t="s">
-        <v>694</v>
-      </c>
-      <c r="E184" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="30">
-      <c r="A185" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B185" s="52" t="s">
-        <v>578</v>
-      </c>
-      <c r="D185" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="E185" s="55"/>
-    </row>
-    <row r="186" spans="1:5" ht="30">
-      <c r="A186" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="B186" s="52">
-        <v>60</v>
-      </c>
-      <c r="D186" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E186" s="52" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="30">
-      <c r="A187" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="B187" s="52">
-        <v>3</v>
-      </c>
-      <c r="D187" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E187" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="30">
-      <c r="A188" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="B188" s="48"/>
-      <c r="D188" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E188" s="52" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="B189" s="52" t="s">
-        <v>579</v>
-      </c>
-      <c r="D189" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="E189" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="45">
-      <c r="A190" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="B190" s="52" t="s">
-        <v>580</v>
-      </c>
-      <c r="D190" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="E190" s="52" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="B191" s="52" t="s">
-        <v>581</v>
-      </c>
-      <c r="D191" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="E191" s="57"/>
-    </row>
-    <row r="192" spans="1:5" ht="30">
-      <c r="A192" s="52" t="s">
-        <v>582</v>
-      </c>
-      <c r="B192" s="52" t="s">
-        <v>583</v>
-      </c>
-      <c r="D192" s="52" t="s">
-        <v>728</v>
-      </c>
-      <c r="E192" s="52" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="B193" s="52" t="s">
-        <v>584</v>
-      </c>
-      <c r="D193" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E193" s="52" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="30">
-      <c r="A194" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B194" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="D194" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="E194" s="52" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="30">
-      <c r="A195" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="B195" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="D195" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E195" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B196" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="30">
-      <c r="A197" s="52" t="s">
-        <v>564</v>
-      </c>
-      <c r="B197" s="52" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B198" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D198" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="E198" s="51"/>
-    </row>
-    <row r="199" spans="1:5" ht="30">
-      <c r="A199" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B199" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D199" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="E199" s="52" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="30">
-      <c r="A200" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B200" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="D200" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E200" s="52" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="45">
-      <c r="A201" s="52" t="s">
-        <v>585</v>
-      </c>
-      <c r="B201" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="D201" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E201" s="52" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="D202" s="52" t="s">
-        <v>694</v>
-      </c>
-      <c r="E202" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="48" t="s">
-        <v>586</v>
-      </c>
-      <c r="B203" s="48"/>
-      <c r="D203" s="56" t="s">
-        <v>630</v>
-      </c>
-      <c r="E203" s="57"/>
-    </row>
-    <row r="204" spans="1:5" ht="30">
-      <c r="A204" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B204" s="52" t="s">
-        <v>587</v>
-      </c>
-      <c r="D204" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E204" s="52" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="30">
-      <c r="A205" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B205" s="52" t="s">
-        <v>588</v>
-      </c>
-      <c r="D205" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E205" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="30">
-      <c r="A206" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B206" s="52" t="s">
-        <v>589</v>
-      </c>
-      <c r="D206" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E206" s="52" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="B207" s="52">
-        <v>40</v>
-      </c>
-      <c r="D207" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="E207" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="45">
-      <c r="A208" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="B208" s="52">
-        <v>1</v>
-      </c>
-      <c r="D208" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="E208" s="52" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="B209" s="48"/>
-      <c r="D209" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="E209" s="57"/>
-    </row>
-    <row r="210" spans="1:5" ht="30">
-      <c r="A210" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="B210" s="52" t="s">
-        <v>590</v>
-      </c>
-      <c r="D210" s="52" t="s">
-        <v>728</v>
-      </c>
-      <c r="E210" s="52" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="30">
-      <c r="A211" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="B211" s="52" t="s">
-        <v>591</v>
-      </c>
-      <c r="D211" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E211" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="30">
-      <c r="A212" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="B212" s="52" t="s">
-        <v>592</v>
-      </c>
-      <c r="D212" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="E212" s="52" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="30">
-      <c r="A213" s="52" t="s">
-        <v>582</v>
-      </c>
-      <c r="B213" s="52" t="s">
-        <v>593</v>
-      </c>
-      <c r="D213" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="E213" s="52" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="B214" s="52" t="s">
-        <v>594</v>
-      </c>
-      <c r="D214" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E214" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="30">
-      <c r="A215" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B215" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="30">
-      <c r="A216" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="B216" s="52" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B217" s="52">
-        <v>200</v>
-      </c>
-      <c r="D217" s="50" t="s">
-        <v>740</v>
-      </c>
-      <c r="E217" s="51"/>
-    </row>
-    <row r="218" spans="1:5" ht="30">
-      <c r="A218" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B218" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D218" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="E218" s="52" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="45">
-      <c r="A219" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B219" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D219" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E219" s="52" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="45">
-      <c r="A220" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B220" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="D220" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E220" s="52" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="D221" s="52" t="s">
-        <v>694</v>
-      </c>
-      <c r="E221" s="52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="D222" s="56" t="s">
-        <v>630</v>
-      </c>
-      <c r="E222" s="57"/>
-    </row>
-    <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="48" t="s">
-        <v>595</v>
-      </c>
-      <c r="B223" s="48"/>
-      <c r="D223" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E223" s="52" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="30">
-      <c r="A224" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B224" s="52" t="s">
-        <v>596</v>
-      </c>
-      <c r="D224" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E224" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="45">
-      <c r="A225" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B225" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="D225" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E225" s="52" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="30">
-      <c r="A226" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B226" s="52" t="s">
-        <v>598</v>
-      </c>
-      <c r="D226" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="E226" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="45">
-      <c r="A227" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="B227" s="52">
-        <v>30</v>
-      </c>
-      <c r="D227" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="E227" s="52" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="B228" s="52">
-        <v>2</v>
-      </c>
-      <c r="D228" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="E228" s="57"/>
-    </row>
-    <row r="229" spans="1:5" ht="30">
-      <c r="A229" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="B229" s="48"/>
-      <c r="D229" s="52" t="s">
-        <v>728</v>
-      </c>
-      <c r="E229" s="52" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="30">
-      <c r="A230" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="B230" s="52" t="s">
-        <v>599</v>
-      </c>
-      <c r="D230" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="E230" s="52" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="B231" s="52" t="s">
-        <v>600</v>
-      </c>
-      <c r="D231" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E231" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="30">
-      <c r="A232" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="B232" s="52" t="s">
-        <v>601</v>
-      </c>
-      <c r="D232" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="E232" s="52" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="30">
-      <c r="A233" s="52" t="s">
-        <v>582</v>
-      </c>
-      <c r="B233" s="52" t="s">
-        <v>602</v>
-      </c>
-      <c r="D233" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="E233" s="52" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="B234" s="52" t="s">
-        <v>603</v>
-      </c>
-      <c r="D234" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E234" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="30">
-      <c r="A235" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B235" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="D235" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="E235" s="52" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="30">
-      <c r="A236" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="B236" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="D236" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E236" s="52" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B237" s="52">
-        <v>200</v>
-      </c>
-      <c r="D237" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="E237" s="52" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="30">
-      <c r="A238" s="52" t="s">
-        <v>564</v>
-      </c>
-      <c r="B238" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="D238" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="E238" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B239" s="52">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B240" s="52" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B241" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D241" s="50" t="s">
-        <v>752</v>
-      </c>
-      <c r="E241" s="51"/>
-    </row>
-    <row r="242" spans="1:5" ht="30">
-      <c r="A242" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B242" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="D242" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="E242" s="52" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="45">
-      <c r="D243" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="E243" s="52" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="45">
-      <c r="D244" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E244" s="52" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="49" t="s">
-        <v>756</v>
-      </c>
-      <c r="D245" s="52" t="s">
-        <v>694</v>
-      </c>
-      <c r="E245" s="52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="D246" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="E246" s="52">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="50" t="s">
-        <v>757</v>
-      </c>
-      <c r="B247" s="51"/>
-      <c r="D247" s="52" t="s">
-        <v>758</v>
-      </c>
-      <c r="E247" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B248" s="52" t="s">
-        <v>759</v>
-      </c>
-      <c r="D248" s="56" t="s">
-        <v>630</v>
-      </c>
-      <c r="E248" s="57"/>
-    </row>
-    <row r="249" spans="1:5" ht="30">
-      <c r="A249" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B249" s="52" t="s">
-        <v>760</v>
-      </c>
-      <c r="D249" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E249" s="52" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="30">
-      <c r="A250" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B250" s="52" t="s">
-        <v>762</v>
-      </c>
-      <c r="D250" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E250" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="45">
-      <c r="A251" s="52" t="s">
-        <v>694</v>
-      </c>
-      <c r="B251" s="52">
-        <v>2</v>
-      </c>
-      <c r="D251" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E251" s="52" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="B252" s="52">
-        <v>90</v>
-      </c>
-      <c r="D252" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="E252" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="45">
-      <c r="A253" s="52" t="s">
-        <v>758</v>
-      </c>
-      <c r="B253" s="52">
-        <v>1</v>
-      </c>
-      <c r="D253" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="E253" s="52" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="56" t="s">
-        <v>630</v>
-      </c>
-      <c r="B254" s="57"/>
-      <c r="D254" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="E254" s="57"/>
-    </row>
-    <row r="255" spans="1:5" ht="30">
-      <c r="A255" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B255" s="52" t="s">
-        <v>765</v>
-      </c>
-      <c r="D255" s="52" t="s">
-        <v>728</v>
-      </c>
-      <c r="E255" s="52" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="30">
-      <c r="A256" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B256" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="D256" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="E256" s="52" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="30">
-      <c r="A257" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B257" s="52" t="s">
-        <v>768</v>
-      </c>
-      <c r="D257" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="E257" s="52" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="B258" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D258" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E258" s="52" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="45">
-      <c r="A259" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="B259" s="52" t="s">
-        <v>771</v>
-      </c>
-      <c r="D259" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E259" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="30">
-      <c r="A260" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="B260" s="57"/>
-      <c r="D260" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="E260" s="52" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="52" t="s">
-        <v>728</v>
-      </c>
-      <c r="B261" s="52" t="s">
-        <v>772</v>
-      </c>
-      <c r="D261" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E261" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="30">
-      <c r="A262" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="B262" s="52" t="s">
-        <v>773</v>
-      </c>
-      <c r="D262" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="E262" s="52" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="B263" s="52" t="s">
-        <v>774</v>
-      </c>
-      <c r="D263" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E263" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="52" t="s">
-        <v>582</v>
-      </c>
-      <c r="B264" s="52" t="s">
-        <v>775</v>
-      </c>
-      <c r="D264" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E264" s="52" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="B265" s="52" t="s">
-        <v>770</v>
-      </c>
-      <c r="D265" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="E265" s="52" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="30">
-      <c r="A266" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B266" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="D266" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="E266" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="30">
-      <c r="A267" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="B267" s="52" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B268" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="30">
-      <c r="A269" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="B269" s="52" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="B270" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B271" s="52" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="B272" s="52" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="B273" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="50" t="s">
-        <v>776</v>
-      </c>
-      <c r="B276" s="51"/>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B277" s="52" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="30">
-      <c r="A278" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B278" s="52" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="30">
-      <c r="A279" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B279" s="52" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="52" t="s">
-        <v>694</v>
-      </c>
-      <c r="B280" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="B281" s="52">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="52" t="s">
-        <v>758</v>
-      </c>
-      <c r="B282" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="56" t="s">
-        <v>630</v>
-      </c>
-      <c r="B283" s="57"/>
-    </row>
-    <row r="284" spans="1:2" ht="30">
-      <c r="A284" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B284" s="52" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="30">
-      <c r="A285" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B285" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="30">
-      <c r="A286" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B286" s="52" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="B287" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="45">
-      <c r="A288" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="B288" s="52" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="B289" s="57"/>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="52" t="s">
-        <v>728</v>
-      </c>
-      <c r="B290" s="52" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="B291" s="52" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="B292" s="52" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="52" t="s">
-        <v>582</v>
-      </c>
-      <c r="B293" s="52" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="B294" s="52" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="30">
-      <c r="A295" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B295" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="30">
-      <c r="A296" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="B296" s="52" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B297" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" ht="30">
-      <c r="A298" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="B298" s="52" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="B299" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B300" s="52" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="B301" s="52" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="B302" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="50" t="s">
-        <v>788</v>
-      </c>
-      <c r="B305" s="51"/>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="B306" s="52" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" ht="30">
-      <c r="A307" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="B307" s="52" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" ht="30">
-      <c r="A308" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B308" s="52" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="52" t="s">
-        <v>694</v>
-      </c>
-      <c r="B309" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="B310" s="52">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="52" t="s">
-        <v>758</v>
-      </c>
-      <c r="B311" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="56" t="s">
-        <v>630</v>
-      </c>
-      <c r="B312" s="57"/>
-    </row>
-    <row r="313" spans="1:2" ht="30">
-      <c r="A313" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B313" s="52" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" ht="30">
-      <c r="A314" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B314" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" ht="30">
-      <c r="A315" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B315" s="52" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="B316" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" ht="45">
-      <c r="A317" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="B317" s="52" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="B318" s="57"/>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="52" t="s">
-        <v>728</v>
-      </c>
-      <c r="B319" s="52" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="B320" s="52" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="B321" s="52" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="52" t="s">
-        <v>582</v>
-      </c>
-      <c r="B322" s="52" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="B323" s="52" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" ht="30">
-      <c r="A324" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B324" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="30">
-      <c r="A325" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="B325" s="52" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B326" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="30">
-      <c r="A327" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="B327" s="52" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="B328" s="52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B329" s="52" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="52" t="s">
-        <v>671</v>
-      </c>
-      <c r="B330" s="52" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="B331" s="52" t="s">
+      <c r="B331" s="42" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -10666,28 +10659,36 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
     <mergeCell ref="A203:B203"/>
     <mergeCell ref="A209:B209"/>
     <mergeCell ref="A223:B223"/>
     <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A188:B188"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -10720,7 +10721,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>13</v>
@@ -10731,10 +10732,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" t="s">
         <v>605</v>
-      </c>
-      <c r="B2" t="s">
-        <v>606</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>7</v>
@@ -10745,10 +10746,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B3" t="s">
         <v>607</v>
-      </c>
-      <c r="B3" t="s">
-        <v>608</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>7</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="802">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -2435,6 +2435,15 @@
   </si>
   <si>
     <t>mymaster@gmail.com</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/MYGrovo/TestData/test.jpg</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/MYGrovo/TestData/test.wmv</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/MYGrovo/TestData/test.pdf</t>
   </si>
 </sst>
 </file>
@@ -2852,13 +2861,16 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2871,9 +2883,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3280,7 +3289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -4593,10 +4602,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="54"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="49" t="s">
         <v>170</v>
       </c>
@@ -4683,10 +4692,10 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="54"/>
+      <c r="B79" s="53"/>
       <c r="C79" s="49" t="s">
         <v>182</v>
       </c>
@@ -5155,7 +5164,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="54" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="50"/>
@@ -5618,6 +5627,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A103:B103"/>
@@ -5628,34 +5665,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6803,8 +6812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6821,18 +6830,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="G1" s="55" t="s">
+      <c r="E1" s="57"/>
+      <c r="G1" s="56" t="s">
         <v>625</v>
       </c>
-      <c r="H1" s="56"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="42" t="s">
@@ -6901,14 +6910,14 @@
       <c r="B5" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="G5" s="57" t="s">
+      <c r="E5" s="57"/>
+      <c r="G5" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="H5" s="58"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="42" t="s">
@@ -6947,7 +6956,7 @@
         <v>147</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
@@ -7033,16 +7042,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="56" t="s">
         <v>636</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="D16" s="42" t="s">
         <v>462</v>
       </c>
@@ -7085,16 +7094,16 @@
       <c r="B19" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="E19" s="58"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="D20" s="42" t="s">
         <v>99</v>
       </c>
@@ -7113,7 +7122,7 @@
         <v>147</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
@@ -7121,7 +7130,7 @@
         <v>493</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>105</v>
@@ -7149,16 +7158,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="E25" s="58"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="B26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="D26" s="42" t="s">
         <v>23</v>
       </c>
@@ -7177,7 +7186,7 @@
         <v>147</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7197,14 +7206,14 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="D30" s="55" t="s">
+      <c r="B30" s="57"/>
+      <c r="D30" s="56" t="s">
         <v>644</v>
       </c>
-      <c r="E30" s="56"/>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="42" t="s">
@@ -7225,7 +7234,7 @@
         <v>499</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>466</v>
@@ -7249,16 +7258,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="E34" s="58"/>
+      <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="56" t="s">
         <v>500</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="57"/>
       <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
@@ -7277,7 +7286,7 @@
         <v>147</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
@@ -7309,10 +7318,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B39" s="56"/>
+      <c r="B39" s="57"/>
       <c r="D39" s="42" t="s">
         <v>632</v>
       </c>
@@ -7327,17 +7336,17 @@
       <c r="B40" s="42" t="s">
         <v>504</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="E40" s="58"/>
+      <c r="E40" s="59"/>
     </row>
     <row r="41" spans="1:5" ht="30">
       <c r="A41" s="42" t="s">
         <v>499</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
       <c r="D41" s="42" t="s">
         <v>23</v>
@@ -7357,7 +7366,7 @@
         <v>556</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7369,10 +7378,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="56" t="s">
         <v>505</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="57"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="42" t="s">
@@ -7389,10 +7398,10 @@
       <c r="B46" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="56" t="s">
         <v>652</v>
       </c>
-      <c r="E46" s="56"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" s="42" t="s">
@@ -7409,10 +7418,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B48" s="56"/>
+      <c r="B48" s="57"/>
       <c r="D48" s="42" t="s">
         <v>466</v>
       </c>
@@ -7441,10 +7450,10 @@
       <c r="B50" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="D50" s="57" t="s">
+      <c r="D50" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="E50" s="58"/>
+      <c r="E50" s="59"/>
     </row>
     <row r="51" spans="1:5" ht="30">
       <c r="A51" s="42" t="s">
@@ -7471,7 +7480,7 @@
         <v>147</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30">
@@ -7497,10 +7506,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="56" t="s">
         <v>513</v>
       </c>
-      <c r="B55" s="56"/>
+      <c r="B55" s="57"/>
       <c r="D55" s="42" t="s">
         <v>632</v>
       </c>
@@ -7515,10 +7524,10 @@
       <c r="B56" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="E56" s="58"/>
+      <c r="E56" s="59"/>
     </row>
     <row r="57" spans="1:5" ht="30">
       <c r="A57" s="42" t="s">
@@ -7545,14 +7554,14 @@
         <v>563</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B59" s="56"/>
+      <c r="B59" s="57"/>
       <c r="D59" s="42" t="s">
         <v>139</v>
       </c>
@@ -7576,24 +7585,24 @@
         <v>518</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30">
+    <row r="62" spans="1:5">
       <c r="A62" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="D62" s="55" t="s">
+        <v>799</v>
+      </c>
+      <c r="D62" s="56" t="s">
         <v>660</v>
       </c>
-      <c r="E62" s="56"/>
+      <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="30">
       <c r="A63" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D63" s="42" t="s">
         <v>462</v>
@@ -7621,7 +7630,7 @@
         <v>277</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
       <c r="D65" s="42" t="s">
         <v>109</v>
@@ -7673,14 +7682,14 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="59" t="s">
+      <c r="A69" s="55" t="s">
         <v>519</v>
       </c>
-      <c r="B69" s="59"/>
-      <c r="D69" s="57" t="s">
+      <c r="B69" s="55"/>
+      <c r="D69" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="E69" s="58"/>
+      <c r="E69" s="59"/>
     </row>
     <row r="70" spans="1:5" ht="30">
       <c r="A70" s="42" t="s">
@@ -7707,7 +7716,7 @@
         <v>147</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30">
@@ -7741,10 +7750,10 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="56" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="57"/>
       <c r="D75" s="44" t="s">
         <v>473</v>
       </c>
@@ -7793,10 +7802,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B79" s="56"/>
+      <c r="B79" s="57"/>
       <c r="D79" s="42" t="s">
         <v>672</v>
       </c>
@@ -7820,17 +7829,17 @@
         <v>518</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30">
+    <row r="82" spans="1:6">
       <c r="A82" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="D82" s="55" t="s">
+        <v>799</v>
+      </c>
+      <c r="D82" s="56" t="s">
         <v>674</v>
       </c>
-      <c r="E82" s="56"/>
+      <c r="E82" s="57"/>
       <c r="F82" s="46" t="s">
         <v>675</v>
       </c>
@@ -7893,10 +7902,10 @@
       <c r="B86" s="42">
         <v>50</v>
       </c>
-      <c r="D86" s="57" t="s">
+      <c r="D86" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="E86" s="58"/>
+      <c r="E86" s="59"/>
       <c r="F86" s="47" t="s">
         <v>629</v>
       </c>
@@ -7917,15 +7926,15 @@
         <v>147</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="56" t="s">
         <v>529</v>
       </c>
-      <c r="B89" s="56"/>
+      <c r="B89" s="57"/>
       <c r="D89" s="42" t="s">
         <v>105</v>
       </c>
@@ -7975,19 +7984,19 @@
       <c r="B92" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="D92" s="57" t="s">
+      <c r="D92" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="E92" s="58"/>
+      <c r="E92" s="59"/>
       <c r="F92" s="47" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B93" s="56"/>
+      <c r="B93" s="57"/>
       <c r="D93" s="42" t="s">
         <v>23</v>
       </c>
@@ -8023,7 +8032,7 @@
         <v>147</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30">
@@ -8031,13 +8040,13 @@
         <v>191</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D96" s="42" t="s">
         <v>556</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -8065,7 +8074,7 @@
         <v>563</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -8141,10 +8150,10 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="59" t="s">
+      <c r="A105" s="55" t="s">
         <v>536</v>
       </c>
-      <c r="B105" s="59"/>
+      <c r="B105" s="55"/>
       <c r="D105" s="42" t="s">
         <v>694</v>
       </c>
@@ -8167,10 +8176,10 @@
       <c r="B107" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="D107" s="55" t="s">
+      <c r="D107" s="56" t="s">
         <v>695</v>
       </c>
-      <c r="E107" s="56"/>
+      <c r="E107" s="57"/>
     </row>
     <row r="108" spans="1:5" ht="30">
       <c r="A108" s="42" t="s">
@@ -8215,10 +8224,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="59" t="s">
+      <c r="A111" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B111" s="59"/>
+      <c r="B111" s="55"/>
       <c r="D111" s="42" t="s">
         <v>692</v>
       </c>
@@ -8240,12 +8249,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="30">
+    <row r="113" spans="1:5">
       <c r="A113" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D113" s="42" t="s">
         <v>693</v>
@@ -8261,17 +8270,17 @@
       <c r="B114" s="42">
         <v>200</v>
       </c>
-      <c r="D114" s="57" t="s">
+      <c r="D114" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="E114" s="58"/>
+      <c r="E114" s="59"/>
     </row>
     <row r="115" spans="1:5" ht="30">
       <c r="A115" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
       <c r="D115" s="42" t="s">
         <v>99</v>
@@ -8291,7 +8300,7 @@
         <v>147</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30">
@@ -8337,10 +8346,10 @@
       <c r="E120" s="45"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="59" t="s">
+      <c r="A121" s="55" t="s">
         <v>541</v>
       </c>
-      <c r="B121" s="59"/>
+      <c r="B121" s="55"/>
       <c r="D121" s="42" t="s">
         <v>23</v>
       </c>
@@ -8373,7 +8382,7 @@
         <v>147</v>
       </c>
       <c r="E123" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30">
@@ -8391,10 +8400,10 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="59" t="s">
+      <c r="A125" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B125" s="59"/>
+      <c r="B125" s="55"/>
       <c r="D125" s="42" t="s">
         <v>670</v>
       </c>
@@ -8432,17 +8441,17 @@
         <v>549</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30">
+    <row r="129" spans="1:5">
       <c r="A129" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="D129" s="55" t="s">
+        <v>799</v>
+      </c>
+      <c r="D129" s="56" t="s">
         <v>703</v>
       </c>
-      <c r="E129" s="56"/>
+      <c r="E129" s="57"/>
     </row>
     <row r="130" spans="1:5" ht="30">
       <c r="D130" s="42" t="s">
@@ -8461,10 +8470,10 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="59" t="s">
+      <c r="A132" s="55" t="s">
         <v>550</v>
       </c>
-      <c r="B132" s="59"/>
+      <c r="B132" s="55"/>
       <c r="D132" s="42" t="s">
         <v>109</v>
       </c>
@@ -8515,14 +8524,14 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="59" t="s">
+      <c r="A136" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B136" s="59"/>
-      <c r="D136" s="57" t="s">
+      <c r="B136" s="55"/>
+      <c r="D136" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="E136" s="58"/>
+      <c r="E136" s="59"/>
     </row>
     <row r="137" spans="1:5" ht="30">
       <c r="A137" s="42" t="s">
@@ -8543,13 +8552,13 @@
         <v>236</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D138" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30">
@@ -8566,12 +8575,12 @@
         <v>708</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="30">
+    <row r="140" spans="1:5">
       <c r="A140" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B140" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D140" s="42" t="s">
         <v>378</v>
@@ -8609,10 +8618,10 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="59" t="s">
+      <c r="A144" s="55" t="s">
         <v>557</v>
       </c>
-      <c r="B144" s="59"/>
+      <c r="B144" s="55"/>
       <c r="D144" s="42" t="s">
         <v>165</v>
       </c>
@@ -8631,7 +8640,7 @@
         <v>556</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
@@ -8663,10 +8672,10 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="59" t="s">
+      <c r="A148" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B148" s="59"/>
+      <c r="B148" s="55"/>
       <c r="D148" s="42" t="s">
         <v>670</v>
       </c>
@@ -8688,12 +8697,12 @@
         <v>673</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="30">
+    <row r="150" spans="1:5">
       <c r="A150" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B150" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8711,17 +8720,17 @@
       <c r="B152" s="42" t="s">
         <v>562</v>
       </c>
-      <c r="D152" s="55" t="s">
+      <c r="D152" s="56" t="s">
         <v>711</v>
       </c>
-      <c r="E152" s="56"/>
+      <c r="E152" s="57"/>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" s="42" t="s">
         <v>563</v>
       </c>
       <c r="B153" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
       <c r="D153" s="42" t="s">
         <v>462</v>
@@ -8807,10 +8816,10 @@
       <c r="B159" s="42">
         <v>60</v>
       </c>
-      <c r="D159" s="57" t="s">
+      <c r="D159" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="E159" s="58"/>
+      <c r="E159" s="59"/>
     </row>
     <row r="160" spans="1:5" ht="30">
       <c r="D160" s="42" t="s">
@@ -8825,14 +8834,14 @@
         <v>147</v>
       </c>
       <c r="E161" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="59" t="s">
+      <c r="A162" s="55" t="s">
         <v>566</v>
       </c>
-      <c r="B162" s="59"/>
+      <c r="B162" s="55"/>
       <c r="D162" s="42" t="s">
         <v>105</v>
       </c>
@@ -8909,15 +8918,15 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
-      <c r="A168" s="59" t="s">
+      <c r="A168" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="59"/>
+      <c r="B168" s="55"/>
       <c r="D168" s="42" t="s">
         <v>556</v>
       </c>
       <c r="E168" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -8945,7 +8954,7 @@
         <v>277</v>
       </c>
       <c r="E170" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -8976,12 +8985,12 @@
         <v>669</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="30">
+    <row r="173" spans="1:5">
       <c r="A173" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D173" s="42" t="s">
         <v>670</v>
@@ -8990,12 +8999,12 @@
         <v>671</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="30">
+    <row r="174" spans="1:5">
       <c r="A174" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B174" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D174" s="42" t="s">
         <v>672</v>
@@ -9014,12 +9023,12 @@
       <c r="D175" s="42"/>
       <c r="E175" s="42"/>
     </row>
-    <row r="176" spans="1:5" ht="30">
+    <row r="176" spans="1:5">
       <c r="A176" s="42" t="s">
         <v>563</v>
       </c>
       <c r="B176" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -9037,10 +9046,10 @@
       <c r="B178" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="55" t="s">
+      <c r="D178" s="56" t="s">
         <v>720</v>
       </c>
-      <c r="E178" s="56"/>
+      <c r="E178" s="57"/>
     </row>
     <row r="179" spans="1:5" ht="30">
       <c r="A179" s="42" t="s">
@@ -9073,10 +9082,10 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="59" t="s">
+      <c r="A182" s="55" t="s">
         <v>574</v>
       </c>
-      <c r="B182" s="59"/>
+      <c r="B182" s="55"/>
       <c r="D182" s="42" t="s">
         <v>692</v>
       </c>
@@ -9119,10 +9128,10 @@
       <c r="B185" s="42" t="s">
         <v>577</v>
       </c>
-      <c r="D185" s="57" t="s">
+      <c r="D185" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="E185" s="58"/>
+      <c r="E185" s="59"/>
     </row>
     <row r="186" spans="1:5" ht="30">
       <c r="A186" s="42" t="s">
@@ -9149,14 +9158,14 @@
         <v>147</v>
       </c>
       <c r="E187" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
-      <c r="A188" s="59" t="s">
+      <c r="A188" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B188" s="59"/>
+      <c r="B188" s="55"/>
       <c r="D188" s="42" t="s">
         <v>105</v>
       </c>
@@ -9237,7 +9246,7 @@
         <v>147</v>
       </c>
       <c r="B194" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D194" s="42" t="s">
         <v>548</v>
@@ -9251,13 +9260,13 @@
         <v>556</v>
       </c>
       <c r="B195" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D195" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E195" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -9268,12 +9277,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="30">
+    <row r="197" spans="1:5">
       <c r="A197" s="42" t="s">
         <v>563</v>
       </c>
       <c r="B197" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -9283,10 +9292,10 @@
       <c r="B198" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D198" s="55" t="s">
+      <c r="D198" s="56" t="s">
         <v>730</v>
       </c>
-      <c r="E198" s="56"/>
+      <c r="E198" s="57"/>
     </row>
     <row r="199" spans="1:5" ht="30">
       <c r="A199" s="42" t="s">
@@ -9339,10 +9348,10 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="59" t="s">
+      <c r="A203" s="55" t="s">
         <v>585</v>
       </c>
-      <c r="B203" s="59"/>
+      <c r="B203" s="55"/>
       <c r="D203" s="44" t="s">
         <v>629</v>
       </c>
@@ -9373,7 +9382,7 @@
         <v>147</v>
       </c>
       <c r="E205" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="30">
@@ -9419,10 +9428,10 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="59" t="s">
+      <c r="A209" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B209" s="59"/>
+      <c r="B209" s="55"/>
       <c r="D209" s="44" t="s">
         <v>473</v>
       </c>
@@ -9453,7 +9462,7 @@
         <v>147</v>
       </c>
       <c r="E211" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="30">
@@ -9481,7 +9490,7 @@
         <v>191</v>
       </c>
       <c r="E213" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -9498,20 +9507,20 @@
         <v>200</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="30">
+    <row r="215" spans="1:5">
       <c r="A215" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B215" s="42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="30">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B216" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -9521,10 +9530,10 @@
       <c r="B217" s="42">
         <v>200</v>
       </c>
-      <c r="D217" s="55" t="s">
+      <c r="D217" s="56" t="s">
         <v>739</v>
       </c>
-      <c r="E217" s="56"/>
+      <c r="E217" s="57"/>
     </row>
     <row r="218" spans="1:5" ht="30">
       <c r="A218" s="42" t="s">
@@ -9583,10 +9592,10 @@
       <c r="E222" s="45"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="59" t="s">
+      <c r="A223" s="55" t="s">
         <v>594</v>
       </c>
-      <c r="B223" s="59"/>
+      <c r="B223" s="55"/>
       <c r="D223" s="42" t="s">
         <v>99</v>
       </c>
@@ -9605,7 +9614,7 @@
         <v>147</v>
       </c>
       <c r="E224" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="45">
@@ -9663,10 +9672,10 @@
       <c r="E228" s="45"/>
     </row>
     <row r="229" spans="1:5" ht="30">
-      <c r="A229" s="59" t="s">
+      <c r="A229" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B229" s="59"/>
+      <c r="B229" s="55"/>
       <c r="D229" s="42" t="s">
         <v>727</v>
       </c>
@@ -9685,7 +9694,7 @@
         <v>191</v>
       </c>
       <c r="E230" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -9727,7 +9736,7 @@
         <v>277</v>
       </c>
       <c r="E233" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -9749,7 +9758,7 @@
         <v>147</v>
       </c>
       <c r="B235" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D235" s="42" t="s">
         <v>564</v>
@@ -9758,12 +9767,12 @@
         <v>748</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="30">
+    <row r="236" spans="1:5">
       <c r="A236" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B236" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D236" s="42" t="s">
         <v>24</v>
@@ -9786,12 +9795,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="30">
+    <row r="238" spans="1:5">
       <c r="A238" s="42" t="s">
         <v>563</v>
       </c>
       <c r="B238" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
       <c r="D238" s="42" t="s">
         <v>672</v>
@@ -9823,10 +9832,10 @@
       <c r="B241" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="55" t="s">
+      <c r="D241" s="56" t="s">
         <v>751</v>
       </c>
-      <c r="E241" s="56"/>
+      <c r="E241" s="57"/>
     </row>
     <row r="242" spans="1:5" ht="30">
       <c r="A242" s="42" t="s">
@@ -9878,10 +9887,10 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="55" t="s">
+      <c r="A247" s="56" t="s">
         <v>756</v>
       </c>
-      <c r="B247" s="56"/>
+      <c r="B247" s="57"/>
       <c r="D247" s="42" t="s">
         <v>757</v>
       </c>
@@ -9926,7 +9935,7 @@
         <v>147</v>
       </c>
       <c r="E250" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="45">
@@ -10000,7 +10009,7 @@
         <v>147</v>
       </c>
       <c r="B256" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D256" s="42" t="s">
         <v>548</v>
@@ -10048,7 +10057,7 @@
         <v>147</v>
       </c>
       <c r="E259" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="30">
@@ -10060,7 +10069,7 @@
         <v>191</v>
       </c>
       <c r="E260" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -10088,7 +10097,7 @@
         <v>277</v>
       </c>
       <c r="E262" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -10133,12 +10142,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="30">
+    <row r="266" spans="1:5">
       <c r="A266" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B266" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D266" s="42" t="s">
         <v>672</v>
@@ -10147,12 +10156,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="30">
+    <row r="267" spans="1:5">
       <c r="A267" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B267" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -10163,12 +10172,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="30">
+    <row r="269" spans="1:5">
       <c r="A269" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B269" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -10204,10 +10213,10 @@
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="55" t="s">
+      <c r="A276" s="56" t="s">
         <v>775</v>
       </c>
-      <c r="B276" s="56"/>
+      <c r="B276" s="57"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="42" t="s">
@@ -10271,12 +10280,12 @@
         <v>779</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="30">
+    <row r="285" spans="1:2">
       <c r="A285" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B285" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="30">
@@ -10349,20 +10358,20 @@
         <v>786</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="30">
+    <row r="295" spans="1:2">
       <c r="A295" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B295" s="42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="30">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B296" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -10373,12 +10382,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="30">
+    <row r="298" spans="1:2">
       <c r="A298" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B298" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -10414,10 +10423,10 @@
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="55" t="s">
+      <c r="A305" s="56" t="s">
         <v>787</v>
       </c>
-      <c r="B305" s="56"/>
+      <c r="B305" s="57"/>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="42" t="s">
@@ -10481,12 +10490,12 @@
         <v>791</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="30">
+    <row r="314" spans="1:2">
       <c r="A314" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B314" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="30">
@@ -10559,20 +10568,20 @@
         <v>769</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="30">
+    <row r="324" spans="1:2">
       <c r="A324" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B324" s="42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="30">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
       <c r="A325" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -10583,12 +10592,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="30">
+    <row r="327" spans="1:2">
       <c r="A327" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B327" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -10625,24 +10634,36 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -10659,36 +10680,24 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="802">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -2861,22 +2861,22 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4602,10 +4602,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="49" t="s">
         <v>170</v>
       </c>
@@ -4692,10 +4692,10 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="53"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="49" t="s">
         <v>182</v>
       </c>
@@ -5164,7 +5164,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="52" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="50"/>
@@ -5627,6 +5627,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -5637,34 +5665,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6810,10 +6810,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H331"/>
+  <dimension ref="A1:H329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6830,18 +6830,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="57"/>
+      <c r="D1" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="G1" s="56" t="s">
+      <c r="E1" s="56"/>
+      <c r="G1" s="55" t="s">
         <v>625</v>
       </c>
-      <c r="H1" s="57"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="42" t="s">
@@ -6910,10 +6910,10 @@
       <c r="B5" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="57"/>
+      <c r="E5" s="56"/>
       <c r="G5" s="58" t="s">
         <v>629</v>
       </c>
@@ -7042,16 +7042,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="55" t="s">
         <v>636</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="56"/>
       <c r="D16" s="42" t="s">
         <v>462</v>
       </c>
@@ -7100,10 +7100,10 @@
       <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="56"/>
       <c r="D20" s="42" t="s">
         <v>99</v>
       </c>
@@ -7164,10 +7164,10 @@
       <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="55" t="s">
         <v>494</v>
       </c>
-      <c r="B26" s="57"/>
+      <c r="B26" s="56"/>
       <c r="D26" s="42" t="s">
         <v>23</v>
       </c>
@@ -7206,14 +7206,14 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="D30" s="56" t="s">
+      <c r="B30" s="56"/>
+      <c r="D30" s="55" t="s">
         <v>644</v>
       </c>
-      <c r="E30" s="57"/>
+      <c r="E30" s="56"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="42" t="s">
@@ -7264,10 +7264,10 @@
       <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="55" t="s">
         <v>500</v>
       </c>
-      <c r="B35" s="57"/>
+      <c r="B35" s="56"/>
       <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
@@ -7318,10 +7318,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B39" s="57"/>
+      <c r="B39" s="56"/>
       <c r="D39" s="42" t="s">
         <v>632</v>
       </c>
@@ -7378,10 +7378,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="56"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="42" t="s">
@@ -7398,10 +7398,10 @@
       <c r="B46" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="55" t="s">
         <v>652</v>
       </c>
-      <c r="E46" s="57"/>
+      <c r="E46" s="56"/>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" s="42" t="s">
@@ -7418,10 +7418,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="56"/>
       <c r="D48" s="42" t="s">
         <v>466</v>
       </c>
@@ -7506,10 +7506,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="B55" s="57"/>
+      <c r="B55" s="56"/>
       <c r="D55" s="42" t="s">
         <v>632</v>
       </c>
@@ -7558,10 +7558,10 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="56"/>
       <c r="D59" s="42" t="s">
         <v>139</v>
       </c>
@@ -7592,10 +7592,10 @@
       <c r="B62" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="55" t="s">
         <v>660</v>
       </c>
-      <c r="E62" s="57"/>
+      <c r="E62" s="56"/>
     </row>
     <row r="63" spans="1:5" ht="30">
       <c r="A63" s="42" t="s">
@@ -7682,10 +7682,10 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="57" t="s">
         <v>519</v>
       </c>
-      <c r="B69" s="55"/>
+      <c r="B69" s="57"/>
       <c r="D69" s="58" t="s">
         <v>629</v>
       </c>
@@ -7750,10 +7750,10 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="55" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="57"/>
+      <c r="B75" s="56"/>
       <c r="D75" s="44" t="s">
         <v>473</v>
       </c>
@@ -7802,10 +7802,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B79" s="57"/>
+      <c r="B79" s="56"/>
       <c r="D79" s="42" t="s">
         <v>672</v>
       </c>
@@ -7836,10 +7836,10 @@
       <c r="B82" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="D82" s="56" t="s">
+      <c r="D82" s="55" t="s">
         <v>674</v>
       </c>
-      <c r="E82" s="57"/>
+      <c r="E82" s="56"/>
       <c r="F82" s="46" t="s">
         <v>675</v>
       </c>
@@ -7931,10 +7931,10 @@
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="B89" s="57"/>
+      <c r="B89" s="56"/>
       <c r="D89" s="42" t="s">
         <v>105</v>
       </c>
@@ -7993,10 +7993,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="56" t="s">
+      <c r="A93" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B93" s="57"/>
+      <c r="B93" s="56"/>
       <c r="D93" s="42" t="s">
         <v>23</v>
       </c>
@@ -8150,10 +8150,10 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="55" t="s">
+      <c r="A105" s="57" t="s">
         <v>536</v>
       </c>
-      <c r="B105" s="55"/>
+      <c r="B105" s="57"/>
       <c r="D105" s="42" t="s">
         <v>694</v>
       </c>
@@ -8176,10 +8176,10 @@
       <c r="B107" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="D107" s="56" t="s">
+      <c r="D107" s="55" t="s">
         <v>695</v>
       </c>
-      <c r="E107" s="57"/>
+      <c r="E107" s="56"/>
     </row>
     <row r="108" spans="1:5" ht="30">
       <c r="A108" s="42" t="s">
@@ -8224,10 +8224,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="55" t="s">
+      <c r="A111" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B111" s="55"/>
+      <c r="B111" s="57"/>
       <c r="D111" s="42" t="s">
         <v>692</v>
       </c>
@@ -8346,10 +8346,10 @@
       <c r="E120" s="45"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="55" t="s">
+      <c r="A121" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="B121" s="55"/>
+      <c r="B121" s="57"/>
       <c r="D121" s="42" t="s">
         <v>23</v>
       </c>
@@ -8400,10 +8400,10 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="55" t="s">
+      <c r="A125" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B125" s="55"/>
+      <c r="B125" s="57"/>
       <c r="D125" s="42" t="s">
         <v>670</v>
       </c>
@@ -8448,10 +8448,10 @@
       <c r="B129" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="D129" s="56" t="s">
+      <c r="D129" s="55" t="s">
         <v>703</v>
       </c>
-      <c r="E129" s="57"/>
+      <c r="E129" s="56"/>
     </row>
     <row r="130" spans="1:5" ht="30">
       <c r="D130" s="42" t="s">
@@ -8470,10 +8470,10 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="55" t="s">
+      <c r="A132" s="57" t="s">
         <v>550</v>
       </c>
-      <c r="B132" s="55"/>
+      <c r="B132" s="57"/>
       <c r="D132" s="42" t="s">
         <v>109</v>
       </c>
@@ -8524,10 +8524,10 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="55" t="s">
+      <c r="A136" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B136" s="55"/>
+      <c r="B136" s="57"/>
       <c r="D136" s="58" t="s">
         <v>629</v>
       </c>
@@ -8618,10 +8618,10 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="55" t="s">
+      <c r="A144" s="57" t="s">
         <v>557</v>
       </c>
-      <c r="B144" s="55"/>
+      <c r="B144" s="57"/>
       <c r="D144" s="42" t="s">
         <v>165</v>
       </c>
@@ -8672,10 +8672,10 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="55" t="s">
+      <c r="A148" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B148" s="55"/>
+      <c r="B148" s="57"/>
       <c r="D148" s="42" t="s">
         <v>670</v>
       </c>
@@ -8720,10 +8720,10 @@
       <c r="B152" s="42" t="s">
         <v>562</v>
       </c>
-      <c r="D152" s="56" t="s">
+      <c r="D152" s="55" t="s">
         <v>711</v>
       </c>
-      <c r="E152" s="57"/>
+      <c r="E152" s="56"/>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" s="42" t="s">
@@ -8838,10 +8838,10 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="55" t="s">
+      <c r="A162" s="57" t="s">
         <v>566</v>
       </c>
-      <c r="B162" s="55"/>
+      <c r="B162" s="57"/>
       <c r="D162" s="42" t="s">
         <v>105</v>
       </c>
@@ -8918,10 +8918,10 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
-      <c r="A168" s="55" t="s">
+      <c r="A168" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="55"/>
+      <c r="B168" s="57"/>
       <c r="D168" s="42" t="s">
         <v>556</v>
       </c>
@@ -9046,10 +9046,10 @@
       <c r="B178" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="56" t="s">
+      <c r="D178" s="55" t="s">
         <v>720</v>
       </c>
-      <c r="E178" s="57"/>
+      <c r="E178" s="56"/>
     </row>
     <row r="179" spans="1:5" ht="30">
       <c r="A179" s="42" t="s">
@@ -9082,10 +9082,10 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="55" t="s">
+      <c r="A182" s="57" t="s">
         <v>574</v>
       </c>
-      <c r="B182" s="55"/>
+      <c r="B182" s="57"/>
       <c r="D182" s="42" t="s">
         <v>692</v>
       </c>
@@ -9162,10 +9162,10 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
-      <c r="A188" s="55" t="s">
+      <c r="A188" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B188" s="55"/>
+      <c r="B188" s="57"/>
       <c r="D188" s="42" t="s">
         <v>105</v>
       </c>
@@ -9292,10 +9292,10 @@
       <c r="B198" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D198" s="56" t="s">
+      <c r="D198" s="55" t="s">
         <v>730</v>
       </c>
-      <c r="E198" s="57"/>
+      <c r="E198" s="56"/>
     </row>
     <row r="199" spans="1:5" ht="30">
       <c r="A199" s="42" t="s">
@@ -9348,10 +9348,10 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="55" t="s">
+      <c r="A203" s="57" t="s">
         <v>585</v>
       </c>
-      <c r="B203" s="55"/>
+      <c r="B203" s="57"/>
       <c r="D203" s="44" t="s">
         <v>629</v>
       </c>
@@ -9428,10 +9428,10 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="55" t="s">
+      <c r="A209" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B209" s="55"/>
+      <c r="B209" s="57"/>
       <c r="D209" s="44" t="s">
         <v>473</v>
       </c>
@@ -9530,10 +9530,10 @@
       <c r="B217" s="42">
         <v>200</v>
       </c>
-      <c r="D217" s="56" t="s">
+      <c r="D217" s="55" t="s">
         <v>739</v>
       </c>
-      <c r="E217" s="57"/>
+      <c r="E217" s="56"/>
     </row>
     <row r="218" spans="1:5" ht="30">
       <c r="A218" s="42" t="s">
@@ -9592,10 +9592,10 @@
       <c r="E222" s="45"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="55" t="s">
+      <c r="A223" s="57" t="s">
         <v>594</v>
       </c>
-      <c r="B223" s="55"/>
+      <c r="B223" s="57"/>
       <c r="D223" s="42" t="s">
         <v>99</v>
       </c>
@@ -9672,10 +9672,10 @@
       <c r="E228" s="45"/>
     </row>
     <row r="229" spans="1:5" ht="30">
-      <c r="A229" s="55" t="s">
+      <c r="A229" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B229" s="55"/>
+      <c r="B229" s="57"/>
       <c r="D229" s="42" t="s">
         <v>727</v>
       </c>
@@ -9832,10 +9832,10 @@
       <c r="B241" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="56" t="s">
+      <c r="D241" s="55" t="s">
         <v>751</v>
       </c>
-      <c r="E241" s="57"/>
+      <c r="E241" s="56"/>
     </row>
     <row r="242" spans="1:5" ht="30">
       <c r="A242" s="42" t="s">
@@ -9887,10 +9887,10 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="56" t="s">
+      <c r="A247" s="55" t="s">
         <v>756</v>
       </c>
-      <c r="B247" s="57"/>
+      <c r="B247" s="56"/>
       <c r="D247" s="42" t="s">
         <v>757</v>
       </c>
@@ -10213,10 +10213,10 @@
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="56" t="s">
+      <c r="A276" s="55" t="s">
         <v>775</v>
       </c>
-      <c r="B276" s="57"/>
+      <c r="B276" s="56"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="42" t="s">
@@ -10384,209 +10384,209 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="42" t="s">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="B298" s="42" t="s">
-        <v>801</v>
+        <v>749</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B299" s="42">
-        <v>200</v>
+        <v>670</v>
+      </c>
+      <c r="B299" s="42" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="42" t="s">
-        <v>24</v>
+        <v>672</v>
       </c>
       <c r="B300" s="42" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="42" t="s">
-        <v>670</v>
-      </c>
-      <c r="B301" s="42" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="42" t="s">
-        <v>672</v>
-      </c>
-      <c r="B302" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="56" t="s">
+    <row r="303" spans="1:2">
+      <c r="A303" s="55" t="s">
         <v>787</v>
       </c>
-      <c r="B305" s="57"/>
-    </row>
-    <row r="306" spans="1:2">
+      <c r="B303" s="56"/>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B304" s="42" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="30">
+      <c r="A305" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B305" s="42" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="30">
       <c r="A306" s="42" t="s">
-        <v>462</v>
+        <v>109</v>
       </c>
       <c r="B306" s="42" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" ht="30">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
       <c r="A307" s="42" t="s">
-        <v>466</v>
-      </c>
-      <c r="B307" s="42" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" ht="30">
+        <v>693</v>
+      </c>
+      <c r="B307" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
       <c r="A308" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B308" s="42" t="s">
-        <v>790</v>
+        <v>534</v>
+      </c>
+      <c r="B308" s="42">
+        <v>90</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="42" t="s">
-        <v>693</v>
+        <v>757</v>
       </c>
       <c r="B309" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="42" t="s">
-        <v>534</v>
-      </c>
-      <c r="B310" s="42">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
+      <c r="A310" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="B310" s="45"/>
+    </row>
+    <row r="311" spans="1:2" ht="30">
       <c r="A311" s="42" t="s">
-        <v>757</v>
-      </c>
-      <c r="B311" s="42">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="B311" s="42" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="B312" s="45"/>
+      <c r="A312" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B312" s="42" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="313" spans="1:2" ht="30">
       <c r="A313" s="42" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B313" s="42" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="42" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
       <c r="B314" s="42" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" ht="30">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="45">
       <c r="A315" s="42" t="s">
-        <v>105</v>
+        <v>632</v>
       </c>
       <c r="B315" s="42" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="B316" s="42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" ht="45">
+      <c r="A316" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="B316" s="45"/>
+    </row>
+    <row r="317" spans="1:2">
       <c r="A317" s="42" t="s">
-        <v>632</v>
+        <v>727</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="B318" s="45"/>
+      <c r="A318" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B318" s="42" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="42" t="s">
-        <v>727</v>
+        <v>564</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="42" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="B320" s="42" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="42" t="s">
-        <v>564</v>
+        <v>165</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>796</v>
+        <v>769</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="42" t="s">
-        <v>581</v>
+        <v>147</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="42" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="B323" s="42" t="s">
-        <v>769</v>
+        <v>800</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B324" s="42" t="s">
-        <v>799</v>
+        <v>132</v>
+      </c>
+      <c r="B324" s="42">
+        <v>200</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="42" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="42" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B326" s="42">
         <v>200</v>
@@ -10594,76 +10594,48 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="42" t="s">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="B327" s="42" t="s">
-        <v>801</v>
+        <v>749</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B328" s="42">
-        <v>200</v>
+        <v>670</v>
+      </c>
+      <c r="B328" s="42" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="42" t="s">
-        <v>24</v>
+        <v>672</v>
       </c>
       <c r="B329" s="42" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="42" t="s">
-        <v>670</v>
-      </c>
-      <c r="B330" s="42" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="42" t="s">
-        <v>672</v>
-      </c>
-      <c r="B331" s="42" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -10680,24 +10652,36 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="CreateCampaigns" sheetId="25" r:id="rId8"/>
     <sheet name="API testing" sheetId="26" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="807">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -1414,6 +1414,9 @@
     <t>/home/ubuntu/Grovo_Automation/TestData/test.pdf</t>
   </si>
   <si>
+    <t>testadmin@grovo.com</t>
+  </si>
+  <si>
     <t>Campaigns Page display</t>
   </si>
   <si>
@@ -1870,51 +1873,15 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Mathee</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
-    <t>katt</t>
-  </si>
-  <si>
     <t>Bore</t>
   </si>
   <si>
-    <t>Mathai</t>
-  </si>
-  <si>
     <t>Leon</t>
   </si>
   <si>
-    <t>Agee</t>
-  </si>
-  <si>
-    <t>Jame0@grovo.com</t>
-  </si>
-  <si>
-    <t>Alex0@grovo.com</t>
-  </si>
-  <si>
-    <t>Bore0@grovo.com</t>
-  </si>
-  <si>
-    <t>Leon0@grovo.com</t>
-  </si>
-  <si>
-    <t>Empl#0</t>
-  </si>
-  <si>
-    <t>Empc#0</t>
-  </si>
-  <si>
-    <t>Empma#0</t>
-  </si>
-  <si>
-    <t>Empla#0</t>
-  </si>
-  <si>
     <t>Create Campaign for Track with Text Lesson</t>
   </si>
   <si>
@@ -2434,7 +2401,55 @@
     <t>Lesson_for_CampTrack_FourLessons_Three(4)</t>
   </si>
   <si>
-    <t>mymaster@gmail.com</t>
+    <t>TC_33</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>TC_35</t>
+  </si>
+  <si>
+    <t>L35</t>
+  </si>
+  <si>
+    <t>TC_45</t>
+  </si>
+  <si>
+    <t>%^&amp;*((CUI</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>kattei</t>
+  </si>
+  <si>
+    <t>Agle</t>
+  </si>
+  <si>
+    <t>Alex1@grovo.com</t>
+  </si>
+  <si>
+    <t>Jame1@grovo.com</t>
+  </si>
+  <si>
+    <t>Bore1@grovo.com</t>
+  </si>
+  <si>
+    <t>Leon@grovo.com</t>
+  </si>
+  <si>
+    <t>Empl#1</t>
+  </si>
+  <si>
+    <t>Empc#2</t>
+  </si>
+  <si>
+    <t>Empma#3</t>
+  </si>
+  <si>
+    <t>Empla#3</t>
   </si>
   <si>
     <t>/home/ubuntu/MYGrovo/TestData/test.jpg</t>
@@ -2837,17 +2852,17 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2962,6 +2977,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3290,7 +3313,7 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -3338,7 +3361,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>798</v>
+        <v>458</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>7</v>
@@ -3364,7 +3387,6 @@
     <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3378,7 +3400,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="18.75"/>
@@ -3397,7 +3419,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.95" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -3426,16 +3448,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>610</v>
+        <v>793</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>618</v>
+        <v>796</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>621</v>
+        <v>800</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -3452,13 +3474,13 @@
         <v>611</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>612</v>
+        <v>794</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>617</v>
+        <v>797</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>622</v>
+        <v>801</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -3475,16 +3497,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>614</v>
+        <v>793</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>619</v>
+        <v>798</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>623</v>
+        <v>802</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -3501,16 +3523,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>616</v>
+        <v>795</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>620</v>
+        <v>799</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>624</v>
+        <v>803</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -6812,8 +6834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6831,140 +6853,140 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="57" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B1" s="57"/>
       <c r="D1" s="55" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E1" s="56"/>
       <c r="G1" s="55" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="42" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E2" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>462</v>
-      </c>
       <c r="H2" s="42" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1">
       <c r="A3" s="42" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E3" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>466</v>
-      </c>
       <c r="H3" s="42" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
       <c r="A4" s="42" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>109</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="42" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E5" s="56"/>
       <c r="G5" s="58" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="42" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>212</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>99</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
       <c r="A7" s="42" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>147</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
       <c r="A8" s="42" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
@@ -6972,15 +6994,15 @@
         <v>105</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="42" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -6993,42 +7015,42 @@
     </row>
     <row r="10" spans="1:8" ht="45">
       <c r="A10" s="42" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="G10" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="42"/>
       <c r="B11" s="43" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
-      <c r="G11" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="H11" s="45"/>
+      <c r="G11" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:8" ht="30">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -7038,53 +7060,53 @@
         <v>236</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="D15" s="55" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="E15" s="56"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="A16" s="55" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B16" s="56"/>
       <c r="D16" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
       <c r="A17" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45">
       <c r="A18" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
@@ -7092,23 +7114,23 @@
         <v>109</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="55" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B20" s="56"/>
       <c r="D20" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
@@ -7116,27 +7138,27 @@
         <v>212</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
       <c r="A22" s="42" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7151,50 +7173,50 @@
     </row>
     <row r="24" spans="1:5" ht="45">
       <c r="D24" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="D25" s="58" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
       <c r="A26" s="55" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B26" s="56"/>
       <c r="D26" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30">
       <c r="A27" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30">
@@ -7202,16 +7224,16 @@
         <v>109</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B30" s="56"/>
       <c r="D30" s="55" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="E30" s="56"/>
     </row>
@@ -7220,27 +7242,27 @@
         <v>212</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
       <c r="A32" s="42" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45">
@@ -7254,53 +7276,53 @@
         <v>109</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="D34" s="58" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
       <c r="A35" s="55" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B35" s="56"/>
       <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30">
       <c r="A36" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D36" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
       <c r="A37" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D37" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30">
@@ -7308,7 +7330,7 @@
         <v>109</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D38" s="42" t="s">
         <v>378</v>
@@ -7319,14 +7341,14 @@
     </row>
     <row r="39" spans="1:5" ht="45">
       <c r="A39" s="55" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B39" s="56"/>
       <c r="D39" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7334,25 +7356,25 @@
         <v>212</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E40" s="59"/>
     </row>
     <row r="41" spans="1:5" ht="30">
       <c r="A41" s="42" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D41" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30">
@@ -7363,10 +7385,10 @@
         <v>200</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7379,27 +7401,27 @@
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
       <c r="A44" s="55" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B44" s="56"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="E46" s="56"/>
     </row>
@@ -7408,25 +7430,25 @@
         <v>109</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
       <c r="A48" s="55" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B48" s="56"/>
       <c r="D48" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45">
@@ -7434,13 +7456,13 @@
         <v>212</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D49" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7448,10 +7470,10 @@
         <v>24</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E50" s="59"/>
     </row>
@@ -7460,13 +7482,13 @@
         <v>151</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D51" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30">
@@ -7480,12 +7502,12 @@
         <v>147</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30">
       <c r="A53" s="42" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B53" s="42">
         <v>2</v>
@@ -7494,7 +7516,7 @@
         <v>105</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -7507,40 +7529,40 @@
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
       <c r="A55" s="55" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B55" s="56"/>
       <c r="D55" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E56" s="59"/>
     </row>
     <row r="57" spans="1:5" ht="30">
       <c r="A57" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D57" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30">
@@ -7548,18 +7570,18 @@
         <v>109</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="55" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B59" s="56"/>
       <c r="D59" s="42" t="s">
@@ -7574,7 +7596,7 @@
         <v>212</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -7582,7 +7604,7 @@
         <v>236</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -7590,10 +7612,10 @@
         <v>180</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="E62" s="56"/>
     </row>
@@ -7602,13 +7624,13 @@
         <v>191</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30">
@@ -7619,10 +7641,10 @@
         <v>200</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45">
@@ -7630,13 +7652,13 @@
         <v>277</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D65" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -7644,10 +7666,10 @@
         <v>24</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E66" s="42">
         <v>50</v>
@@ -7658,10 +7680,10 @@
         <v>151</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E67" s="42">
         <v>2</v>
@@ -7675,7 +7697,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="E68" s="42">
         <v>2</v>
@@ -7683,11 +7705,11 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="57" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B69" s="57"/>
       <c r="D69" s="58" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E69" s="59"/>
     </row>
@@ -7696,13 +7718,13 @@
         <v>99</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D70" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30">
@@ -7710,13 +7732,13 @@
         <v>212</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D71" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30">
@@ -7724,13 +7746,13 @@
         <v>109</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D72" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -7743,48 +7765,48 @@
     </row>
     <row r="74" spans="1:5" ht="45">
       <c r="D74" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
       <c r="A75" s="55" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B75" s="56"/>
-      <c r="D75" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="E75" s="45"/>
+      <c r="D75" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="E75" s="47"/>
     </row>
     <row r="76" spans="1:5" ht="30">
       <c r="A76" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D76" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30">
       <c r="A77" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D77" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="45">
@@ -7792,25 +7814,25 @@
         <v>109</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="55" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B79" s="56"/>
       <c r="D79" s="42" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -7818,7 +7840,7 @@
         <v>212</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7826,7 +7848,7 @@
         <v>236</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -7834,14 +7856,14 @@
         <v>180</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D82" s="55" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="E82" s="56"/>
-      <c r="F82" s="46" t="s">
-        <v>675</v>
+      <c r="F82" s="44" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="30">
@@ -7849,16 +7871,16 @@
         <v>24</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30">
@@ -7866,16 +7888,16 @@
         <v>151</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="45">
@@ -7889,25 +7911,25 @@
         <v>109</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="F85" s="42" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="42" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B86" s="42">
         <v>50</v>
       </c>
       <c r="D86" s="58" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E86" s="59"/>
-      <c r="F86" s="47" t="s">
-        <v>629</v>
+      <c r="F86" s="45" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="30">
@@ -7915,10 +7937,10 @@
         <v>99</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="F87" s="42" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30">
@@ -7926,31 +7948,31 @@
         <v>147</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
       <c r="A89" s="55" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B89" s="56"/>
       <c r="D89" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="F89" s="42" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D90" s="42" t="s">
         <v>378</v>
@@ -7962,19 +7984,19 @@
     </row>
     <row r="91" spans="1:6" ht="45">
       <c r="A91" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="F91" s="42" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="30">
@@ -7982,29 +8004,29 @@
         <v>109</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D92" s="58" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E92" s="59"/>
-      <c r="F92" s="47" t="s">
-        <v>473</v>
+      <c r="F92" s="45" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
       <c r="A93" s="55" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B93" s="56"/>
       <c r="D93" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="F93" s="42" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8012,13 +8034,13 @@
         <v>212</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D94" s="42" t="s">
         <v>165</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30">
@@ -8026,13 +8048,13 @@
         <v>236</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D95" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30">
@@ -8040,13 +8062,13 @@
         <v>191</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -8057,7 +8079,7 @@
         <v>200</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="E97" s="42">
         <v>200</v>
@@ -8068,13 +8090,13 @@
         <v>24</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D98" s="42" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -8082,13 +8104,13 @@
         <v>151</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D99" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -8099,35 +8121,35 @@
         <v>25</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B101" s="42">
         <v>60</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="42" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B102" s="42">
         <v>2</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="E102" s="42">
         <v>55</v>
@@ -8135,7 +8157,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="D103" s="42" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E103" s="42">
         <v>3</v>
@@ -8143,7 +8165,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="D104" s="42" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="E104" s="42">
         <v>5</v>
@@ -8151,11 +8173,11 @@
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
       <c r="A105" s="57" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B105" s="57"/>
       <c r="D105" s="42" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="E105" s="42">
         <v>200</v>
@@ -8163,21 +8185,21 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B106" s="42" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30">
       <c r="A107" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B107" s="42" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D107" s="55" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="E107" s="56"/>
     </row>
@@ -8186,32 +8208,32 @@
         <v>109</v>
       </c>
       <c r="B108" s="42" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30">
       <c r="A109" s="42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B109" s="42">
         <v>60</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="45">
       <c r="A110" s="42" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B110" s="42">
         <v>3</v>
@@ -8220,16 +8242,16 @@
         <v>109</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="57" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B111" s="57"/>
       <c r="D111" s="42" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="E111" s="42">
         <v>55</v>
@@ -8240,10 +8262,10 @@
         <v>212</v>
       </c>
       <c r="B112" s="42" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E112" s="42">
         <v>3</v>
@@ -8254,10 +8276,10 @@
         <v>191</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="E113" s="42">
         <v>5</v>
@@ -8271,7 +8293,7 @@
         <v>200</v>
       </c>
       <c r="D114" s="58" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E114" s="59"/>
     </row>
@@ -8280,13 +8302,13 @@
         <v>277</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D115" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30">
@@ -8300,7 +8322,7 @@
         <v>147</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30">
@@ -8314,7 +8336,7 @@
         <v>105</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -8322,7 +8344,7 @@
         <v>152</v>
       </c>
       <c r="B118" s="42" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D118" s="42" t="s">
         <v>378</v>
@@ -8333,56 +8355,56 @@
     </row>
     <row r="119" spans="1:5" ht="45">
       <c r="D119" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E119" s="42" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="D120" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="E120" s="45"/>
+      <c r="D120" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="E120" s="47"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
       <c r="A121" s="57" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B121" s="57"/>
       <c r="D121" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E121" s="42" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B122" s="42" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D122" s="42" t="s">
         <v>165</v>
       </c>
       <c r="E122" s="42" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30">
       <c r="A123" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D123" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E123" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30">
@@ -8390,39 +8412,39 @@
         <v>109</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D124" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E124" s="42" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="57" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B125" s="57"/>
       <c r="D125" s="42" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="E125" s="42" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30">
       <c r="A126" s="42" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B126" s="42" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="E126" s="42" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -8430,15 +8452,15 @@
         <v>236</v>
       </c>
       <c r="B127" s="42" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="30">
       <c r="A128" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B128" s="42" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -8446,50 +8468,50 @@
         <v>180</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D129" s="55" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="E129" s="56"/>
     </row>
     <row r="130" spans="1:5" ht="30">
       <c r="D130" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E130" s="42" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="30">
       <c r="D131" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E131" s="42" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
       <c r="A132" s="57" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B132" s="57"/>
       <c r="D132" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E132" s="42" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B133" s="42" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D133" s="42" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="E133" s="42">
         <v>55</v>
@@ -8497,13 +8519,13 @@
     </row>
     <row r="134" spans="1:5" ht="30">
       <c r="A134" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B134" s="42" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E134" s="42">
         <v>3</v>
@@ -8514,10 +8536,10 @@
         <v>109</v>
       </c>
       <c r="B135" s="42" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D135" s="42" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="E135" s="42">
         <v>5</v>
@@ -8525,26 +8547,26 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="57" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B136" s="57"/>
       <c r="D136" s="58" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E136" s="59"/>
     </row>
     <row r="137" spans="1:5" ht="30">
       <c r="A137" s="42" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B137" s="42" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D137" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E137" s="42" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="30">
@@ -8552,35 +8574,35 @@
         <v>236</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D138" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30">
       <c r="A139" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B139" s="42" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D139" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E139" s="42" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="42" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B140" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D140" s="42" t="s">
         <v>378</v>
@@ -8597,58 +8619,58 @@
         <v>200</v>
       </c>
       <c r="D141" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E141" s="42" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="D142" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="E142" s="45"/>
+      <c r="D142" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="E142" s="47"/>
     </row>
     <row r="143" spans="1:5" ht="30">
       <c r="D143" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E143" s="42" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
       <c r="A144" s="57" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B144" s="57"/>
       <c r="D144" s="42" t="s">
         <v>165</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30">
       <c r="A145" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B145" s="42" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D145" s="42" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
       <c r="A146" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B146" s="42" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D146" s="42" t="s">
         <v>132</v>
@@ -8662,47 +8684,47 @@
         <v>109</v>
       </c>
       <c r="B147" s="42" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D147" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E147" s="42" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="57" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B148" s="57"/>
       <c r="D148" s="42" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="42" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B149" s="42" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D149" s="42" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="E149" s="42" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="42" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B150" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8713,30 +8735,30 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" ht="15" customHeight="1">
       <c r="A152" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B152" s="42" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D152" s="55" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="E152" s="56"/>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" s="42" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B153" s="42" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E153" s="42" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="30">
@@ -8747,24 +8769,24 @@
         <v>100</v>
       </c>
       <c r="D154" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E154" s="42" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="45">
       <c r="A155" s="42" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B155" s="42" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D155" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E155" s="42" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -8775,7 +8797,7 @@
         <v>214</v>
       </c>
       <c r="D156" s="42" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="E156" s="42">
         <v>55</v>
@@ -8789,7 +8811,7 @@
         <v>25</v>
       </c>
       <c r="D157" s="42" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E157" s="42">
         <v>3</v>
@@ -8800,10 +8822,10 @@
         <v>152</v>
       </c>
       <c r="B158" s="42" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D158" s="42" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="E158" s="42">
         <v>5</v>
@@ -8811,13 +8833,13 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B159" s="42">
         <v>60</v>
       </c>
       <c r="D159" s="58" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E159" s="59"/>
     </row>
@@ -8826,7 +8848,7 @@
         <v>99</v>
       </c>
       <c r="E160" s="42" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="30">
@@ -8834,27 +8856,27 @@
         <v>147</v>
       </c>
       <c r="E161" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
       <c r="A162" s="57" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B162" s="57"/>
       <c r="D162" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E162" s="42" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B163" s="42" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D163" s="42" t="s">
         <v>378</v>
@@ -8865,16 +8887,16 @@
     </row>
     <row r="164" spans="1:5" ht="45">
       <c r="A164" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B164" s="42" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E164" s="42" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="45">
@@ -8882,16 +8904,16 @@
         <v>109</v>
       </c>
       <c r="B165" s="42" t="s">
-        <v>569</v>
-      </c>
-      <c r="D165" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="E165" s="45"/>
+        <v>570</v>
+      </c>
+      <c r="D165" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="E165" s="47"/>
     </row>
     <row r="166" spans="1:5" ht="30">
       <c r="A166" s="42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B166" s="42">
         <v>60</v>
@@ -8900,12 +8922,12 @@
         <v>23</v>
       </c>
       <c r="E166" s="42" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="42" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B167" s="42">
         <v>3</v>
@@ -8914,27 +8936,27 @@
         <v>165</v>
       </c>
       <c r="E167" s="42" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
       <c r="A168" s="57" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B168" s="57"/>
       <c r="D168" s="42" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E168" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="42" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B169" s="42" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D169" s="42" t="s">
         <v>132</v>
@@ -8945,27 +8967,27 @@
     </row>
     <row r="170" spans="1:5" ht="30">
       <c r="A170" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B170" s="42" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D170" s="42" t="s">
         <v>277</v>
       </c>
       <c r="E170" s="42" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="42" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B171" s="42" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="E171" s="42">
         <v>200</v>
@@ -8982,7 +9004,7 @@
         <v>24</v>
       </c>
       <c r="E172" s="42" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -8990,27 +9012,27 @@
         <v>147</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D173" s="42" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="E173" s="42" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="42" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B174" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D174" s="42" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="E174" s="42" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -9025,10 +9047,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="42" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B176" s="42" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -9039,7 +9061,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" ht="15" customHeight="1">
       <c r="A178" s="42" t="s">
         <v>151</v>
       </c>
@@ -9047,7 +9069,7 @@
         <v>25</v>
       </c>
       <c r="D178" s="55" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="E178" s="56"/>
     </row>
@@ -9056,21 +9078,21 @@
         <v>152</v>
       </c>
       <c r="B179" s="42" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E179" s="42" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="30">
       <c r="D180" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E180" s="42" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="45">
@@ -9078,16 +9100,16 @@
         <v>109</v>
       </c>
       <c r="E181" s="42" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
       <c r="A182" s="57" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B182" s="57"/>
       <c r="D182" s="42" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="E182" s="42">
         <v>90</v>
@@ -9095,13 +9117,13 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B183" s="42" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D183" s="42" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E183" s="42">
         <v>5</v>
@@ -9109,13 +9131,13 @@
     </row>
     <row r="184" spans="1:5" ht="30">
       <c r="A184" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B184" s="42" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="E184" s="42">
         <v>5</v>
@@ -9126,16 +9148,16 @@
         <v>109</v>
       </c>
       <c r="B185" s="42" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D185" s="58" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E185" s="59"/>
     </row>
     <row r="186" spans="1:5" ht="30">
       <c r="A186" s="42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B186" s="42">
         <v>60</v>
@@ -9144,12 +9166,12 @@
         <v>99</v>
       </c>
       <c r="E186" s="42" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="30">
       <c r="A187" s="42" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B187" s="42">
         <v>3</v>
@@ -9158,27 +9180,27 @@
         <v>147</v>
       </c>
       <c r="E187" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
       <c r="A188" s="57" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B188" s="57"/>
       <c r="D188" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E188" s="42" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="42" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B189" s="42" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D189" s="42" t="s">
         <v>378</v>
@@ -9189,42 +9211,42 @@
     </row>
     <row r="190" spans="1:5" ht="45">
       <c r="A190" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B190" s="42" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D190" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E190" s="42" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="42" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B191" s="42" t="s">
-        <v>580</v>
-      </c>
-      <c r="D191" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="E191" s="45"/>
+        <v>581</v>
+      </c>
+      <c r="D191" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="E191" s="47"/>
     </row>
     <row r="192" spans="1:5" ht="30">
       <c r="A192" s="42" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B192" s="42" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D192" s="42" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="E192" s="42" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -9232,13 +9254,13 @@
         <v>236</v>
       </c>
       <c r="B193" s="42" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D193" s="42" t="s">
         <v>165</v>
       </c>
       <c r="E193" s="42" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="30">
@@ -9246,27 +9268,27 @@
         <v>147</v>
       </c>
       <c r="B194" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D194" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E194" s="42" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="30">
       <c r="A195" s="42" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B195" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D195" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E195" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -9279,13 +9301,13 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="42" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B197" s="42" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1">
       <c r="A198" s="42" t="s">
         <v>24</v>
       </c>
@@ -9293,7 +9315,7 @@
         <v>214</v>
       </c>
       <c r="D198" s="55" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="E198" s="56"/>
     </row>
@@ -9305,10 +9327,10 @@
         <v>25</v>
       </c>
       <c r="D199" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E199" s="42" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="30">
@@ -9316,18 +9338,18 @@
         <v>152</v>
       </c>
       <c r="B200" s="42" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D200" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E200" s="42" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="45">
       <c r="A201" s="42" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B201" s="42" t="s">
         <v>119</v>
@@ -9336,12 +9358,12 @@
         <v>109</v>
       </c>
       <c r="E201" s="42" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="D202" s="42" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="E202" s="42">
         <v>5</v>
@@ -9349,40 +9371,40 @@
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
       <c r="A203" s="57" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B203" s="57"/>
-      <c r="D203" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="E203" s="45"/>
+      <c r="D203" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="E203" s="47"/>
     </row>
     <row r="204" spans="1:5" ht="30">
       <c r="A204" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B204" s="42" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D204" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E204" s="42" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="30">
       <c r="A205" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B205" s="42" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D205" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E205" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="30">
@@ -9390,18 +9412,18 @@
         <v>109</v>
       </c>
       <c r="B206" s="42" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D206" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E206" s="42" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B207" s="42">
         <v>40</v>
@@ -9415,82 +9437,82 @@
     </row>
     <row r="208" spans="1:5" ht="45">
       <c r="A208" s="42" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B208" s="42">
         <v>1</v>
       </c>
       <c r="D208" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E208" s="42" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="57" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B209" s="57"/>
-      <c r="D209" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="E209" s="45"/>
+      <c r="D209" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="E209" s="47"/>
     </row>
     <row r="210" spans="1:5" ht="30">
       <c r="A210" s="42" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B210" s="42" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D210" s="42" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="E210" s="42" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="30">
       <c r="A211" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B211" s="42" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D211" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E211" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="30">
       <c r="A212" s="42" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B212" s="42" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D212" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E212" s="42" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="30">
       <c r="A213" s="42" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B213" s="42" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D213" s="42" t="s">
         <v>191</v>
       </c>
       <c r="E213" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -9498,7 +9520,7 @@
         <v>236</v>
       </c>
       <c r="B214" s="42" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D214" s="42" t="s">
         <v>132</v>
@@ -9512,18 +9534,18 @@
         <v>147</v>
       </c>
       <c r="B215" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="42" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B216" s="42" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" customHeight="1">
       <c r="A217" s="42" t="s">
         <v>132</v>
       </c>
@@ -9531,7 +9553,7 @@
         <v>200</v>
       </c>
       <c r="D217" s="55" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="E217" s="56"/>
     </row>
@@ -9543,10 +9565,10 @@
         <v>214</v>
       </c>
       <c r="D218" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E218" s="42" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="45">
@@ -9557,10 +9579,10 @@
         <v>25</v>
       </c>
       <c r="D219" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E219" s="42" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="45">
@@ -9568,67 +9590,67 @@
         <v>152</v>
       </c>
       <c r="B220" s="42" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D220" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E220" s="42" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="D221" s="42" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="E221" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="D222" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="E222" s="45"/>
+      <c r="D222" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="E222" s="47"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
       <c r="A223" s="57" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B223" s="57"/>
       <c r="D223" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E223" s="42" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="30">
       <c r="A224" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B224" s="42" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D224" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E224" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="45">
       <c r="A225" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B225" s="42" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D225" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E225" s="42" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="30">
@@ -9636,7 +9658,7 @@
         <v>109</v>
       </c>
       <c r="B226" s="42" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D226" s="42" t="s">
         <v>378</v>
@@ -9647,62 +9669,62 @@
     </row>
     <row r="227" spans="1:5" ht="45">
       <c r="A227" s="42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B227" s="42">
         <v>30</v>
       </c>
       <c r="D227" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E227" s="42" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="42" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B228" s="42">
         <v>2</v>
       </c>
-      <c r="D228" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="E228" s="45"/>
+      <c r="D228" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="E228" s="47"/>
     </row>
     <row r="229" spans="1:5" ht="30">
       <c r="A229" s="57" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B229" s="57"/>
       <c r="D229" s="42" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="E229" s="42" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="30">
       <c r="A230" s="42" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B230" s="42" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D230" s="42" t="s">
         <v>191</v>
       </c>
       <c r="E230" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B231" s="42" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D231" s="42" t="s">
         <v>132</v>
@@ -9713,30 +9735,30 @@
     </row>
     <row r="232" spans="1:5" ht="30">
       <c r="A232" s="42" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B232" s="42" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D232" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E232" s="42" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="30">
       <c r="A233" s="42" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B233" s="42" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D233" s="42" t="s">
         <v>277</v>
       </c>
       <c r="E233" s="42" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -9744,7 +9766,7 @@
         <v>236</v>
       </c>
       <c r="B234" s="42" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D234" s="42" t="s">
         <v>139</v>
@@ -9758,27 +9780,27 @@
         <v>147</v>
       </c>
       <c r="B235" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D235" s="42" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E235" s="42" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="42" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B236" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D236" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E236" s="42" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -9789,21 +9811,21 @@
         <v>200</v>
       </c>
       <c r="D237" s="42" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="E237" s="42" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="42" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B238" s="42" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="D238" s="42" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="E238" s="42" t="s">
         <v>119</v>
@@ -9825,7 +9847,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" ht="15" customHeight="1">
       <c r="A241" s="42" t="s">
         <v>151</v>
       </c>
@@ -9833,7 +9855,7 @@
         <v>25</v>
       </c>
       <c r="D241" s="55" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="E241" s="56"/>
     </row>
@@ -9842,21 +9864,21 @@
         <v>152</v>
       </c>
       <c r="B242" s="42" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D242" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E242" s="42" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="45">
       <c r="D243" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E243" s="42" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="45">
@@ -9864,15 +9886,15 @@
         <v>109</v>
       </c>
       <c r="E244" s="42" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="41" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="E245" s="42">
         <v>3</v>
@@ -9880,19 +9902,19 @@
     </row>
     <row r="246" spans="1:5">
       <c r="D246" s="42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E246" s="42">
         <v>90</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" ht="15" customHeight="1">
       <c r="A247" s="55" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="B247" s="56"/>
       <c r="D247" s="42" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="E247" s="42">
         <v>1</v>
@@ -9900,28 +9922,28 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B248" s="42" t="s">
-        <v>758</v>
-      </c>
-      <c r="D248" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="E248" s="45"/>
+        <v>747</v>
+      </c>
+      <c r="D248" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="E248" s="47"/>
     </row>
     <row r="249" spans="1:5" ht="30">
       <c r="A249" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B249" s="42" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="D249" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E249" s="42" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="30">
@@ -9929,18 +9951,18 @@
         <v>109</v>
       </c>
       <c r="B250" s="42" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="D250" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E250" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="45">
       <c r="A251" s="42" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="B251" s="42">
         <v>2</v>
@@ -9949,12 +9971,12 @@
         <v>105</v>
       </c>
       <c r="E251" s="42" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B252" s="42">
         <v>90</v>
@@ -9968,40 +9990,40 @@
     </row>
     <row r="253" spans="1:5" ht="45">
       <c r="A253" s="42" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B253" s="42">
         <v>1</v>
       </c>
       <c r="D253" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E253" s="42" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="B254" s="45"/>
-      <c r="D254" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="E254" s="45"/>
+      <c r="A254" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="B254" s="47"/>
+      <c r="D254" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="E254" s="47"/>
     </row>
     <row r="255" spans="1:5" ht="30">
       <c r="A255" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B255" s="42" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D255" s="42" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="E255" s="42" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="30">
@@ -10009,13 +10031,13 @@
         <v>147</v>
       </c>
       <c r="B256" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D256" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E256" s="42" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="30">
@@ -10023,13 +10045,13 @@
         <v>105</v>
       </c>
       <c r="B257" s="42" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="D257" s="42" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E257" s="42" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -10043,41 +10065,41 @@
         <v>165</v>
       </c>
       <c r="E258" s="42" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="45">
       <c r="A259" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="B259" s="42" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="D259" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E259" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="30">
-      <c r="A260" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="B260" s="45"/>
+      <c r="A260" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="B260" s="47"/>
       <c r="D260" s="42" t="s">
         <v>191</v>
       </c>
       <c r="E260" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="42" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="B261" s="42" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="D261" s="42" t="s">
         <v>132</v>
@@ -10088,24 +10110,24 @@
     </row>
     <row r="262" spans="1:5" ht="30">
       <c r="A262" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B262" s="42" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="D262" s="42" t="s">
         <v>277</v>
       </c>
       <c r="E262" s="42" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="42" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B263" s="42" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="D263" s="42" t="s">
         <v>139</v>
@@ -10116,16 +10138,16 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="42" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B264" s="42" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="D264" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E264" s="42" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -10133,13 +10155,13 @@
         <v>165</v>
       </c>
       <c r="B265" s="42" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="D265" s="42" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="E265" s="42" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -10147,10 +10169,10 @@
         <v>147</v>
       </c>
       <c r="B266" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D266" s="42" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="E266" s="42" t="s">
         <v>119</v>
@@ -10161,7 +10183,7 @@
         <v>191</v>
       </c>
       <c r="B267" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -10177,7 +10199,7 @@
         <v>277</v>
       </c>
       <c r="B269" s="42" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -10193,45 +10215,45 @@
         <v>24</v>
       </c>
       <c r="B271" s="42" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="42" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B272" s="42" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="42" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B273" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" ht="15" customHeight="1">
       <c r="A276" s="55" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="B276" s="56"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B277" s="42" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="30">
       <c r="A278" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B278" s="42" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="30">
@@ -10239,12 +10261,12 @@
         <v>109</v>
       </c>
       <c r="B279" s="42" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="42" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="B280" s="42">
         <v>2</v>
@@ -10252,7 +10274,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B281" s="42">
         <v>90</v>
@@ -10260,24 +10282,24 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="42" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B282" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="B283" s="45"/>
+      <c r="A283" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="B283" s="47"/>
     </row>
     <row r="284" spans="1:2" ht="30">
       <c r="A284" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B284" s="42" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -10285,7 +10307,7 @@
         <v>147</v>
       </c>
       <c r="B285" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="30">
@@ -10293,7 +10315,7 @@
         <v>105</v>
       </c>
       <c r="B286" s="42" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -10306,48 +10328,48 @@
     </row>
     <row r="288" spans="1:2" ht="45">
       <c r="A288" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="B288" s="42" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="B289" s="45"/>
+      <c r="A289" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="B289" s="47"/>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="42" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="B290" s="42" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B291" s="42" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="42" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B292" s="42" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="42" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B293" s="42" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -10355,7 +10377,7 @@
         <v>165</v>
       </c>
       <c r="B294" s="42" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -10363,7 +10385,7 @@
         <v>147</v>
       </c>
       <c r="B295" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -10371,7 +10393,7 @@
         <v>191</v>
       </c>
       <c r="B296" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -10387,20 +10409,20 @@
         <v>24</v>
       </c>
       <c r="B298" s="42" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="42" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B299" s="42" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="42" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B300" s="42" t="s">
         <v>119</v>
@@ -10408,24 +10430,24 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="55" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B303" s="56"/>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B304" s="42" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" ht="30">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="15" customHeight="1">
       <c r="A305" s="42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B305" s="42" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="30">
@@ -10433,12 +10455,12 @@
         <v>109</v>
       </c>
       <c r="B306" s="42" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="42" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="B307" s="42">
         <v>2</v>
@@ -10446,7 +10468,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="42" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B308" s="42">
         <v>90</v>
@@ -10454,24 +10476,24 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="42" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B309" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="B310" s="45"/>
+      <c r="A310" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="B310" s="47"/>
     </row>
     <row r="311" spans="1:2" ht="30">
       <c r="A311" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B311" s="42" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -10479,7 +10501,7 @@
         <v>147</v>
       </c>
       <c r="B312" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="30">
@@ -10487,7 +10509,7 @@
         <v>105</v>
       </c>
       <c r="B313" s="42" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -10500,48 +10522,48 @@
     </row>
     <row r="315" spans="1:2" ht="45">
       <c r="A315" s="42" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="B315" s="42" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="B316" s="45"/>
+      <c r="A316" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="B316" s="47"/>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="42" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="42" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="42" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="42" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B320" s="42" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -10549,7 +10571,7 @@
         <v>165</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -10557,7 +10579,7 @@
         <v>147</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -10565,7 +10587,7 @@
         <v>191</v>
       </c>
       <c r="B323" s="42" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -10581,7 +10603,7 @@
         <v>277</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -10597,20 +10619,20 @@
         <v>24</v>
       </c>
       <c r="B327" s="42" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="42" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B328" s="42" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="42" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B329" s="42" t="s">
         <v>119</v>
@@ -10672,7 +10694,6 @@
     <mergeCell ref="D159:E159"/>
     <mergeCell ref="D178:E178"/>
     <mergeCell ref="D185:E185"/>
-    <mergeCell ref="A303:B303"/>
     <mergeCell ref="D198:E198"/>
     <mergeCell ref="D217:E217"/>
     <mergeCell ref="D241:E241"/>
@@ -10682,6 +10703,7 @@
     <mergeCell ref="A209:B209"/>
     <mergeCell ref="A223:B223"/>
     <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A303:B303"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -10697,12 +10719,12 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -10714,7 +10736,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>13</v>
@@ -10725,10 +10747,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>7</v>
@@ -10739,10 +10761,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>7</v>
@@ -10751,9 +10773,47 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B5" t="s">
+        <v>790</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="6" spans="1:4">
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="A6" t="s">
+        <v>791</v>
+      </c>
+      <c r="B6" t="s">
+        <v>792</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10761,6 +10821,12 @@
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="D3" r:id="rId3"/>
     <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -1414,9 +1414,6 @@
     <t>/home/ubuntu/Grovo_Automation/TestData/test.pdf</t>
   </si>
   <si>
-    <t>testadmin@grovo.com</t>
-  </si>
-  <si>
     <t>Campaigns Page display</t>
   </si>
   <si>
@@ -2459,6 +2456,9 @@
   </si>
   <si>
     <t>/home/ubuntu/MYGrovo/TestData/test.pdf</t>
+  </si>
+  <si>
+    <t>mymaster@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2876,22 +2876,22 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3312,8 +3312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -3361,7 +3361,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>458</v>
+        <v>806</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>7</v>
@@ -3387,6 +3387,7 @@
     <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3419,7 +3420,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.95" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -3448,16 +3449,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -3471,16 +3472,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -3497,16 +3498,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -3523,16 +3524,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -4624,10 +4625,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="54"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="49" t="s">
         <v>170</v>
       </c>
@@ -4714,10 +4715,10 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="54"/>
+      <c r="B79" s="53"/>
       <c r="C79" s="49" t="s">
         <v>182</v>
       </c>
@@ -5186,7 +5187,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="54" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="50"/>
@@ -5649,6 +5650,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A103:B103"/>
@@ -5659,34 +5688,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6834,7 +6835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+    <sheetView topLeftCell="A297" workbookViewId="0">
       <selection activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
@@ -6852,141 +6853,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="D1" s="55" t="s">
-        <v>460</v>
-      </c>
-      <c r="E1" s="56"/>
-      <c r="G1" s="55" t="s">
-        <v>614</v>
-      </c>
-      <c r="H1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="G1" s="56" t="s">
+        <v>613</v>
+      </c>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>462</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>464</v>
-      </c>
       <c r="G2" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1">
       <c r="A3" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>465</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>466</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>468</v>
-      </c>
       <c r="G3" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
       <c r="A4" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>469</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>470</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>109</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="D5" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="G5" s="58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>475</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>476</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>212</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>99</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
       <c r="A7" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>478</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>479</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>147</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
       <c r="A8" s="42" t="s">
+        <v>480</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>481</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>482</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
@@ -6994,15 +6995,15 @@
         <v>105</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="42" t="s">
+        <v>482</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>483</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>484</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -7015,42 +7016,42 @@
     </row>
     <row r="10" spans="1:8" ht="45">
       <c r="A10" s="42" t="s">
+        <v>484</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>485</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>486</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="G10" s="42" t="s">
+        <v>620</v>
+      </c>
+      <c r="H10" s="42" t="s">
         <v>621</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="42"/>
       <c r="B11" s="43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="G11" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:8" ht="30">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -7060,53 +7061,53 @@
         <v>236</v>
       </c>
       <c r="H13" s="42" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="D15" s="56" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="D15" s="55" t="s">
+      <c r="E15" s="57"/>
+    </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="56" t="s">
+        <v>488</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="D16" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E16" s="42" t="s">
         <v>625</v>
-      </c>
-      <c r="E15" s="56"/>
-    </row>
-    <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="55" t="s">
-        <v>489</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="D16" s="42" t="s">
-        <v>463</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
       <c r="A17" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45">
       <c r="A18" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
@@ -7114,23 +7115,23 @@
         <v>109</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="B20" s="56"/>
+      <c r="A20" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="B20" s="57"/>
       <c r="D20" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
@@ -7138,27 +7139,27 @@
         <v>212</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
       <c r="A22" s="42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7173,50 +7174,50 @@
     </row>
     <row r="24" spans="1:5" ht="45">
       <c r="D24" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="D25" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="55" t="s">
-        <v>495</v>
-      </c>
-      <c r="B26" s="56"/>
+      <c r="A26" s="56" t="s">
+        <v>494</v>
+      </c>
+      <c r="B26" s="57"/>
       <c r="D26" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30">
       <c r="A27" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30">
@@ -7224,45 +7225,45 @@
         <v>109</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1">
-      <c r="A30" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="B30" s="56"/>
-      <c r="D30" s="55" t="s">
-        <v>633</v>
-      </c>
-      <c r="E30" s="56"/>
+      <c r="A30" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="D30" s="56" t="s">
+        <v>632</v>
+      </c>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="42" t="s">
         <v>212</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
       <c r="A32" s="42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45">
@@ -7276,53 +7277,53 @@
         <v>109</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="D34" s="58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="B35" s="56"/>
+      <c r="A35" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="B35" s="57"/>
       <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30">
       <c r="A36" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D36" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
       <c r="A37" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D37" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30">
@@ -7330,7 +7331,7 @@
         <v>109</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D38" s="42" t="s">
         <v>378</v>
@@ -7340,15 +7341,15 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="B39" s="56"/>
+      <c r="A39" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="B39" s="57"/>
       <c r="D39" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7356,25 +7357,25 @@
         <v>212</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E40" s="59"/>
     </row>
     <row r="41" spans="1:5" ht="30">
       <c r="A41" s="42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D41" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30">
@@ -7385,10 +7386,10 @@
         <v>200</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7400,55 +7401,55 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="55" t="s">
-        <v>506</v>
-      </c>
-      <c r="B44" s="56"/>
+      <c r="A44" s="56" t="s">
+        <v>505</v>
+      </c>
+      <c r="B44" s="57"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>508</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>641</v>
-      </c>
-      <c r="E46" s="56"/>
+        <v>507</v>
+      </c>
+      <c r="D46" s="56" t="s">
+        <v>640</v>
+      </c>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" s="42" t="s">
         <v>109</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E47" s="42" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30">
+      <c r="A48" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="B48" s="57"/>
+      <c r="D48" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E48" s="42" t="s">
         <v>642</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="B48" s="56"/>
-      <c r="D48" s="42" t="s">
-        <v>467</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45">
@@ -7456,13 +7457,13 @@
         <v>212</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D49" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7470,10 +7471,10 @@
         <v>24</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E50" s="59"/>
     </row>
@@ -7482,13 +7483,13 @@
         <v>151</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D51" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30">
@@ -7502,12 +7503,12 @@
         <v>147</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30">
       <c r="A53" s="42" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B53" s="42">
         <v>2</v>
@@ -7516,7 +7517,7 @@
         <v>105</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -7528,41 +7529,41 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="55" t="s">
-        <v>514</v>
-      </c>
-      <c r="B55" s="56"/>
+      <c r="A55" s="56" t="s">
+        <v>513</v>
+      </c>
+      <c r="B55" s="57"/>
       <c r="D55" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E56" s="59"/>
     </row>
     <row r="57" spans="1:5" ht="30">
       <c r="A57" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D57" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30">
@@ -7570,20 +7571,20 @@
         <v>109</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="B59" s="56"/>
+      <c r="A59" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="B59" s="57"/>
       <c r="D59" s="42" t="s">
         <v>139</v>
       </c>
@@ -7596,7 +7597,7 @@
         <v>212</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -7604,7 +7605,7 @@
         <v>236</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -7612,25 +7613,25 @@
         <v>180</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>804</v>
-      </c>
-      <c r="D62" s="55" t="s">
-        <v>649</v>
-      </c>
-      <c r="E62" s="56"/>
+        <v>803</v>
+      </c>
+      <c r="D62" s="56" t="s">
+        <v>648</v>
+      </c>
+      <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="30">
       <c r="A63" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30">
@@ -7641,10 +7642,10 @@
         <v>200</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45">
@@ -7652,13 +7653,13 @@
         <v>277</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D65" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -7666,10 +7667,10 @@
         <v>24</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E66" s="42">
         <v>50</v>
@@ -7680,10 +7681,10 @@
         <v>151</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E67" s="42">
         <v>2</v>
@@ -7697,19 +7698,19 @@
         <v>25</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E68" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="57" t="s">
-        <v>520</v>
-      </c>
-      <c r="B69" s="57"/>
+      <c r="A69" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="B69" s="55"/>
       <c r="D69" s="58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E69" s="59"/>
     </row>
@@ -7718,13 +7719,13 @@
         <v>99</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D70" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30">
@@ -7732,13 +7733,13 @@
         <v>212</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D71" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30">
@@ -7746,13 +7747,13 @@
         <v>109</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D72" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -7765,48 +7766,48 @@
     </row>
     <row r="74" spans="1:5" ht="45">
       <c r="D74" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="55" t="s">
-        <v>524</v>
-      </c>
-      <c r="B75" s="56"/>
+      <c r="A75" s="56" t="s">
+        <v>523</v>
+      </c>
+      <c r="B75" s="57"/>
       <c r="D75" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E75" s="47"/>
     </row>
     <row r="76" spans="1:5" ht="30">
       <c r="A76" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D76" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30">
       <c r="A77" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D77" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="45">
@@ -7814,25 +7815,25 @@
         <v>109</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D78" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="E78" s="42" t="s">
         <v>659</v>
       </c>
-      <c r="E78" s="42" t="s">
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="B79" s="57"/>
+      <c r="D79" s="42" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="B79" s="56"/>
-      <c r="D79" s="42" t="s">
+      <c r="E79" s="42" t="s">
         <v>661</v>
-      </c>
-      <c r="E79" s="42" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -7840,7 +7841,7 @@
         <v>212</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7848,7 +7849,7 @@
         <v>236</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -7856,14 +7857,14 @@
         <v>180</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>804</v>
-      </c>
-      <c r="D82" s="55" t="s">
+        <v>803</v>
+      </c>
+      <c r="D82" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="E82" s="57"/>
+      <c r="F82" s="44" t="s">
         <v>663</v>
-      </c>
-      <c r="E82" s="56"/>
-      <c r="F82" s="44" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="30">
@@ -7871,16 +7872,16 @@
         <v>24</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E83" s="42" t="s">
+        <v>664</v>
+      </c>
+      <c r="F83" s="42" t="s">
         <v>665</v>
-      </c>
-      <c r="F83" s="42" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30">
@@ -7888,16 +7889,16 @@
         <v>151</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E84" s="42" t="s">
+        <v>666</v>
+      </c>
+      <c r="F84" s="42" t="s">
         <v>667</v>
-      </c>
-      <c r="F84" s="42" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="45">
@@ -7911,25 +7912,25 @@
         <v>109</v>
       </c>
       <c r="E85" s="42" t="s">
+        <v>668</v>
+      </c>
+      <c r="F85" s="42" t="s">
         <v>669</v>
-      </c>
-      <c r="F85" s="42" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B86" s="42">
         <v>50</v>
       </c>
       <c r="D86" s="58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E86" s="59"/>
       <c r="F86" s="45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="30">
@@ -7937,10 +7938,10 @@
         <v>99</v>
       </c>
       <c r="E87" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="F87" s="42" t="s">
         <v>671</v>
-      </c>
-      <c r="F87" s="42" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30">
@@ -7948,31 +7949,31 @@
         <v>147</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="55" t="s">
-        <v>530</v>
-      </c>
-      <c r="B89" s="56"/>
+      <c r="A89" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="B89" s="57"/>
       <c r="D89" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E89" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="F89" s="42" t="s">
         <v>673</v>
-      </c>
-      <c r="F89" s="42" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D90" s="42" t="s">
         <v>378</v>
@@ -7984,19 +7985,19 @@
     </row>
     <row r="91" spans="1:6" ht="45">
       <c r="A91" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E91" s="42" t="s">
+        <v>674</v>
+      </c>
+      <c r="F91" s="42" t="s">
         <v>675</v>
-      </c>
-      <c r="F91" s="42" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="30">
@@ -8004,29 +8005,29 @@
         <v>109</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D92" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E92" s="59"/>
       <c r="F92" s="45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="B93" s="56"/>
+      <c r="A93" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="B93" s="57"/>
       <c r="D93" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="42" t="s">
+        <v>676</v>
+      </c>
+      <c r="F93" s="42" t="s">
         <v>677</v>
-      </c>
-      <c r="F93" s="42" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8034,13 +8035,13 @@
         <v>212</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D94" s="42" t="s">
         <v>165</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30">
@@ -8048,13 +8049,13 @@
         <v>236</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D95" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30">
@@ -8062,13 +8063,13 @@
         <v>191</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -8079,7 +8080,7 @@
         <v>200</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E97" s="42">
         <v>200</v>
@@ -8090,13 +8091,13 @@
         <v>24</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D98" s="42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -8104,13 +8105,13 @@
         <v>151</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D99" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -8121,35 +8122,35 @@
         <v>25</v>
       </c>
       <c r="D100" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="E100" s="42" t="s">
         <v>659</v>
-      </c>
-      <c r="E100" s="42" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B101" s="42">
         <v>60</v>
       </c>
       <c r="D101" s="42" t="s">
+        <v>660</v>
+      </c>
+      <c r="E101" s="42" t="s">
         <v>661</v>
-      </c>
-      <c r="E101" s="42" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B102" s="42">
         <v>2</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E102" s="42">
         <v>55</v>
@@ -8157,7 +8158,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="D103" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E103" s="42">
         <v>3</v>
@@ -8165,19 +8166,19 @@
     </row>
     <row r="104" spans="1:5">
       <c r="D104" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E104" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="57" t="s">
-        <v>537</v>
-      </c>
-      <c r="B105" s="57"/>
+      <c r="A105" s="55" t="s">
+        <v>536</v>
+      </c>
+      <c r="B105" s="55"/>
       <c r="D105" s="42" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E105" s="42">
         <v>200</v>
@@ -8185,55 +8186,55 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B106" s="42" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30">
       <c r="A107" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B107" s="42" t="s">
-        <v>539</v>
-      </c>
-      <c r="D107" s="55" t="s">
-        <v>684</v>
-      </c>
-      <c r="E107" s="56"/>
+        <v>538</v>
+      </c>
+      <c r="D107" s="56" t="s">
+        <v>683</v>
+      </c>
+      <c r="E107" s="57"/>
     </row>
     <row r="108" spans="1:5" ht="30">
       <c r="A108" s="42" t="s">
         <v>109</v>
       </c>
       <c r="B108" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30">
       <c r="A109" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B109" s="42">
         <v>60</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="45">
       <c r="A110" s="42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B110" s="42">
         <v>3</v>
@@ -8242,16 +8243,16 @@
         <v>109</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="B111" s="57"/>
+      <c r="A111" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B111" s="55"/>
       <c r="D111" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E111" s="42">
         <v>55</v>
@@ -8262,10 +8263,10 @@
         <v>212</v>
       </c>
       <c r="B112" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E112" s="42">
         <v>3</v>
@@ -8276,10 +8277,10 @@
         <v>191</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E113" s="42">
         <v>5</v>
@@ -8293,7 +8294,7 @@
         <v>200</v>
       </c>
       <c r="D114" s="58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E114" s="59"/>
     </row>
@@ -8302,13 +8303,13 @@
         <v>277</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D115" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30">
@@ -8322,7 +8323,7 @@
         <v>147</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30">
@@ -8336,7 +8337,7 @@
         <v>105</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -8344,7 +8345,7 @@
         <v>152</v>
       </c>
       <c r="B118" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D118" s="42" t="s">
         <v>378</v>
@@ -8355,56 +8356,56 @@
     </row>
     <row r="119" spans="1:5" ht="45">
       <c r="D119" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E119" s="42" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="D120" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E120" s="47"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="57" t="s">
-        <v>542</v>
-      </c>
-      <c r="B121" s="57"/>
+      <c r="A121" s="55" t="s">
+        <v>541</v>
+      </c>
+      <c r="B121" s="55"/>
       <c r="D121" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E121" s="42" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B122" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D122" s="42" t="s">
         <v>165</v>
       </c>
       <c r="E122" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30">
       <c r="A123" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D123" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E123" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30">
@@ -8412,39 +8413,39 @@
         <v>109</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D124" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E124" s="42" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B125" s="55"/>
+      <c r="D125" s="42" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="B125" s="57"/>
-      <c r="D125" s="42" t="s">
+      <c r="E125" s="42" t="s">
         <v>659</v>
-      </c>
-      <c r="E125" s="42" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30">
       <c r="A126" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="B126" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="B126" s="42" t="s">
-        <v>547</v>
-      </c>
       <c r="D126" s="42" t="s">
+        <v>660</v>
+      </c>
+      <c r="E126" s="42" t="s">
         <v>661</v>
-      </c>
-      <c r="E126" s="42" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -8452,15 +8453,15 @@
         <v>236</v>
       </c>
       <c r="B127" s="42" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="30">
       <c r="A128" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B128" s="42" t="s">
         <v>549</v>
-      </c>
-      <c r="B128" s="42" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -8468,50 +8469,50 @@
         <v>180</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>804</v>
-      </c>
-      <c r="D129" s="55" t="s">
-        <v>692</v>
-      </c>
-      <c r="E129" s="56"/>
+        <v>803</v>
+      </c>
+      <c r="D129" s="56" t="s">
+        <v>691</v>
+      </c>
+      <c r="E129" s="57"/>
     </row>
     <row r="130" spans="1:5" ht="30">
       <c r="D130" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E130" s="42" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="30">
       <c r="D131" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E131" s="42" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="57" t="s">
-        <v>551</v>
-      </c>
-      <c r="B132" s="57"/>
+      <c r="A132" s="55" t="s">
+        <v>550</v>
+      </c>
+      <c r="B132" s="55"/>
       <c r="D132" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E132" s="42" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B133" s="42" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D133" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E133" s="42">
         <v>55</v>
@@ -8519,13 +8520,13 @@
     </row>
     <row r="134" spans="1:5" ht="30">
       <c r="A134" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B134" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E134" s="42">
         <v>3</v>
@@ -8536,37 +8537,37 @@
         <v>109</v>
       </c>
       <c r="B135" s="42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D135" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E135" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="B136" s="57"/>
+      <c r="A136" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B136" s="55"/>
       <c r="D136" s="58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E136" s="59"/>
     </row>
     <row r="137" spans="1:5" ht="30">
       <c r="A137" s="42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B137" s="42" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D137" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E137" s="42" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="30">
@@ -8574,35 +8575,35 @@
         <v>236</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D138" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30">
       <c r="A139" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B139" s="42" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D139" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E139" s="42" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B140" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D140" s="42" t="s">
         <v>378</v>
@@ -8619,15 +8620,15 @@
         <v>200</v>
       </c>
       <c r="D141" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E141" s="42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="D142" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E142" s="47"/>
     </row>
@@ -8636,41 +8637,41 @@
         <v>23</v>
       </c>
       <c r="E143" s="42" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="57" t="s">
-        <v>558</v>
-      </c>
-      <c r="B144" s="57"/>
+      <c r="A144" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="B144" s="55"/>
       <c r="D144" s="42" t="s">
         <v>165</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30">
       <c r="A145" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B145" s="42" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D145" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
       <c r="A146" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B146" s="42" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D146" s="42" t="s">
         <v>132</v>
@@ -8684,47 +8685,47 @@
         <v>109</v>
       </c>
       <c r="B147" s="42" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D147" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E147" s="42" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B148" s="55"/>
+      <c r="D148" s="42" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="B148" s="57"/>
-      <c r="D148" s="42" t="s">
+      <c r="E148" s="42" t="s">
         <v>659</v>
-      </c>
-      <c r="E148" s="42" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B149" s="42" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D149" s="42" t="s">
+        <v>660</v>
+      </c>
+      <c r="E149" s="42" t="s">
         <v>661</v>
-      </c>
-      <c r="E149" s="42" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B150" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8737,28 +8738,28 @@
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1">
       <c r="A152" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B152" s="42" t="s">
-        <v>563</v>
-      </c>
-      <c r="D152" s="55" t="s">
-        <v>700</v>
-      </c>
-      <c r="E152" s="56"/>
+        <v>562</v>
+      </c>
+      <c r="D152" s="56" t="s">
+        <v>699</v>
+      </c>
+      <c r="E152" s="57"/>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" s="42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B153" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E153" s="42" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="30">
@@ -8769,24 +8770,24 @@
         <v>100</v>
       </c>
       <c r="D154" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E154" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="45">
       <c r="A155" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B155" s="42" t="s">
         <v>565</v>
-      </c>
-      <c r="B155" s="42" t="s">
-        <v>566</v>
       </c>
       <c r="D155" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E155" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -8797,7 +8798,7 @@
         <v>214</v>
       </c>
       <c r="D156" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E156" s="42">
         <v>55</v>
@@ -8811,7 +8812,7 @@
         <v>25</v>
       </c>
       <c r="D157" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E157" s="42">
         <v>3</v>
@@ -8822,10 +8823,10 @@
         <v>152</v>
       </c>
       <c r="B158" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D158" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E158" s="42">
         <v>5</v>
@@ -8833,13 +8834,13 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B159" s="42">
         <v>60</v>
       </c>
       <c r="D159" s="58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E159" s="59"/>
     </row>
@@ -8848,7 +8849,7 @@
         <v>99</v>
       </c>
       <c r="E160" s="42" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="30">
@@ -8856,27 +8857,27 @@
         <v>147</v>
       </c>
       <c r="E161" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="57" t="s">
-        <v>567</v>
-      </c>
-      <c r="B162" s="57"/>
+      <c r="A162" s="55" t="s">
+        <v>566</v>
+      </c>
+      <c r="B162" s="55"/>
       <c r="D162" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E162" s="42" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B163" s="42" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D163" s="42" t="s">
         <v>378</v>
@@ -8887,16 +8888,16 @@
     </row>
     <row r="164" spans="1:5" ht="45">
       <c r="A164" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B164" s="42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E164" s="42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="45">
@@ -8904,16 +8905,16 @@
         <v>109</v>
       </c>
       <c r="B165" s="42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D165" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E165" s="47"/>
     </row>
     <row r="166" spans="1:5" ht="30">
       <c r="A166" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B166" s="42">
         <v>60</v>
@@ -8922,12 +8923,12 @@
         <v>23</v>
       </c>
       <c r="E166" s="42" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B167" s="42">
         <v>3</v>
@@ -8936,27 +8937,27 @@
         <v>165</v>
       </c>
       <c r="E167" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
-      <c r="A168" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="B168" s="57"/>
+      <c r="A168" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B168" s="55"/>
       <c r="D168" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E168" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B169" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D169" s="42" t="s">
         <v>132</v>
@@ -8967,27 +8968,27 @@
     </row>
     <row r="170" spans="1:5" ht="30">
       <c r="A170" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B170" s="42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D170" s="42" t="s">
         <v>277</v>
       </c>
       <c r="E170" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B171" s="42" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E171" s="42">
         <v>200</v>
@@ -9004,7 +9005,7 @@
         <v>24</v>
       </c>
       <c r="E172" s="42" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -9012,27 +9013,27 @@
         <v>147</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D173" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="E173" s="42" t="s">
         <v>659</v>
-      </c>
-      <c r="E173" s="42" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B174" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D174" s="42" t="s">
+        <v>660</v>
+      </c>
+      <c r="E174" s="42" t="s">
         <v>661</v>
-      </c>
-      <c r="E174" s="42" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -9047,10 +9048,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B176" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -9068,31 +9069,31 @@
       <c r="B178" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="55" t="s">
-        <v>709</v>
-      </c>
-      <c r="E178" s="56"/>
+      <c r="D178" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="E178" s="57"/>
     </row>
     <row r="179" spans="1:5" ht="30">
       <c r="A179" s="42" t="s">
         <v>152</v>
       </c>
       <c r="B179" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E179" s="42" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="30">
       <c r="D180" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E180" s="42" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="45">
@@ -9100,16 +9101,16 @@
         <v>109</v>
       </c>
       <c r="E181" s="42" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="57" t="s">
-        <v>575</v>
-      </c>
-      <c r="B182" s="57"/>
+      <c r="A182" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="B182" s="55"/>
       <c r="D182" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E182" s="42">
         <v>90</v>
@@ -9117,13 +9118,13 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B183" s="42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D183" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E183" s="42">
         <v>5</v>
@@ -9131,13 +9132,13 @@
     </row>
     <row r="184" spans="1:5" ht="30">
       <c r="A184" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B184" s="42" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E184" s="42">
         <v>5</v>
@@ -9148,16 +9149,16 @@
         <v>109</v>
       </c>
       <c r="B185" s="42" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D185" s="58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E185" s="59"/>
     </row>
     <row r="186" spans="1:5" ht="30">
       <c r="A186" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B186" s="42">
         <v>60</v>
@@ -9166,12 +9167,12 @@
         <v>99</v>
       </c>
       <c r="E186" s="42" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="30">
       <c r="A187" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B187" s="42">
         <v>3</v>
@@ -9180,27 +9181,27 @@
         <v>147</v>
       </c>
       <c r="E187" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
-      <c r="A188" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="B188" s="57"/>
+      <c r="A188" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B188" s="55"/>
       <c r="D188" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E188" s="42" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B189" s="42" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D189" s="42" t="s">
         <v>378</v>
@@ -9211,42 +9212,42 @@
     </row>
     <row r="190" spans="1:5" ht="45">
       <c r="A190" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B190" s="42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D190" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E190" s="42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B191" s="42" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D191" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E191" s="47"/>
     </row>
     <row r="192" spans="1:5" ht="30">
       <c r="A192" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="B192" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="B192" s="42" t="s">
-        <v>583</v>
-      </c>
       <c r="D192" s="42" t="s">
+        <v>715</v>
+      </c>
+      <c r="E192" s="42" t="s">
         <v>716</v>
-      </c>
-      <c r="E192" s="42" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -9254,13 +9255,13 @@
         <v>236</v>
       </c>
       <c r="B193" s="42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D193" s="42" t="s">
         <v>165</v>
       </c>
       <c r="E193" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="30">
@@ -9268,27 +9269,27 @@
         <v>147</v>
       </c>
       <c r="B194" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D194" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E194" s="42" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="30">
       <c r="A195" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B195" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D195" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E195" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -9301,10 +9302,10 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B197" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1">
@@ -9314,10 +9315,10 @@
       <c r="B198" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D198" s="55" t="s">
-        <v>719</v>
-      </c>
-      <c r="E198" s="56"/>
+      <c r="D198" s="56" t="s">
+        <v>718</v>
+      </c>
+      <c r="E198" s="57"/>
     </row>
     <row r="199" spans="1:5" ht="30">
       <c r="A199" s="42" t="s">
@@ -9327,10 +9328,10 @@
         <v>25</v>
       </c>
       <c r="D199" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E199" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="30">
@@ -9338,18 +9339,18 @@
         <v>152</v>
       </c>
       <c r="B200" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D200" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E200" s="42" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="45">
       <c r="A201" s="42" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B201" s="42" t="s">
         <v>119</v>
@@ -9358,53 +9359,53 @@
         <v>109</v>
       </c>
       <c r="E201" s="42" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="D202" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E202" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="57" t="s">
-        <v>586</v>
-      </c>
-      <c r="B203" s="57"/>
+      <c r="A203" s="55" t="s">
+        <v>585</v>
+      </c>
+      <c r="B203" s="55"/>
       <c r="D203" s="46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E203" s="47"/>
     </row>
     <row r="204" spans="1:5" ht="30">
       <c r="A204" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B204" s="42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D204" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E204" s="42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="30">
       <c r="A205" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B205" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D205" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E205" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="30">
@@ -9412,18 +9413,18 @@
         <v>109</v>
       </c>
       <c r="B206" s="42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D206" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E206" s="42" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B207" s="42">
         <v>40</v>
@@ -9437,82 +9438,82 @@
     </row>
     <row r="208" spans="1:5" ht="45">
       <c r="A208" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B208" s="42">
         <v>1</v>
       </c>
       <c r="D208" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E208" s="42" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="B209" s="57"/>
+      <c r="A209" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B209" s="55"/>
       <c r="D209" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E209" s="47"/>
     </row>
     <row r="210" spans="1:5" ht="30">
       <c r="A210" s="42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B210" s="42" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D210" s="42" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E210" s="42" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="30">
       <c r="A211" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B211" s="42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D211" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E211" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="30">
       <c r="A212" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B212" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D212" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E212" s="42" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="30">
       <c r="A213" s="42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B213" s="42" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D213" s="42" t="s">
         <v>191</v>
       </c>
       <c r="E213" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -9520,7 +9521,7 @@
         <v>236</v>
       </c>
       <c r="B214" s="42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D214" s="42" t="s">
         <v>132</v>
@@ -9534,15 +9535,15 @@
         <v>147</v>
       </c>
       <c r="B215" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B216" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1">
@@ -9552,10 +9553,10 @@
       <c r="B217" s="42">
         <v>200</v>
       </c>
-      <c r="D217" s="55" t="s">
-        <v>728</v>
-      </c>
-      <c r="E217" s="56"/>
+      <c r="D217" s="56" t="s">
+        <v>727</v>
+      </c>
+      <c r="E217" s="57"/>
     </row>
     <row r="218" spans="1:5" ht="30">
       <c r="A218" s="42" t="s">
@@ -9565,10 +9566,10 @@
         <v>214</v>
       </c>
       <c r="D218" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E218" s="42" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="45">
@@ -9579,10 +9580,10 @@
         <v>25</v>
       </c>
       <c r="D219" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E219" s="42" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="45">
@@ -9590,18 +9591,18 @@
         <v>152</v>
       </c>
       <c r="B220" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D220" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E220" s="42" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="D221" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E221" s="42">
         <v>3</v>
@@ -9609,48 +9610,48 @@
     </row>
     <row r="222" spans="1:5">
       <c r="D222" s="46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E222" s="47"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="57" t="s">
-        <v>595</v>
-      </c>
-      <c r="B223" s="57"/>
+      <c r="A223" s="55" t="s">
+        <v>594</v>
+      </c>
+      <c r="B223" s="55"/>
       <c r="D223" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E223" s="42" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="30">
       <c r="A224" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B224" s="42" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D224" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E224" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="45">
       <c r="A225" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B225" s="42" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D225" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E225" s="42" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="30">
@@ -9658,7 +9659,7 @@
         <v>109</v>
       </c>
       <c r="B226" s="42" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D226" s="42" t="s">
         <v>378</v>
@@ -9669,62 +9670,62 @@
     </row>
     <row r="227" spans="1:5" ht="45">
       <c r="A227" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B227" s="42">
         <v>30</v>
       </c>
       <c r="D227" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E227" s="42" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B228" s="42">
         <v>2</v>
       </c>
       <c r="D228" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E228" s="47"/>
     </row>
     <row r="229" spans="1:5" ht="30">
-      <c r="A229" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="B229" s="57"/>
+      <c r="A229" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="B229" s="55"/>
       <c r="D229" s="42" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E229" s="42" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="30">
       <c r="A230" s="42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B230" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D230" s="42" t="s">
         <v>191</v>
       </c>
       <c r="E230" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B231" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D231" s="42" t="s">
         <v>132</v>
@@ -9735,30 +9736,30 @@
     </row>
     <row r="232" spans="1:5" ht="30">
       <c r="A232" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B232" s="42" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D232" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E232" s="42" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="30">
       <c r="A233" s="42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B233" s="42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D233" s="42" t="s">
         <v>277</v>
       </c>
       <c r="E233" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -9766,7 +9767,7 @@
         <v>236</v>
       </c>
       <c r="B234" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D234" s="42" t="s">
         <v>139</v>
@@ -9780,27 +9781,27 @@
         <v>147</v>
       </c>
       <c r="B235" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D235" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E235" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B236" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D236" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E236" s="42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -9811,21 +9812,21 @@
         <v>200</v>
       </c>
       <c r="D237" s="42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E237" s="42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B238" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D238" s="42" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E238" s="42" t="s">
         <v>119</v>
@@ -9854,31 +9855,31 @@
       <c r="B241" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="55" t="s">
-        <v>740</v>
-      </c>
-      <c r="E241" s="56"/>
+      <c r="D241" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E241" s="57"/>
     </row>
     <row r="242" spans="1:5" ht="30">
       <c r="A242" s="42" t="s">
         <v>152</v>
       </c>
       <c r="B242" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D242" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E242" s="42" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="45">
       <c r="D243" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E243" s="42" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="45">
@@ -9886,15 +9887,15 @@
         <v>109</v>
       </c>
       <c r="E244" s="42" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="41" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E245" s="42">
         <v>3</v>
@@ -9902,19 +9903,19 @@
     </row>
     <row r="246" spans="1:5">
       <c r="D246" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E246" s="42">
         <v>90</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15" customHeight="1">
-      <c r="A247" s="55" t="s">
+      <c r="A247" s="56" t="s">
+        <v>744</v>
+      </c>
+      <c r="B247" s="57"/>
+      <c r="D247" s="42" t="s">
         <v>745</v>
-      </c>
-      <c r="B247" s="56"/>
-      <c r="D247" s="42" t="s">
-        <v>746</v>
       </c>
       <c r="E247" s="42">
         <v>1</v>
@@ -9922,28 +9923,28 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B248" s="42" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D248" s="46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E248" s="47"/>
     </row>
     <row r="249" spans="1:5" ht="30">
       <c r="A249" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B249" s="42" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D249" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E249" s="42" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="30">
@@ -9951,18 +9952,18 @@
         <v>109</v>
       </c>
       <c r="B250" s="42" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D250" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E250" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="45">
       <c r="A251" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B251" s="42">
         <v>2</v>
@@ -9971,12 +9972,12 @@
         <v>105</v>
       </c>
       <c r="E251" s="42" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B252" s="42">
         <v>90</v>
@@ -9990,25 +9991,25 @@
     </row>
     <row r="253" spans="1:5" ht="45">
       <c r="A253" s="42" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B253" s="42">
         <v>1</v>
       </c>
       <c r="D253" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E253" s="42" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B254" s="47"/>
       <c r="D254" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E254" s="47"/>
     </row>
@@ -10017,13 +10018,13 @@
         <v>99</v>
       </c>
       <c r="B255" s="42" t="s">
+        <v>752</v>
+      </c>
+      <c r="D255" s="42" t="s">
+        <v>715</v>
+      </c>
+      <c r="E255" s="42" t="s">
         <v>753</v>
-      </c>
-      <c r="D255" s="42" t="s">
-        <v>716</v>
-      </c>
-      <c r="E255" s="42" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="30">
@@ -10031,13 +10032,13 @@
         <v>147</v>
       </c>
       <c r="B256" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D256" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E256" s="42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="30">
@@ -10045,13 +10046,13 @@
         <v>105</v>
       </c>
       <c r="B257" s="42" t="s">
+        <v>755</v>
+      </c>
+      <c r="D257" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="E257" s="42" t="s">
         <v>756</v>
-      </c>
-      <c r="D257" s="42" t="s">
-        <v>565</v>
-      </c>
-      <c r="E257" s="42" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -10065,41 +10066,41 @@
         <v>165</v>
       </c>
       <c r="E258" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="45">
       <c r="A259" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B259" s="42" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D259" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E259" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="30">
       <c r="A260" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B260" s="47"/>
       <c r="D260" s="42" t="s">
         <v>191</v>
       </c>
       <c r="E260" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="42" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B261" s="42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D261" s="42" t="s">
         <v>132</v>
@@ -10110,24 +10111,24 @@
     </row>
     <row r="262" spans="1:5" ht="30">
       <c r="A262" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B262" s="42" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D262" s="42" t="s">
         <v>277</v>
       </c>
       <c r="E262" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B263" s="42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D263" s="42" t="s">
         <v>139</v>
@@ -10138,16 +10139,16 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B264" s="42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D264" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E264" s="42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -10155,13 +10156,13 @@
         <v>165</v>
       </c>
       <c r="B265" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D265" s="42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E265" s="42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -10169,10 +10170,10 @@
         <v>147</v>
       </c>
       <c r="B266" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D266" s="42" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E266" s="42" t="s">
         <v>119</v>
@@ -10183,7 +10184,7 @@
         <v>191</v>
       </c>
       <c r="B267" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -10199,7 +10200,7 @@
         <v>277</v>
       </c>
       <c r="B269" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -10215,45 +10216,45 @@
         <v>24</v>
       </c>
       <c r="B271" s="42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B272" s="42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="42" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B273" s="42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" customHeight="1">
-      <c r="A276" s="55" t="s">
-        <v>764</v>
-      </c>
-      <c r="B276" s="56"/>
+      <c r="A276" s="56" t="s">
+        <v>763</v>
+      </c>
+      <c r="B276" s="57"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B277" s="42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="30">
       <c r="A278" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B278" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="30">
@@ -10261,12 +10262,12 @@
         <v>109</v>
       </c>
       <c r="B279" s="42" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B280" s="42">
         <v>2</v>
@@ -10274,7 +10275,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B281" s="42">
         <v>90</v>
@@ -10282,7 +10283,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="42" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B282" s="42">
         <v>1</v>
@@ -10290,7 +10291,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B283" s="47"/>
     </row>
@@ -10299,7 +10300,7 @@
         <v>99</v>
       </c>
       <c r="B284" s="42" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -10307,7 +10308,7 @@
         <v>147</v>
       </c>
       <c r="B285" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="30">
@@ -10315,7 +10316,7 @@
         <v>105</v>
       </c>
       <c r="B286" s="42" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -10328,48 +10329,48 @@
     </row>
     <row r="288" spans="1:2" ht="45">
       <c r="A288" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B288" s="42" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B289" s="47"/>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="42" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B290" s="42" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B291" s="42" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B292" s="42" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B293" s="42" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -10377,7 +10378,7 @@
         <v>165</v>
       </c>
       <c r="B294" s="42" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -10385,7 +10386,7 @@
         <v>147</v>
       </c>
       <c r="B295" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -10393,7 +10394,7 @@
         <v>191</v>
       </c>
       <c r="B296" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -10409,45 +10410,45 @@
         <v>24</v>
       </c>
       <c r="B298" s="42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B299" s="42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="42" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B300" s="42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="55" t="s">
-        <v>776</v>
-      </c>
-      <c r="B303" s="56"/>
+      <c r="A303" s="56" t="s">
+        <v>775</v>
+      </c>
+      <c r="B303" s="57"/>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B304" s="42" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15" customHeight="1">
       <c r="A305" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B305" s="42" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="30">
@@ -10455,12 +10456,12 @@
         <v>109</v>
       </c>
       <c r="B306" s="42" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B307" s="42">
         <v>2</v>
@@ -10468,7 +10469,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B308" s="42">
         <v>90</v>
@@ -10476,7 +10477,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="42" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B309" s="42">
         <v>1</v>
@@ -10484,7 +10485,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B310" s="47"/>
     </row>
@@ -10493,7 +10494,7 @@
         <v>99</v>
       </c>
       <c r="B311" s="42" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -10501,7 +10502,7 @@
         <v>147</v>
       </c>
       <c r="B312" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="30">
@@ -10509,7 +10510,7 @@
         <v>105</v>
       </c>
       <c r="B313" s="42" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -10522,48 +10523,48 @@
     </row>
     <row r="315" spans="1:2" ht="45">
       <c r="A315" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B315" s="42" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B316" s="47"/>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="42" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B320" s="42" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -10571,7 +10572,7 @@
         <v>165</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -10579,7 +10580,7 @@
         <v>147</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -10587,7 +10588,7 @@
         <v>191</v>
       </c>
       <c r="B323" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -10603,7 +10604,7 @@
         <v>277</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -10619,20 +10620,20 @@
         <v>24</v>
       </c>
       <c r="B327" s="42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B328" s="42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="42" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B329" s="42" t="s">
         <v>119</v>
@@ -10640,24 +10641,36 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -10674,36 +10687,24 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -10736,7 +10737,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>13</v>
@@ -10747,10 +10748,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" t="s">
         <v>605</v>
-      </c>
-      <c r="B2" t="s">
-        <v>606</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>7</v>
@@ -10761,10 +10762,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B3" t="s">
         <v>607</v>
-      </c>
-      <c r="B3" t="s">
-        <v>608</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>7</v>
@@ -10775,10 +10776,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B4" t="s">
         <v>787</v>
-      </c>
-      <c r="B4" t="s">
-        <v>788</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -10789,10 +10790,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B5" t="s">
         <v>789</v>
-      </c>
-      <c r="B5" t="s">
-        <v>790</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>7</v>
@@ -10803,10 +10804,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B6" t="s">
         <v>791</v>
-      </c>
-      <c r="B6" t="s">
-        <v>792</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>7</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -2876,22 +2876,22 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3312,7 +3312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4625,10 +4625,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="49" t="s">
         <v>170</v>
       </c>
@@ -4715,10 +4715,10 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="53"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="49" t="s">
         <v>182</v>
       </c>
@@ -5187,7 +5187,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="52" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="50"/>
@@ -5650,6 +5650,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -5660,34 +5688,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6833,10 +6833,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H329"/>
+  <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="D298" sqref="D298"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="C304" sqref="C304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6853,18 +6853,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="57"/>
+      <c r="D1" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="G1" s="56" t="s">
+      <c r="E1" s="56"/>
+      <c r="G1" s="55" t="s">
         <v>613</v>
       </c>
-      <c r="H1" s="57"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="42" t="s">
@@ -6933,10 +6933,10 @@
       <c r="B5" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="57"/>
+      <c r="E5" s="56"/>
       <c r="G5" s="58" t="s">
         <v>617</v>
       </c>
@@ -7065,16 +7065,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="55" t="s">
         <v>624</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="56"/>
       <c r="D16" s="42" t="s">
         <v>462</v>
       </c>
@@ -7123,10 +7123,10 @@
       <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="56"/>
       <c r="D20" s="42" t="s">
         <v>99</v>
       </c>
@@ -7187,10 +7187,10 @@
       <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="55" t="s">
         <v>494</v>
       </c>
-      <c r="B26" s="57"/>
+      <c r="B26" s="56"/>
       <c r="D26" s="42" t="s">
         <v>23</v>
       </c>
@@ -7229,14 +7229,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="D30" s="56" t="s">
+      <c r="B30" s="56"/>
+      <c r="D30" s="55" t="s">
         <v>632</v>
       </c>
-      <c r="E30" s="57"/>
+      <c r="E30" s="56"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="42" t="s">
@@ -7287,10 +7287,10 @@
       <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="55" t="s">
         <v>500</v>
       </c>
-      <c r="B35" s="57"/>
+      <c r="B35" s="56"/>
       <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
@@ -7341,10 +7341,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B39" s="57"/>
+      <c r="B39" s="56"/>
       <c r="D39" s="42" t="s">
         <v>620</v>
       </c>
@@ -7401,10 +7401,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="56"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="42" t="s">
@@ -7421,10 +7421,10 @@
       <c r="B46" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="E46" s="57"/>
+      <c r="E46" s="56"/>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" s="42" t="s">
@@ -7441,10 +7441,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="56"/>
       <c r="D48" s="42" t="s">
         <v>466</v>
       </c>
@@ -7529,10 +7529,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="B55" s="57"/>
+      <c r="B55" s="56"/>
       <c r="D55" s="42" t="s">
         <v>620</v>
       </c>
@@ -7581,10 +7581,10 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="56"/>
       <c r="D59" s="42" t="s">
         <v>139</v>
       </c>
@@ -7615,10 +7615,10 @@
       <c r="B62" s="42" t="s">
         <v>803</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="55" t="s">
         <v>648</v>
       </c>
-      <c r="E62" s="57"/>
+      <c r="E62" s="56"/>
     </row>
     <row r="63" spans="1:5" ht="30">
       <c r="A63" s="42" t="s">
@@ -7705,10 +7705,10 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="57" t="s">
         <v>519</v>
       </c>
-      <c r="B69" s="55"/>
+      <c r="B69" s="57"/>
       <c r="D69" s="58" t="s">
         <v>617</v>
       </c>
@@ -7773,10 +7773,10 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="55" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="57"/>
+      <c r="B75" s="56"/>
       <c r="D75" s="46" t="s">
         <v>473</v>
       </c>
@@ -7825,10 +7825,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B79" s="57"/>
+      <c r="B79" s="56"/>
       <c r="D79" s="42" t="s">
         <v>660</v>
       </c>
@@ -7859,10 +7859,10 @@
       <c r="B82" s="42" t="s">
         <v>803</v>
       </c>
-      <c r="D82" s="56" t="s">
+      <c r="D82" s="55" t="s">
         <v>662</v>
       </c>
-      <c r="E82" s="57"/>
+      <c r="E82" s="56"/>
       <c r="F82" s="44" t="s">
         <v>663</v>
       </c>
@@ -7954,10 +7954,10 @@
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="B89" s="57"/>
+      <c r="B89" s="56"/>
       <c r="D89" s="42" t="s">
         <v>105</v>
       </c>
@@ -8016,10 +8016,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="56" t="s">
+      <c r="A93" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B93" s="57"/>
+      <c r="B93" s="56"/>
       <c r="D93" s="42" t="s">
         <v>23</v>
       </c>
@@ -8173,10 +8173,10 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="55" t="s">
+      <c r="A105" s="57" t="s">
         <v>536</v>
       </c>
-      <c r="B105" s="55"/>
+      <c r="B105" s="57"/>
       <c r="D105" s="42" t="s">
         <v>682</v>
       </c>
@@ -8199,10 +8199,10 @@
       <c r="B107" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="D107" s="56" t="s">
+      <c r="D107" s="55" t="s">
         <v>683</v>
       </c>
-      <c r="E107" s="57"/>
+      <c r="E107" s="56"/>
     </row>
     <row r="108" spans="1:5" ht="30">
       <c r="A108" s="42" t="s">
@@ -8247,10 +8247,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="55" t="s">
+      <c r="A111" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B111" s="55"/>
+      <c r="B111" s="57"/>
       <c r="D111" s="42" t="s">
         <v>680</v>
       </c>
@@ -8369,10 +8369,10 @@
       <c r="E120" s="47"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="55" t="s">
+      <c r="A121" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="B121" s="55"/>
+      <c r="B121" s="57"/>
       <c r="D121" s="42" t="s">
         <v>23</v>
       </c>
@@ -8423,10 +8423,10 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="55" t="s">
+      <c r="A125" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B125" s="55"/>
+      <c r="B125" s="57"/>
       <c r="D125" s="42" t="s">
         <v>658</v>
       </c>
@@ -8471,10 +8471,10 @@
       <c r="B129" s="42" t="s">
         <v>803</v>
       </c>
-      <c r="D129" s="56" t="s">
+      <c r="D129" s="55" t="s">
         <v>691</v>
       </c>
-      <c r="E129" s="57"/>
+      <c r="E129" s="56"/>
     </row>
     <row r="130" spans="1:5" ht="30">
       <c r="D130" s="42" t="s">
@@ -8493,10 +8493,10 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="55" t="s">
+      <c r="A132" s="57" t="s">
         <v>550</v>
       </c>
-      <c r="B132" s="55"/>
+      <c r="B132" s="57"/>
       <c r="D132" s="42" t="s">
         <v>109</v>
       </c>
@@ -8547,10 +8547,10 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="55" t="s">
+      <c r="A136" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B136" s="55"/>
+      <c r="B136" s="57"/>
       <c r="D136" s="58" t="s">
         <v>617</v>
       </c>
@@ -8641,10 +8641,10 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="55" t="s">
+      <c r="A144" s="57" t="s">
         <v>557</v>
       </c>
-      <c r="B144" s="55"/>
+      <c r="B144" s="57"/>
       <c r="D144" s="42" t="s">
         <v>165</v>
       </c>
@@ -8695,10 +8695,10 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="55" t="s">
+      <c r="A148" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B148" s="55"/>
+      <c r="B148" s="57"/>
       <c r="D148" s="42" t="s">
         <v>658</v>
       </c>
@@ -8743,10 +8743,10 @@
       <c r="B152" s="42" t="s">
         <v>562</v>
       </c>
-      <c r="D152" s="56" t="s">
+      <c r="D152" s="55" t="s">
         <v>699</v>
       </c>
-      <c r="E152" s="57"/>
+      <c r="E152" s="56"/>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" s="42" t="s">
@@ -8861,10 +8861,10 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="55" t="s">
+      <c r="A162" s="57" t="s">
         <v>566</v>
       </c>
-      <c r="B162" s="55"/>
+      <c r="B162" s="57"/>
       <c r="D162" s="42" t="s">
         <v>105</v>
       </c>
@@ -8941,10 +8941,10 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
-      <c r="A168" s="55" t="s">
+      <c r="A168" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="55"/>
+      <c r="B168" s="57"/>
       <c r="D168" s="42" t="s">
         <v>556</v>
       </c>
@@ -9069,10 +9069,10 @@
       <c r="B178" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="56" t="s">
+      <c r="D178" s="55" t="s">
         <v>708</v>
       </c>
-      <c r="E178" s="57"/>
+      <c r="E178" s="56"/>
     </row>
     <row r="179" spans="1:5" ht="30">
       <c r="A179" s="42" t="s">
@@ -9105,10 +9105,10 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="55" t="s">
+      <c r="A182" s="57" t="s">
         <v>574</v>
       </c>
-      <c r="B182" s="55"/>
+      <c r="B182" s="57"/>
       <c r="D182" s="42" t="s">
         <v>680</v>
       </c>
@@ -9185,10 +9185,10 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
-      <c r="A188" s="55" t="s">
+      <c r="A188" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B188" s="55"/>
+      <c r="B188" s="57"/>
       <c r="D188" s="42" t="s">
         <v>105</v>
       </c>
@@ -9315,10 +9315,10 @@
       <c r="B198" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D198" s="56" t="s">
+      <c r="D198" s="55" t="s">
         <v>718</v>
       </c>
-      <c r="E198" s="57"/>
+      <c r="E198" s="56"/>
     </row>
     <row r="199" spans="1:5" ht="30">
       <c r="A199" s="42" t="s">
@@ -9371,10 +9371,10 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="55" t="s">
+      <c r="A203" s="57" t="s">
         <v>585</v>
       </c>
-      <c r="B203" s="55"/>
+      <c r="B203" s="57"/>
       <c r="D203" s="46" t="s">
         <v>617</v>
       </c>
@@ -9451,10 +9451,10 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="55" t="s">
+      <c r="A209" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B209" s="55"/>
+      <c r="B209" s="57"/>
       <c r="D209" s="46" t="s">
         <v>473</v>
       </c>
@@ -9553,10 +9553,10 @@
       <c r="B217" s="42">
         <v>200</v>
       </c>
-      <c r="D217" s="56" t="s">
+      <c r="D217" s="55" t="s">
         <v>727</v>
       </c>
-      <c r="E217" s="57"/>
+      <c r="E217" s="56"/>
     </row>
     <row r="218" spans="1:5" ht="30">
       <c r="A218" s="42" t="s">
@@ -9615,10 +9615,10 @@
       <c r="E222" s="47"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="55" t="s">
+      <c r="A223" s="57" t="s">
         <v>594</v>
       </c>
-      <c r="B223" s="55"/>
+      <c r="B223" s="57"/>
       <c r="D223" s="42" t="s">
         <v>99</v>
       </c>
@@ -9695,10 +9695,10 @@
       <c r="E228" s="47"/>
     </row>
     <row r="229" spans="1:5" ht="30">
-      <c r="A229" s="55" t="s">
+      <c r="A229" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B229" s="55"/>
+      <c r="B229" s="57"/>
       <c r="D229" s="42" t="s">
         <v>715</v>
       </c>
@@ -9855,10 +9855,10 @@
       <c r="B241" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="56" t="s">
+      <c r="D241" s="55" t="s">
         <v>739</v>
       </c>
-      <c r="E241" s="57"/>
+      <c r="E241" s="56"/>
     </row>
     <row r="242" spans="1:5" ht="30">
       <c r="A242" s="42" t="s">
@@ -9910,10 +9910,10 @@
       </c>
     </row>
     <row r="247" spans="1:5" ht="15" customHeight="1">
-      <c r="A247" s="56" t="s">
+      <c r="A247" s="55" t="s">
         <v>744</v>
       </c>
-      <c r="B247" s="57"/>
+      <c r="B247" s="56"/>
       <c r="D247" s="42" t="s">
         <v>745</v>
       </c>
@@ -10236,10 +10236,10 @@
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" customHeight="1">
-      <c r="A276" s="56" t="s">
+      <c r="A276" s="55" t="s">
         <v>763</v>
       </c>
-      <c r="B276" s="57"/>
+      <c r="B276" s="56"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="42" t="s">
@@ -10429,187 +10429,171 @@
         <v>119</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="56" t="s">
+    <row r="305" spans="1:2" ht="15" customHeight="1">
+      <c r="A305" s="55" t="s">
         <v>775</v>
       </c>
-      <c r="B303" s="57"/>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="42" t="s">
+      <c r="B305" s="56"/>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="42" t="s">
         <v>462</v>
       </c>
-      <c r="B304" s="42" t="s">
+      <c r="B306" s="42" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15" customHeight="1">
-      <c r="A305" s="42" t="s">
+    <row r="307" spans="1:2" ht="30">
+      <c r="A307" s="42" t="s">
         <v>466</v>
       </c>
-      <c r="B305" s="42" t="s">
+      <c r="B307" s="42" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="30">
-      <c r="A306" s="42" t="s">
+    <row r="308" spans="1:2" ht="30">
+      <c r="A308" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B306" s="42" t="s">
+      <c r="B308" s="42" t="s">
         <v>778</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="42" t="s">
-        <v>681</v>
-      </c>
-      <c r="B307" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="42" t="s">
-        <v>534</v>
-      </c>
-      <c r="B308" s="42">
-        <v>90</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="42" t="s">
+        <v>681</v>
+      </c>
+      <c r="B309" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B310" s="42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="42" t="s">
         <v>745</v>
       </c>
-      <c r="B309" s="42">
+      <c r="B311" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="46" t="s">
+    <row r="312" spans="1:2">
+      <c r="A312" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="B310" s="47"/>
-    </row>
-    <row r="311" spans="1:2" ht="30">
-      <c r="A311" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B311" s="42" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B312" s="42" t="s">
-        <v>803</v>
-      </c>
+      <c r="B312" s="47"/>
     </row>
     <row r="313" spans="1:2" ht="30">
       <c r="A313" s="42" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B313" s="42" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B314" s="42" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="30">
+      <c r="A315" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B315" s="42" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="B314" s="42" t="s">
+      <c r="B316" s="42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="45">
-      <c r="A315" s="42" t="s">
+    <row r="317" spans="1:2" ht="45">
+      <c r="A317" s="42" t="s">
         <v>620</v>
       </c>
-      <c r="B315" s="42" t="s">
+      <c r="B317" s="42" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="46" t="s">
+    <row r="318" spans="1:2">
+      <c r="A318" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="B316" s="47"/>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="42" t="s">
-        <v>715</v>
-      </c>
-      <c r="B317" s="42" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="42" t="s">
-        <v>548</v>
-      </c>
-      <c r="B318" s="42" t="s">
-        <v>783</v>
-      </c>
+      <c r="B318" s="47"/>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="42" t="s">
-        <v>564</v>
+        <v>715</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="42" t="s">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="B320" s="42" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="42" t="s">
-        <v>165</v>
+        <v>564</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>757</v>
+        <v>784</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="42" t="s">
-        <v>147</v>
+        <v>581</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="42" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B323" s="42" t="s">
-        <v>804</v>
+        <v>757</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B324" s="42">
-        <v>200</v>
+        <v>147</v>
+      </c>
+      <c r="B324" s="42" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="42" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B326" s="42">
         <v>200</v>
@@ -10617,60 +10601,64 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="42" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="B327" s="42" t="s">
-        <v>737</v>
+        <v>805</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="42" t="s">
-        <v>658</v>
-      </c>
-      <c r="B328" s="42" t="s">
-        <v>738</v>
+        <v>139</v>
+      </c>
+      <c r="B328" s="42">
+        <v>200</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B329" s="42" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="B330" s="42" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="B329" s="42" t="s">
+      <c r="B331" s="42" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -10687,24 +10675,36 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="CreateCampaigns" sheetId="25" r:id="rId8"/>
     <sheet name="API testing" sheetId="26" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="800">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -1870,15 +1870,51 @@
     <t>Alex</t>
   </si>
   <si>
+    <t>Mathee</t>
+  </si>
+  <si>
     <t>James</t>
   </si>
   <si>
+    <t>katt</t>
+  </si>
+  <si>
     <t>Bore</t>
   </si>
   <si>
+    <t>Mathai</t>
+  </si>
+  <si>
     <t>Leon</t>
   </si>
   <si>
+    <t>Agee</t>
+  </si>
+  <si>
+    <t>Jame0@grovo.com</t>
+  </si>
+  <si>
+    <t>Alex0@grovo.com</t>
+  </si>
+  <si>
+    <t>Bore0@grovo.com</t>
+  </si>
+  <si>
+    <t>Leon0@grovo.com</t>
+  </si>
+  <si>
+    <t>Empl#0</t>
+  </si>
+  <si>
+    <t>Empc#0</t>
+  </si>
+  <si>
+    <t>Empma#0</t>
+  </si>
+  <si>
+    <t>Empla#0</t>
+  </si>
+  <si>
     <t>Create Campaign for Track with Text Lesson</t>
   </si>
   <si>
@@ -2398,67 +2434,10 @@
     <t>Lesson_for_CampTrack_FourLessons_Three(4)</t>
   </si>
   <si>
-    <t>TC_33</t>
-  </si>
-  <si>
-    <t>L33</t>
-  </si>
-  <si>
-    <t>TC_35</t>
-  </si>
-  <si>
-    <t>L35</t>
-  </si>
-  <si>
-    <t>TC_45</t>
-  </si>
-  <si>
-    <t>%^&amp;*((CUI</t>
-  </si>
-  <si>
-    <t>Mathew</t>
-  </si>
-  <si>
-    <t>kattei</t>
-  </si>
-  <si>
-    <t>Agle</t>
-  </si>
-  <si>
-    <t>Alex1@grovo.com</t>
-  </si>
-  <si>
-    <t>Jame1@grovo.com</t>
-  </si>
-  <si>
-    <t>Bore1@grovo.com</t>
-  </si>
-  <si>
-    <t>Leon@grovo.com</t>
-  </si>
-  <si>
-    <t>Empl#1</t>
-  </si>
-  <si>
-    <t>Empc#2</t>
-  </si>
-  <si>
-    <t>Empma#3</t>
-  </si>
-  <si>
-    <t>Empla#3</t>
-  </si>
-  <si>
-    <t>/home/ubuntu/MYGrovo/TestData/test.jpg</t>
-  </si>
-  <si>
-    <t>/home/ubuntu/MYGrovo/TestData/test.wmv</t>
-  </si>
-  <si>
-    <t>/home/ubuntu/MYGrovo/TestData/test.pdf</t>
-  </si>
-  <si>
-    <t>mymaster@gmail.com</t>
+    <t>https://offshore-qa-playpen.grovo.net/</t>
+  </si>
+  <si>
+    <t>masters@grovo.com</t>
   </si>
 </sst>
 </file>
@@ -2852,17 +2831,17 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2876,22 +2855,22 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2977,14 +2956,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3312,8 +3283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -3345,7 +3316,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>5</v>
+        <v>798</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3361,7 +3332,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>7</v>
@@ -3382,12 +3353,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3401,7 +3371,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="18.75"/>
@@ -3452,13 +3422,13 @@
         <v>609</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>792</v>
+        <v>610</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>795</v>
+        <v>618</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>799</v>
+        <v>621</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -3472,16 +3442,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>793</v>
+        <v>612</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>796</v>
+        <v>617</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>800</v>
+        <v>622</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -3498,16 +3468,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>792</v>
+        <v>614</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>797</v>
+        <v>619</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>801</v>
+        <v>623</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -3524,16 +3494,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>794</v>
+        <v>616</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>798</v>
+        <v>620</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>802</v>
+        <v>624</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -4625,10 +4595,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="54"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="49" t="s">
         <v>170</v>
       </c>
@@ -4715,10 +4685,10 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="54"/>
+      <c r="B79" s="53"/>
       <c r="C79" s="49" t="s">
         <v>182</v>
       </c>
@@ -5187,7 +5157,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="54" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="50"/>
@@ -5650,6 +5620,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A103:B103"/>
@@ -5660,34 +5658,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6835,8 +6805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="C304" sqref="C304"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6853,18 +6823,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="G1" s="55" t="s">
-        <v>613</v>
-      </c>
-      <c r="H1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="G1" s="56" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="42" t="s">
@@ -6883,7 +6853,7 @@
         <v>462</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1">
@@ -6903,7 +6873,7 @@
         <v>466</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
@@ -6923,7 +6893,7 @@
         <v>109</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6933,12 +6903,12 @@
       <c r="B5" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="G5" s="58" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="H5" s="59"/>
     </row>
@@ -6959,7 +6929,7 @@
         <v>99</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
@@ -6979,7 +6949,7 @@
         <v>147</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
@@ -6995,7 +6965,7 @@
         <v>105</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7024,10 +6994,10 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="G10" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7037,10 +7007,10 @@
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="H11" s="47"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8" ht="30">
       <c r="A12" s="42"/>
@@ -7051,7 +7021,7 @@
         <v>23</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -7061,25 +7031,25 @@
         <v>236</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="55" t="s">
-        <v>624</v>
-      </c>
-      <c r="E15" s="56"/>
+      <c r="D15" s="56" t="s">
+        <v>636</v>
+      </c>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="D16" s="42" t="s">
         <v>462</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
@@ -7093,7 +7063,7 @@
         <v>466</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45">
@@ -7107,7 +7077,7 @@
         <v>109</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
@@ -7118,20 +7088,20 @@
         <v>491</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="D20" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
@@ -7145,7 +7115,7 @@
         <v>147</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
@@ -7153,13 +7123,13 @@
         <v>493</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7174,10 +7144,10 @@
     </row>
     <row r="24" spans="1:5" ht="45">
       <c r="D24" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7187,15 +7157,15 @@
       <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="B26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="D26" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30">
@@ -7209,7 +7179,7 @@
         <v>147</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7228,15 +7198,15 @@
         <v>497</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1">
-      <c r="A30" s="55" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="D30" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="E30" s="56"/>
+      <c r="B30" s="57"/>
+      <c r="D30" s="56" t="s">
+        <v>644</v>
+      </c>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="42" t="s">
@@ -7249,7 +7219,7 @@
         <v>462</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
@@ -7257,13 +7227,13 @@
         <v>499</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>466</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45">
@@ -7277,25 +7247,25 @@
         <v>109</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="D34" s="58" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="56" t="s">
         <v>500</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="57"/>
       <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30">
@@ -7309,7 +7279,7 @@
         <v>147</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
@@ -7323,7 +7293,7 @@
         <v>105</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30">
@@ -7341,15 +7311,15 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B39" s="56"/>
+      <c r="B39" s="57"/>
       <c r="D39" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7369,13 +7339,13 @@
         <v>499</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>805</v>
+        <v>457</v>
       </c>
       <c r="D41" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30">
@@ -7389,7 +7359,7 @@
         <v>556</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7401,10 +7371,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="56" t="s">
         <v>505</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="57"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="42" t="s">
@@ -7414,17 +7384,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1">
+    <row r="46" spans="1:5">
       <c r="A46" s="42" t="s">
         <v>466</v>
       </c>
       <c r="B46" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="D46" s="55" t="s">
-        <v>640</v>
-      </c>
-      <c r="E46" s="56"/>
+      <c r="D46" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" s="42" t="s">
@@ -7437,19 +7407,19 @@
         <v>462</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B48" s="56"/>
+      <c r="B48" s="57"/>
       <c r="D48" s="42" t="s">
         <v>466</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45">
@@ -7463,7 +7433,7 @@
         <v>109</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7474,7 +7444,7 @@
         <v>510</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E50" s="59"/>
     </row>
@@ -7489,7 +7459,7 @@
         <v>99</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30">
@@ -7503,7 +7473,7 @@
         <v>147</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30">
@@ -7517,7 +7487,7 @@
         <v>105</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -7529,15 +7499,15 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="56" t="s">
         <v>513</v>
       </c>
-      <c r="B55" s="56"/>
+      <c r="B55" s="57"/>
       <c r="D55" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -7563,7 +7533,7 @@
         <v>23</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30">
@@ -7577,14 +7547,14 @@
         <v>563</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>805</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B59" s="56"/>
+      <c r="B59" s="57"/>
       <c r="D59" s="42" t="s">
         <v>139</v>
       </c>
@@ -7608,30 +7578,30 @@
         <v>518</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="30">
       <c r="A62" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>803</v>
-      </c>
-      <c r="D62" s="55" t="s">
-        <v>648</v>
-      </c>
-      <c r="E62" s="56"/>
+        <v>455</v>
+      </c>
+      <c r="D62" s="56" t="s">
+        <v>660</v>
+      </c>
+      <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="30">
       <c r="A63" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
       <c r="D63" s="42" t="s">
         <v>462</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30">
@@ -7645,7 +7615,7 @@
         <v>466</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45">
@@ -7653,13 +7623,13 @@
         <v>277</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>805</v>
+        <v>457</v>
       </c>
       <c r="D65" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -7698,19 +7668,19 @@
         <v>25</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="E68" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="55" t="s">
         <v>519</v>
       </c>
-      <c r="B69" s="57"/>
+      <c r="B69" s="55"/>
       <c r="D69" s="58" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E69" s="59"/>
     </row>
@@ -7725,7 +7695,7 @@
         <v>99</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30">
@@ -7739,7 +7709,7 @@
         <v>147</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30">
@@ -7753,7 +7723,7 @@
         <v>105</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -7766,21 +7736,21 @@
     </row>
     <row r="74" spans="1:5" ht="45">
       <c r="D74" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="56" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="56"/>
-      <c r="D75" s="46" t="s">
+      <c r="B75" s="57"/>
+      <c r="D75" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="E75" s="47"/>
+      <c r="E75" s="45"/>
     </row>
     <row r="76" spans="1:5" ht="30">
       <c r="A76" s="42" t="s">
@@ -7793,7 +7763,7 @@
         <v>23</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30">
@@ -7807,7 +7777,7 @@
         <v>24</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="45">
@@ -7818,22 +7788,22 @@
         <v>526</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B79" s="56"/>
+      <c r="B79" s="57"/>
       <c r="D79" s="42" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -7852,19 +7822,19 @@
         <v>518</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="30">
       <c r="A82" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>803</v>
-      </c>
-      <c r="D82" s="55" t="s">
-        <v>662</v>
-      </c>
-      <c r="E82" s="56"/>
-      <c r="F82" s="44" t="s">
-        <v>663</v>
+        <v>455</v>
+      </c>
+      <c r="D82" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="E82" s="57"/>
+      <c r="F82" s="46" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="30">
@@ -7878,10 +7848,10 @@
         <v>462</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30">
@@ -7895,10 +7865,10 @@
         <v>466</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="45">
@@ -7912,10 +7882,10 @@
         <v>109</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="F85" s="42" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -7926,11 +7896,11 @@
         <v>50</v>
       </c>
       <c r="D86" s="58" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E86" s="59"/>
-      <c r="F86" s="45" t="s">
-        <v>617</v>
+      <c r="F86" s="47" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="30">
@@ -7938,10 +7908,10 @@
         <v>99</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F87" s="42" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30">
@@ -7949,23 +7919,23 @@
         <v>147</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="56" t="s">
         <v>529</v>
       </c>
-      <c r="B89" s="56"/>
+      <c r="B89" s="57"/>
       <c r="D89" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="F89" s="42" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -7991,13 +7961,13 @@
         <v>531</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="F91" s="42" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="30">
@@ -8011,23 +7981,23 @@
         <v>473</v>
       </c>
       <c r="E92" s="59"/>
-      <c r="F92" s="45" t="s">
+      <c r="F92" s="47" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B93" s="56"/>
+      <c r="B93" s="57"/>
       <c r="D93" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="F93" s="42" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8041,7 +8011,7 @@
         <v>165</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30">
@@ -8055,7 +8025,7 @@
         <v>147</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30">
@@ -8063,13 +8033,13 @@
         <v>191</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
       <c r="D96" s="42" t="s">
         <v>556</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -8080,7 +8050,7 @@
         <v>200</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="E97" s="42">
         <v>200</v>
@@ -8097,7 +8067,7 @@
         <v>563</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>805</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -8111,7 +8081,7 @@
         <v>24</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -8122,10 +8092,10 @@
         <v>25</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -8136,10 +8106,10 @@
         <v>60</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -8150,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="E102" s="42">
         <v>55</v>
@@ -8166,19 +8136,19 @@
     </row>
     <row r="104" spans="1:5">
       <c r="D104" s="42" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="E104" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="57" t="s">
+      <c r="A105" s="55" t="s">
         <v>536</v>
       </c>
-      <c r="B105" s="57"/>
+      <c r="B105" s="55"/>
       <c r="D105" s="42" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="E105" s="42">
         <v>200</v>
@@ -8199,10 +8169,10 @@
       <c r="B107" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="D107" s="55" t="s">
-        <v>683</v>
-      </c>
-      <c r="E107" s="56"/>
+      <c r="D107" s="56" t="s">
+        <v>695</v>
+      </c>
+      <c r="E107" s="57"/>
     </row>
     <row r="108" spans="1:5" ht="30">
       <c r="A108" s="42" t="s">
@@ -8215,7 +8185,7 @@
         <v>462</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30">
@@ -8229,7 +8199,7 @@
         <v>466</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="45">
@@ -8243,16 +8213,16 @@
         <v>109</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="57" t="s">
+      <c r="A111" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B111" s="57"/>
+      <c r="B111" s="55"/>
       <c r="D111" s="42" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="E111" s="42">
         <v>55</v>
@@ -8272,15 +8242,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" ht="30">
       <c r="A113" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="E113" s="42">
         <v>5</v>
@@ -8294,7 +8264,7 @@
         <v>200</v>
       </c>
       <c r="D114" s="58" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E114" s="59"/>
     </row>
@@ -8303,13 +8273,13 @@
         <v>277</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>805</v>
+        <v>457</v>
       </c>
       <c r="D115" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30">
@@ -8323,7 +8293,7 @@
         <v>147</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30">
@@ -8337,7 +8307,7 @@
         <v>105</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -8356,28 +8326,28 @@
     </row>
     <row r="119" spans="1:5" ht="45">
       <c r="D119" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E119" s="42" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="D120" s="46" t="s">
+      <c r="D120" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="E120" s="47"/>
+      <c r="E120" s="45"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="57" t="s">
+      <c r="A121" s="55" t="s">
         <v>541</v>
       </c>
-      <c r="B121" s="57"/>
+      <c r="B121" s="55"/>
       <c r="D121" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E121" s="42" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -8391,7 +8361,7 @@
         <v>165</v>
       </c>
       <c r="E122" s="42" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30">
@@ -8405,7 +8375,7 @@
         <v>147</v>
       </c>
       <c r="E123" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30">
@@ -8419,19 +8389,19 @@
         <v>24</v>
       </c>
       <c r="E124" s="42" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="57" t="s">
+      <c r="A125" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B125" s="57"/>
+      <c r="B125" s="55"/>
       <c r="D125" s="42" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="E125" s="42" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30">
@@ -8442,10 +8412,10 @@
         <v>546</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="E126" s="42" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -8464,24 +8434,24 @@
         <v>549</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" ht="30">
       <c r="A129" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>803</v>
-      </c>
-      <c r="D129" s="55" t="s">
-        <v>691</v>
-      </c>
-      <c r="E129" s="56"/>
+        <v>455</v>
+      </c>
+      <c r="D129" s="56" t="s">
+        <v>703</v>
+      </c>
+      <c r="E129" s="57"/>
     </row>
     <row r="130" spans="1:5" ht="30">
       <c r="D130" s="42" t="s">
         <v>462</v>
       </c>
       <c r="E130" s="42" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="30">
@@ -8489,19 +8459,19 @@
         <v>466</v>
       </c>
       <c r="E131" s="42" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="57" t="s">
+      <c r="A132" s="55" t="s">
         <v>550</v>
       </c>
-      <c r="B132" s="57"/>
+      <c r="B132" s="55"/>
       <c r="D132" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E132" s="42" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -8512,7 +8482,7 @@
         <v>551</v>
       </c>
       <c r="D133" s="42" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="E133" s="42">
         <v>55</v>
@@ -8540,19 +8510,19 @@
         <v>553</v>
       </c>
       <c r="D135" s="42" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="E135" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="57" t="s">
+      <c r="A136" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B136" s="57"/>
+      <c r="B136" s="55"/>
       <c r="D136" s="58" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E136" s="59"/>
     </row>
@@ -8567,7 +8537,7 @@
         <v>99</v>
       </c>
       <c r="E137" s="42" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="30">
@@ -8575,13 +8545,13 @@
         <v>236</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
       <c r="D138" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30">
@@ -8595,15 +8565,15 @@
         <v>105</v>
       </c>
       <c r="E139" s="42" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="30">
       <c r="A140" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B140" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
       <c r="D140" s="42" t="s">
         <v>378</v>
@@ -8620,36 +8590,36 @@
         <v>200</v>
       </c>
       <c r="D141" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E141" s="42" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="D142" s="46" t="s">
+      <c r="D142" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="E142" s="47"/>
+      <c r="E142" s="45"/>
     </row>
     <row r="143" spans="1:5" ht="30">
       <c r="D143" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E143" s="42" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="57" t="s">
+      <c r="A144" s="55" t="s">
         <v>557</v>
       </c>
-      <c r="B144" s="57"/>
+      <c r="B144" s="55"/>
       <c r="D144" s="42" t="s">
         <v>165</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30">
@@ -8663,7 +8633,7 @@
         <v>556</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
@@ -8691,19 +8661,19 @@
         <v>24</v>
       </c>
       <c r="E147" s="42" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="57" t="s">
+      <c r="A148" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B148" s="57"/>
+      <c r="B148" s="55"/>
       <c r="D148" s="42" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -8714,18 +8684,18 @@
         <v>561</v>
       </c>
       <c r="D149" s="42" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="E149" s="42" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="30">
       <c r="A150" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B150" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8736,30 +8706,30 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1">
+    <row r="152" spans="1:5">
       <c r="A152" s="42" t="s">
         <v>548</v>
       </c>
       <c r="B152" s="42" t="s">
         <v>562</v>
       </c>
-      <c r="D152" s="55" t="s">
-        <v>699</v>
-      </c>
-      <c r="E152" s="56"/>
+      <c r="D152" s="56" t="s">
+        <v>711</v>
+      </c>
+      <c r="E152" s="57"/>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" s="42" t="s">
         <v>563</v>
       </c>
       <c r="B153" s="42" t="s">
-        <v>805</v>
+        <v>457</v>
       </c>
       <c r="D153" s="42" t="s">
         <v>462</v>
       </c>
       <c r="E153" s="42" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="30">
@@ -8773,7 +8743,7 @@
         <v>466</v>
       </c>
       <c r="E154" s="42" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="45">
@@ -8787,7 +8757,7 @@
         <v>109</v>
       </c>
       <c r="E155" s="42" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -8798,7 +8768,7 @@
         <v>214</v>
       </c>
       <c r="D156" s="42" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="E156" s="42">
         <v>55</v>
@@ -8826,7 +8796,7 @@
         <v>511</v>
       </c>
       <c r="D158" s="42" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="E158" s="42">
         <v>5</v>
@@ -8840,7 +8810,7 @@
         <v>60</v>
       </c>
       <c r="D159" s="58" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E159" s="59"/>
     </row>
@@ -8849,7 +8819,7 @@
         <v>99</v>
       </c>
       <c r="E160" s="42" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="30">
@@ -8857,19 +8827,19 @@
         <v>147</v>
       </c>
       <c r="E161" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="57" t="s">
+      <c r="A162" s="55" t="s">
         <v>566</v>
       </c>
-      <c r="B162" s="57"/>
+      <c r="B162" s="55"/>
       <c r="D162" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E162" s="42" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -8894,10 +8864,10 @@
         <v>568</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E164" s="42" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="45">
@@ -8907,10 +8877,10 @@
       <c r="B165" s="42" t="s">
         <v>569</v>
       </c>
-      <c r="D165" s="46" t="s">
+      <c r="D165" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="E165" s="47"/>
+      <c r="E165" s="45"/>
     </row>
     <row r="166" spans="1:5" ht="30">
       <c r="A166" s="42" t="s">
@@ -8923,7 +8893,7 @@
         <v>23</v>
       </c>
       <c r="E166" s="42" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -8937,19 +8907,19 @@
         <v>165</v>
       </c>
       <c r="E167" s="42" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
-      <c r="A168" s="57" t="s">
+      <c r="A168" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="57"/>
+      <c r="B168" s="55"/>
       <c r="D168" s="42" t="s">
         <v>556</v>
       </c>
       <c r="E168" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -8977,7 +8947,7 @@
         <v>277</v>
       </c>
       <c r="E170" s="42" t="s">
-        <v>805</v>
+        <v>457</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -8988,7 +8958,7 @@
         <v>573</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="E171" s="42">
         <v>200</v>
@@ -9005,35 +8975,35 @@
         <v>24</v>
       </c>
       <c r="E172" s="42" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="30">
       <c r="A173" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
       <c r="D173" s="42" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="E173" s="42" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="30">
       <c r="A174" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B174" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
       <c r="D174" s="42" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="E174" s="42" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -9046,12 +9016,12 @@
       <c r="D175" s="42"/>
       <c r="E175" s="42"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" ht="30">
       <c r="A176" s="42" t="s">
         <v>563</v>
       </c>
       <c r="B176" s="42" t="s">
-        <v>805</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -9062,17 +9032,17 @@
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1">
+    <row r="178" spans="1:5">
       <c r="A178" s="42" t="s">
         <v>151</v>
       </c>
       <c r="B178" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="55" t="s">
-        <v>708</v>
-      </c>
-      <c r="E178" s="56"/>
+      <c r="D178" s="56" t="s">
+        <v>720</v>
+      </c>
+      <c r="E178" s="57"/>
     </row>
     <row r="179" spans="1:5" ht="30">
       <c r="A179" s="42" t="s">
@@ -9085,7 +9055,7 @@
         <v>462</v>
       </c>
       <c r="E179" s="42" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="30">
@@ -9093,7 +9063,7 @@
         <v>466</v>
       </c>
       <c r="E180" s="42" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="45">
@@ -9101,16 +9071,16 @@
         <v>109</v>
       </c>
       <c r="E181" s="42" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="57" t="s">
+      <c r="A182" s="55" t="s">
         <v>574</v>
       </c>
-      <c r="B182" s="57"/>
+      <c r="B182" s="55"/>
       <c r="D182" s="42" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="E182" s="42">
         <v>90</v>
@@ -9138,7 +9108,7 @@
         <v>576</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="E184" s="42">
         <v>5</v>
@@ -9152,7 +9122,7 @@
         <v>577</v>
       </c>
       <c r="D185" s="58" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E185" s="59"/>
     </row>
@@ -9167,7 +9137,7 @@
         <v>99</v>
       </c>
       <c r="E186" s="42" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="30">
@@ -9181,19 +9151,19 @@
         <v>147</v>
       </c>
       <c r="E187" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
-      <c r="A188" s="57" t="s">
+      <c r="A188" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B188" s="57"/>
+      <c r="B188" s="55"/>
       <c r="D188" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E188" s="42" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -9218,10 +9188,10 @@
         <v>579</v>
       </c>
       <c r="D190" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E190" s="42" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -9231,10 +9201,10 @@
       <c r="B191" s="42" t="s">
         <v>580</v>
       </c>
-      <c r="D191" s="46" t="s">
+      <c r="D191" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="E191" s="47"/>
+      <c r="E191" s="45"/>
     </row>
     <row r="192" spans="1:5" ht="30">
       <c r="A192" s="42" t="s">
@@ -9244,10 +9214,10 @@
         <v>582</v>
       </c>
       <c r="D192" s="42" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="E192" s="42" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -9261,7 +9231,7 @@
         <v>165</v>
       </c>
       <c r="E193" s="42" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="30">
@@ -9269,13 +9239,13 @@
         <v>147</v>
       </c>
       <c r="B194" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
       <c r="D194" s="42" t="s">
         <v>548</v>
       </c>
       <c r="E194" s="42" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="30">
@@ -9283,13 +9253,13 @@
         <v>556</v>
       </c>
       <c r="B195" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
       <c r="D195" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E195" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -9300,25 +9270,25 @@
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" ht="30">
       <c r="A197" s="42" t="s">
         <v>563</v>
       </c>
       <c r="B197" s="42" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B198" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D198" s="55" t="s">
-        <v>718</v>
-      </c>
-      <c r="E198" s="56"/>
+      <c r="D198" s="56" t="s">
+        <v>730</v>
+      </c>
+      <c r="E198" s="57"/>
     </row>
     <row r="199" spans="1:5" ht="30">
       <c r="A199" s="42" t="s">
@@ -9331,7 +9301,7 @@
         <v>462</v>
       </c>
       <c r="E199" s="42" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="30">
@@ -9345,7 +9315,7 @@
         <v>466</v>
       </c>
       <c r="E200" s="42" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="45">
@@ -9359,26 +9329,26 @@
         <v>109</v>
       </c>
       <c r="E201" s="42" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="D202" s="42" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="E202" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="57" t="s">
+      <c r="A203" s="55" t="s">
         <v>585</v>
       </c>
-      <c r="B203" s="57"/>
-      <c r="D203" s="46" t="s">
-        <v>617</v>
-      </c>
-      <c r="E203" s="47"/>
+      <c r="B203" s="55"/>
+      <c r="D203" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="E203" s="45"/>
     </row>
     <row r="204" spans="1:5" ht="30">
       <c r="A204" s="42" t="s">
@@ -9391,7 +9361,7 @@
         <v>99</v>
       </c>
       <c r="E204" s="42" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="30">
@@ -9405,7 +9375,7 @@
         <v>147</v>
       </c>
       <c r="E205" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="30">
@@ -9419,7 +9389,7 @@
         <v>105</v>
       </c>
       <c r="E206" s="42" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -9444,21 +9414,21 @@
         <v>1</v>
       </c>
       <c r="D208" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E208" s="42" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="57" t="s">
+      <c r="A209" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B209" s="57"/>
-      <c r="D209" s="46" t="s">
+      <c r="B209" s="55"/>
+      <c r="D209" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="E209" s="47"/>
+      <c r="E209" s="45"/>
     </row>
     <row r="210" spans="1:5" ht="30">
       <c r="A210" s="42" t="s">
@@ -9468,10 +9438,10 @@
         <v>589</v>
       </c>
       <c r="D210" s="42" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="E210" s="42" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="30">
@@ -9485,7 +9455,7 @@
         <v>147</v>
       </c>
       <c r="E211" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="30">
@@ -9499,7 +9469,7 @@
         <v>548</v>
       </c>
       <c r="E212" s="42" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="30">
@@ -9513,7 +9483,7 @@
         <v>191</v>
       </c>
       <c r="E213" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -9530,33 +9500,33 @@
         <v>200</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" ht="30">
       <c r="A215" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B215" s="42" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="30">
       <c r="A216" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B216" s="42" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="42" t="s">
         <v>132</v>
       </c>
       <c r="B217" s="42">
         <v>200</v>
       </c>
-      <c r="D217" s="55" t="s">
-        <v>727</v>
-      </c>
-      <c r="E217" s="56"/>
+      <c r="D217" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E217" s="57"/>
     </row>
     <row r="218" spans="1:5" ht="30">
       <c r="A218" s="42" t="s">
@@ -9569,7 +9539,7 @@
         <v>462</v>
       </c>
       <c r="E218" s="42" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="45">
@@ -9583,7 +9553,7 @@
         <v>466</v>
       </c>
       <c r="E219" s="42" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="45">
@@ -9597,33 +9567,33 @@
         <v>109</v>
       </c>
       <c r="E220" s="42" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="D221" s="42" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="E221" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="D222" s="46" t="s">
-        <v>617</v>
-      </c>
-      <c r="E222" s="47"/>
+      <c r="D222" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="E222" s="45"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="57" t="s">
+      <c r="A223" s="55" t="s">
         <v>594</v>
       </c>
-      <c r="B223" s="57"/>
+      <c r="B223" s="55"/>
       <c r="D223" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E223" s="42" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="30">
@@ -9637,7 +9607,7 @@
         <v>147</v>
       </c>
       <c r="E224" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="45">
@@ -9651,7 +9621,7 @@
         <v>105</v>
       </c>
       <c r="E225" s="42" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="30">
@@ -9676,10 +9646,10 @@
         <v>30</v>
       </c>
       <c r="D227" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E227" s="42" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -9689,21 +9659,21 @@
       <c r="B228" s="42">
         <v>2</v>
       </c>
-      <c r="D228" s="46" t="s">
+      <c r="D228" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="E228" s="47"/>
+      <c r="E228" s="45"/>
     </row>
     <row r="229" spans="1:5" ht="30">
-      <c r="A229" s="57" t="s">
+      <c r="A229" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B229" s="57"/>
+      <c r="B229" s="55"/>
       <c r="D229" s="42" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="E229" s="42" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="30">
@@ -9717,7 +9687,7 @@
         <v>191</v>
       </c>
       <c r="E230" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -9745,7 +9715,7 @@
         <v>548</v>
       </c>
       <c r="E232" s="42" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="30">
@@ -9759,7 +9729,7 @@
         <v>277</v>
       </c>
       <c r="E233" s="42" t="s">
-        <v>805</v>
+        <v>457</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -9781,27 +9751,27 @@
         <v>147</v>
       </c>
       <c r="B235" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
       <c r="D235" s="42" t="s">
         <v>564</v>
       </c>
       <c r="E235" s="42" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="30">
       <c r="A236" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B236" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
       <c r="D236" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E236" s="42" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -9812,21 +9782,21 @@
         <v>200</v>
       </c>
       <c r="D237" s="42" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="E237" s="42" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="30">
       <c r="A238" s="42" t="s">
         <v>563</v>
       </c>
       <c r="B238" s="42" t="s">
-        <v>805</v>
+        <v>457</v>
       </c>
       <c r="D238" s="42" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="E238" s="42" t="s">
         <v>119</v>
@@ -9848,17 +9818,17 @@
         <v>214</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" customHeight="1">
+    <row r="241" spans="1:5">
       <c r="A241" s="42" t="s">
         <v>151</v>
       </c>
       <c r="B241" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="55" t="s">
-        <v>739</v>
-      </c>
-      <c r="E241" s="56"/>
+      <c r="D241" s="56" t="s">
+        <v>751</v>
+      </c>
+      <c r="E241" s="57"/>
     </row>
     <row r="242" spans="1:5" ht="30">
       <c r="A242" s="42" t="s">
@@ -9871,7 +9841,7 @@
         <v>462</v>
       </c>
       <c r="E242" s="42" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="45">
@@ -9879,7 +9849,7 @@
         <v>466</v>
       </c>
       <c r="E243" s="42" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="45">
@@ -9887,15 +9857,15 @@
         <v>109</v>
       </c>
       <c r="E244" s="42" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="41" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="E245" s="42">
         <v>3</v>
@@ -9909,13 +9879,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" customHeight="1">
-      <c r="A247" s="55" t="s">
-        <v>744</v>
-      </c>
-      <c r="B247" s="56"/>
+    <row r="247" spans="1:5">
+      <c r="A247" s="56" t="s">
+        <v>756</v>
+      </c>
+      <c r="B247" s="57"/>
       <c r="D247" s="42" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="E247" s="42">
         <v>1</v>
@@ -9926,25 +9896,25 @@
         <v>462</v>
       </c>
       <c r="B248" s="42" t="s">
-        <v>746</v>
-      </c>
-      <c r="D248" s="46" t="s">
-        <v>617</v>
-      </c>
-      <c r="E248" s="47"/>
+        <v>758</v>
+      </c>
+      <c r="D248" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="E248" s="45"/>
     </row>
     <row r="249" spans="1:5" ht="30">
       <c r="A249" s="42" t="s">
         <v>466</v>
       </c>
       <c r="B249" s="42" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="D249" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E249" s="42" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="30">
@@ -9952,18 +9922,18 @@
         <v>109</v>
       </c>
       <c r="B250" s="42" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="D250" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E250" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="45">
       <c r="A251" s="42" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="B251" s="42">
         <v>2</v>
@@ -9972,7 +9942,7 @@
         <v>105</v>
       </c>
       <c r="E251" s="42" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -9991,40 +9961,40 @@
     </row>
     <row r="253" spans="1:5" ht="45">
       <c r="A253" s="42" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="B253" s="42">
         <v>1</v>
       </c>
       <c r="D253" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E253" s="42" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="46" t="s">
-        <v>617</v>
-      </c>
-      <c r="B254" s="47"/>
-      <c r="D254" s="46" t="s">
+      <c r="A254" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="B254" s="45"/>
+      <c r="D254" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="E254" s="47"/>
+      <c r="E254" s="45"/>
     </row>
     <row r="255" spans="1:5" ht="30">
       <c r="A255" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B255" s="42" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="D255" s="42" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="E255" s="42" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="30">
@@ -10032,13 +10002,13 @@
         <v>147</v>
       </c>
       <c r="B256" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
       <c r="D256" s="42" t="s">
         <v>548</v>
       </c>
       <c r="E256" s="42" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="30">
@@ -10046,13 +10016,13 @@
         <v>105</v>
       </c>
       <c r="B257" s="42" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="D257" s="42" t="s">
         <v>564</v>
       </c>
       <c r="E257" s="42" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -10066,41 +10036,41 @@
         <v>165</v>
       </c>
       <c r="E258" s="42" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="45">
       <c r="A259" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="B259" s="42" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="D259" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E259" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="30">
-      <c r="A260" s="46" t="s">
+      <c r="A260" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="B260" s="47"/>
+      <c r="B260" s="45"/>
       <c r="D260" s="42" t="s">
         <v>191</v>
       </c>
       <c r="E260" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="42" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="B261" s="42" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="D261" s="42" t="s">
         <v>132</v>
@@ -10114,13 +10084,13 @@
         <v>548</v>
       </c>
       <c r="B262" s="42" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="D262" s="42" t="s">
         <v>277</v>
       </c>
       <c r="E262" s="42" t="s">
-        <v>805</v>
+        <v>457</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -10128,7 +10098,7 @@
         <v>564</v>
       </c>
       <c r="B263" s="42" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="D263" s="42" t="s">
         <v>139</v>
@@ -10142,13 +10112,13 @@
         <v>581</v>
       </c>
       <c r="B264" s="42" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="D264" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E264" s="42" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -10156,35 +10126,35 @@
         <v>165</v>
       </c>
       <c r="B265" s="42" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="D265" s="42" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="E265" s="42" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="30">
       <c r="A266" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B266" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
       <c r="D266" s="42" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="E266" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" ht="30">
       <c r="A267" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B267" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -10195,12 +10165,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" ht="30">
       <c r="A269" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B269" s="42" t="s">
-        <v>805</v>
+        <v>457</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -10216,37 +10186,37 @@
         <v>24</v>
       </c>
       <c r="B271" s="42" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="42" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="B272" s="42" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="42" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="B273" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15" customHeight="1">
-      <c r="A276" s="55" t="s">
-        <v>763</v>
-      </c>
-      <c r="B276" s="56"/>
+    <row r="276" spans="1:2">
+      <c r="A276" s="56" t="s">
+        <v>775</v>
+      </c>
+      <c r="B276" s="57"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="42" t="s">
         <v>462</v>
       </c>
       <c r="B277" s="42" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="30">
@@ -10254,7 +10224,7 @@
         <v>466</v>
       </c>
       <c r="B278" s="42" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="30">
@@ -10262,12 +10232,12 @@
         <v>109</v>
       </c>
       <c r="B279" s="42" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="42" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="B280" s="42">
         <v>2</v>
@@ -10283,32 +10253,32 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="42" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="B282" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="46" t="s">
-        <v>617</v>
-      </c>
-      <c r="B283" s="47"/>
+      <c r="A283" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="B283" s="45"/>
     </row>
     <row r="284" spans="1:2" ht="30">
       <c r="A284" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B284" s="42" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="30">
       <c r="A285" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B285" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="30">
@@ -10316,7 +10286,7 @@
         <v>105</v>
       </c>
       <c r="B286" s="42" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -10329,24 +10299,24 @@
     </row>
     <row r="288" spans="1:2" ht="45">
       <c r="A288" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="B288" s="42" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="46" t="s">
+      <c r="A289" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="B289" s="47"/>
+      <c r="B289" s="45"/>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="42" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="B290" s="42" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -10354,7 +10324,7 @@
         <v>548</v>
       </c>
       <c r="B291" s="42" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -10362,7 +10332,7 @@
         <v>564</v>
       </c>
       <c r="B292" s="42" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -10370,7 +10340,7 @@
         <v>581</v>
       </c>
       <c r="B293" s="42" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -10378,23 +10348,23 @@
         <v>165</v>
       </c>
       <c r="B294" s="42" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="30">
       <c r="A295" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B295" s="42" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="30">
       <c r="A296" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B296" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -10405,42 +10375,58 @@
         <v>200</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" ht="30">
       <c r="A298" s="42" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="B298" s="42" t="s">
-        <v>737</v>
+        <v>457</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="42" t="s">
-        <v>658</v>
-      </c>
-      <c r="B299" s="42" t="s">
-        <v>738</v>
+        <v>139</v>
+      </c>
+      <c r="B299" s="42">
+        <v>200</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="42" t="s">
-        <v>660</v>
+        <v>24</v>
       </c>
       <c r="B300" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B301" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B302" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15" customHeight="1">
-      <c r="A305" s="55" t="s">
-        <v>775</v>
-      </c>
-      <c r="B305" s="56"/>
+    <row r="305" spans="1:2">
+      <c r="A305" s="56" t="s">
+        <v>787</v>
+      </c>
+      <c r="B305" s="57"/>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="42" t="s">
         <v>462</v>
       </c>
       <c r="B306" s="42" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="30">
@@ -10448,7 +10434,7 @@
         <v>466</v>
       </c>
       <c r="B307" s="42" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="30">
@@ -10456,12 +10442,12 @@
         <v>109</v>
       </c>
       <c r="B308" s="42" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="42" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="B309" s="42">
         <v>2</v>
@@ -10477,32 +10463,32 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="42" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="B311" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="46" t="s">
-        <v>617</v>
-      </c>
-      <c r="B312" s="47"/>
+      <c r="A312" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="B312" s="45"/>
     </row>
     <row r="313" spans="1:2" ht="30">
       <c r="A313" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B313" s="42" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="30">
       <c r="A314" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B314" s="42" t="s">
-        <v>803</v>
+        <v>455</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="30">
@@ -10510,7 +10496,7 @@
         <v>105</v>
       </c>
       <c r="B315" s="42" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -10523,24 +10509,24 @@
     </row>
     <row r="317" spans="1:2" ht="45">
       <c r="A317" s="42" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="46" t="s">
+      <c r="A318" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="B318" s="47"/>
+      <c r="B318" s="45"/>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="42" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -10548,7 +10534,7 @@
         <v>548</v>
       </c>
       <c r="B320" s="42" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -10556,7 +10542,7 @@
         <v>564</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -10564,7 +10550,7 @@
         <v>581</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -10572,23 +10558,23 @@
         <v>165</v>
       </c>
       <c r="B323" s="42" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="30">
       <c r="A324" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B324" s="42" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="30">
       <c r="A325" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -10599,12 +10585,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" ht="30">
       <c r="A327" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B327" s="42" t="s">
-        <v>805</v>
+        <v>457</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -10620,20 +10606,20 @@
         <v>24</v>
       </c>
       <c r="B329" s="42" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="42" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="B330" s="42" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="42" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="B331" s="42" t="s">
         <v>119</v>
@@ -10641,24 +10627,36 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -10675,36 +10673,24 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -10720,12 +10706,12 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -10774,47 +10760,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>786</v>
-      </c>
-      <c r="B4" t="s">
-        <v>787</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>788</v>
-      </c>
-      <c r="B5" t="s">
-        <v>789</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>790</v>
-      </c>
-      <c r="B6" t="s">
-        <v>791</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10822,12 +10770,6 @@
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="D3" r:id="rId3"/>
     <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="D4" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="D5" r:id="rId7"/>
-    <hyperlink ref="C5" r:id="rId8"/>
-    <hyperlink ref="D6" r:id="rId9"/>
-    <hyperlink ref="C6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="799">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -2434,10 +2434,7 @@
     <t>Lesson_for_CampTrack_FourLessons_Three(4)</t>
   </si>
   <si>
-    <t>https://offshore-qa-playpen.grovo.net/</t>
-  </si>
-  <si>
-    <t>masters@grovo.com</t>
+    <t>mymaster@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3284,7 +3281,7 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -3316,7 +3313,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>798</v>
+        <v>5</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -3332,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>7</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="802">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -2435,6 +2435,15 @@
   </si>
   <si>
     <t>mymaster@gmail.com</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/MYGrovo/TestData/test.jpg</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/MYGrovo/TestData/test.wmv</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/MYGrovo/TestData/test.pdf</t>
   </si>
 </sst>
 </file>
@@ -2852,22 +2861,22 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3280,7 +3289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -3708,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60" defaultRowHeight="18.75"/>
@@ -3815,7 +3824,7 @@
         <v>222</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3845,7 +3854,7 @@
         <v>225</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3879,7 +3888,7 @@
         <v>225</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3923,7 +3932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
@@ -3967,7 +3976,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>103</v>
@@ -4033,7 +4042,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>114</v>
@@ -4111,13 +4120,13 @@
         <v>102</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4181,13 +4190,13 @@
         <v>102</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>130</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4255,13 +4264,13 @@
         <v>102</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>137</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4329,7 +4338,7 @@
         <v>102</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>144</v>
@@ -4349,7 +4358,7 @@
         <v>147</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4423,13 +4432,13 @@
         <v>102</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>158</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="E54" s="12">
         <v>200</v>
@@ -4446,7 +4455,7 @@
         <v>160</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
       <c r="E55" s="11"/>
     </row>
@@ -4520,7 +4529,7 @@
         <v>102</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>165</v>
@@ -4540,7 +4549,7 @@
         <v>158</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4592,10 +4601,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="49" t="s">
         <v>170</v>
       </c>
@@ -4620,7 +4629,7 @@
         <v>102</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>103</v>
@@ -4666,7 +4675,7 @@
         <v>180</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4682,10 +4691,10 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="53"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="49" t="s">
         <v>182</v>
       </c>
@@ -4710,13 +4719,13 @@
         <v>102</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="37.5">
@@ -4756,7 +4765,7 @@
         <v>191</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4798,13 +4807,13 @@
         <v>102</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>191</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="37.5">
@@ -4854,7 +4863,7 @@
         <v>200</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4944,7 +4953,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C105" s="49" t="s">
         <v>231</v>
@@ -5000,7 +5009,7 @@
         <v>102</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5010,7 +5019,7 @@
         <v>158</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5030,7 +5039,7 @@
         <v>200</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5092,7 +5101,7 @@
         <v>102</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>236</v>
@@ -5112,7 +5121,7 @@
         <v>102</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5126,7 +5135,7 @@
         <v>158</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="37.5">
@@ -5150,11 +5159,11 @@
         <v>200</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="52" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="50"/>
@@ -5232,13 +5241,13 @@
         <v>102</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5252,7 +5261,7 @@
         <v>158</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5280,7 +5289,7 @@
         <v>200</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5370,13 +5379,13 @@
         <v>102</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5390,7 +5399,7 @@
         <v>158</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5504,13 +5513,13 @@
         <v>102</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5524,7 +5533,7 @@
         <v>158</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5552,7 +5561,7 @@
         <v>277</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5617,6 +5626,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -5627,34 +5664,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6802,8 +6811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6820,18 +6829,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="57"/>
+      <c r="D1" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="G1" s="56" t="s">
+      <c r="E1" s="56"/>
+      <c r="G1" s="55" t="s">
         <v>625</v>
       </c>
-      <c r="H1" s="57"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="42" t="s">
@@ -6900,10 +6909,10 @@
       <c r="B5" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="57"/>
+      <c r="E5" s="56"/>
       <c r="G5" s="58" t="s">
         <v>629</v>
       </c>
@@ -6946,7 +6955,7 @@
         <v>147</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
@@ -7032,16 +7041,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="55" t="s">
         <v>636</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="56"/>
       <c r="D16" s="42" t="s">
         <v>462</v>
       </c>
@@ -7090,10 +7099,10 @@
       <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="56"/>
       <c r="D20" s="42" t="s">
         <v>99</v>
       </c>
@@ -7112,7 +7121,7 @@
         <v>147</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
@@ -7120,7 +7129,7 @@
         <v>493</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>105</v>
@@ -7154,10 +7163,10 @@
       <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="55" t="s">
         <v>494</v>
       </c>
-      <c r="B26" s="57"/>
+      <c r="B26" s="56"/>
       <c r="D26" s="42" t="s">
         <v>23</v>
       </c>
@@ -7176,7 +7185,7 @@
         <v>147</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7196,14 +7205,14 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="D30" s="56" t="s">
+      <c r="B30" s="56"/>
+      <c r="D30" s="55" t="s">
         <v>644</v>
       </c>
-      <c r="E30" s="57"/>
+      <c r="E30" s="56"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="42" t="s">
@@ -7224,7 +7233,7 @@
         <v>499</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>466</v>
@@ -7254,10 +7263,10 @@
       <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="55" t="s">
         <v>500</v>
       </c>
-      <c r="B35" s="57"/>
+      <c r="B35" s="56"/>
       <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
@@ -7276,7 +7285,7 @@
         <v>147</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
@@ -7308,10 +7317,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B39" s="57"/>
+      <c r="B39" s="56"/>
       <c r="D39" s="42" t="s">
         <v>632</v>
       </c>
@@ -7336,7 +7345,7 @@
         <v>499</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
       <c r="D41" s="42" t="s">
         <v>23</v>
@@ -7356,7 +7365,7 @@
         <v>556</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7368,10 +7377,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="56"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="42" t="s">
@@ -7388,10 +7397,10 @@
       <c r="B46" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="55" t="s">
         <v>652</v>
       </c>
-      <c r="E46" s="57"/>
+      <c r="E46" s="56"/>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" s="42" t="s">
@@ -7408,10 +7417,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="56"/>
       <c r="D48" s="42" t="s">
         <v>466</v>
       </c>
@@ -7470,7 +7479,7 @@
         <v>147</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30">
@@ -7496,10 +7505,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="B55" s="57"/>
+      <c r="B55" s="56"/>
       <c r="D55" s="42" t="s">
         <v>632</v>
       </c>
@@ -7544,14 +7553,14 @@
         <v>563</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="56"/>
       <c r="D59" s="42" t="s">
         <v>139</v>
       </c>
@@ -7575,24 +7584,24 @@
         <v>518</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30">
+    <row r="62" spans="1:5">
       <c r="A62" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="D62" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="D62" s="55" t="s">
         <v>660</v>
       </c>
-      <c r="E62" s="57"/>
+      <c r="E62" s="56"/>
     </row>
     <row r="63" spans="1:5" ht="30">
       <c r="A63" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D63" s="42" t="s">
         <v>462</v>
@@ -7620,7 +7629,7 @@
         <v>277</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
       <c r="D65" s="42" t="s">
         <v>109</v>
@@ -7672,10 +7681,10 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="57" t="s">
         <v>519</v>
       </c>
-      <c r="B69" s="55"/>
+      <c r="B69" s="57"/>
       <c r="D69" s="58" t="s">
         <v>629</v>
       </c>
@@ -7706,7 +7715,7 @@
         <v>147</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30">
@@ -7740,10 +7749,10 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="55" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="57"/>
+      <c r="B75" s="56"/>
       <c r="D75" s="44" t="s">
         <v>473</v>
       </c>
@@ -7792,10 +7801,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B79" s="57"/>
+      <c r="B79" s="56"/>
       <c r="D79" s="42" t="s">
         <v>672</v>
       </c>
@@ -7819,17 +7828,17 @@
         <v>518</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30">
+    <row r="82" spans="1:6">
       <c r="A82" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="D82" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="D82" s="55" t="s">
         <v>674</v>
       </c>
-      <c r="E82" s="57"/>
+      <c r="E82" s="56"/>
       <c r="F82" s="46" t="s">
         <v>675</v>
       </c>
@@ -7916,15 +7925,15 @@
         <v>147</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="B89" s="57"/>
+      <c r="B89" s="56"/>
       <c r="D89" s="42" t="s">
         <v>105</v>
       </c>
@@ -7983,10 +7992,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="56" t="s">
+      <c r="A93" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="B93" s="57"/>
+      <c r="B93" s="56"/>
       <c r="D93" s="42" t="s">
         <v>23</v>
       </c>
@@ -8022,7 +8031,7 @@
         <v>147</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30">
@@ -8030,13 +8039,13 @@
         <v>191</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D96" s="42" t="s">
         <v>556</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -8064,7 +8073,7 @@
         <v>563</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -8140,10 +8149,10 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="55" t="s">
+      <c r="A105" s="57" t="s">
         <v>536</v>
       </c>
-      <c r="B105" s="55"/>
+      <c r="B105" s="57"/>
       <c r="D105" s="42" t="s">
         <v>694</v>
       </c>
@@ -8166,10 +8175,10 @@
       <c r="B107" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="D107" s="56" t="s">
+      <c r="D107" s="55" t="s">
         <v>695</v>
       </c>
-      <c r="E107" s="57"/>
+      <c r="E107" s="56"/>
     </row>
     <row r="108" spans="1:5" ht="30">
       <c r="A108" s="42" t="s">
@@ -8214,10 +8223,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="55" t="s">
+      <c r="A111" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B111" s="55"/>
+      <c r="B111" s="57"/>
       <c r="D111" s="42" t="s">
         <v>692</v>
       </c>
@@ -8239,12 +8248,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="30">
+    <row r="113" spans="1:5">
       <c r="A113" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D113" s="42" t="s">
         <v>693</v>
@@ -8270,7 +8279,7 @@
         <v>277</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
       <c r="D115" s="42" t="s">
         <v>99</v>
@@ -8290,7 +8299,7 @@
         <v>147</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30">
@@ -8336,10 +8345,10 @@
       <c r="E120" s="45"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="55" t="s">
+      <c r="A121" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="B121" s="55"/>
+      <c r="B121" s="57"/>
       <c r="D121" s="42" t="s">
         <v>23</v>
       </c>
@@ -8372,7 +8381,7 @@
         <v>147</v>
       </c>
       <c r="E123" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30">
@@ -8390,10 +8399,10 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="55" t="s">
+      <c r="A125" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B125" s="55"/>
+      <c r="B125" s="57"/>
       <c r="D125" s="42" t="s">
         <v>670</v>
       </c>
@@ -8431,17 +8440,17 @@
         <v>549</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30">
+    <row r="129" spans="1:5">
       <c r="A129" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="D129" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="D129" s="55" t="s">
         <v>703</v>
       </c>
-      <c r="E129" s="57"/>
+      <c r="E129" s="56"/>
     </row>
     <row r="130" spans="1:5" ht="30">
       <c r="D130" s="42" t="s">
@@ -8460,10 +8469,10 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="55" t="s">
+      <c r="A132" s="57" t="s">
         <v>550</v>
       </c>
-      <c r="B132" s="55"/>
+      <c r="B132" s="57"/>
       <c r="D132" s="42" t="s">
         <v>109</v>
       </c>
@@ -8514,10 +8523,10 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="55" t="s">
+      <c r="A136" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B136" s="55"/>
+      <c r="B136" s="57"/>
       <c r="D136" s="58" t="s">
         <v>629</v>
       </c>
@@ -8542,13 +8551,13 @@
         <v>236</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D138" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30">
@@ -8565,12 +8574,12 @@
         <v>708</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="30">
+    <row r="140" spans="1:5">
       <c r="A140" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B140" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D140" s="42" t="s">
         <v>378</v>
@@ -8608,10 +8617,10 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="55" t="s">
+      <c r="A144" s="57" t="s">
         <v>557</v>
       </c>
-      <c r="B144" s="55"/>
+      <c r="B144" s="57"/>
       <c r="D144" s="42" t="s">
         <v>165</v>
       </c>
@@ -8630,7 +8639,7 @@
         <v>556</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
@@ -8662,10 +8671,10 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="55" t="s">
+      <c r="A148" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B148" s="55"/>
+      <c r="B148" s="57"/>
       <c r="D148" s="42" t="s">
         <v>670</v>
       </c>
@@ -8687,12 +8696,12 @@
         <v>673</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="30">
+    <row r="150" spans="1:5">
       <c r="A150" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B150" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8710,17 +8719,17 @@
       <c r="B152" s="42" t="s">
         <v>562</v>
       </c>
-      <c r="D152" s="56" t="s">
+      <c r="D152" s="55" t="s">
         <v>711</v>
       </c>
-      <c r="E152" s="57"/>
+      <c r="E152" s="56"/>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" s="42" t="s">
         <v>563</v>
       </c>
       <c r="B153" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
       <c r="D153" s="42" t="s">
         <v>462</v>
@@ -8824,14 +8833,14 @@
         <v>147</v>
       </c>
       <c r="E161" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="55" t="s">
+      <c r="A162" s="57" t="s">
         <v>566</v>
       </c>
-      <c r="B162" s="55"/>
+      <c r="B162" s="57"/>
       <c r="D162" s="42" t="s">
         <v>105</v>
       </c>
@@ -8908,15 +8917,15 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
-      <c r="A168" s="55" t="s">
+      <c r="A168" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="55"/>
+      <c r="B168" s="57"/>
       <c r="D168" s="42" t="s">
         <v>556</v>
       </c>
       <c r="E168" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -8944,7 +8953,7 @@
         <v>277</v>
       </c>
       <c r="E170" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -8975,12 +8984,12 @@
         <v>669</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="30">
+    <row r="173" spans="1:5">
       <c r="A173" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D173" s="42" t="s">
         <v>670</v>
@@ -8989,12 +8998,12 @@
         <v>671</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="30">
+    <row r="174" spans="1:5">
       <c r="A174" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B174" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D174" s="42" t="s">
         <v>672</v>
@@ -9013,12 +9022,12 @@
       <c r="D175" s="42"/>
       <c r="E175" s="42"/>
     </row>
-    <row r="176" spans="1:5" ht="30">
+    <row r="176" spans="1:5">
       <c r="A176" s="42" t="s">
         <v>563</v>
       </c>
       <c r="B176" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -9036,10 +9045,10 @@
       <c r="B178" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="56" t="s">
+      <c r="D178" s="55" t="s">
         <v>720</v>
       </c>
-      <c r="E178" s="57"/>
+      <c r="E178" s="56"/>
     </row>
     <row r="179" spans="1:5" ht="30">
       <c r="A179" s="42" t="s">
@@ -9072,10 +9081,10 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="55" t="s">
+      <c r="A182" s="57" t="s">
         <v>574</v>
       </c>
-      <c r="B182" s="55"/>
+      <c r="B182" s="57"/>
       <c r="D182" s="42" t="s">
         <v>692</v>
       </c>
@@ -9148,14 +9157,14 @@
         <v>147</v>
       </c>
       <c r="E187" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
-      <c r="A188" s="55" t="s">
+      <c r="A188" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B188" s="55"/>
+      <c r="B188" s="57"/>
       <c r="D188" s="42" t="s">
         <v>105</v>
       </c>
@@ -9236,7 +9245,7 @@
         <v>147</v>
       </c>
       <c r="B194" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D194" s="42" t="s">
         <v>548</v>
@@ -9250,13 +9259,13 @@
         <v>556</v>
       </c>
       <c r="B195" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D195" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E195" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -9267,12 +9276,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="30">
+    <row r="197" spans="1:5">
       <c r="A197" s="42" t="s">
         <v>563</v>
       </c>
       <c r="B197" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -9282,10 +9291,10 @@
       <c r="B198" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D198" s="56" t="s">
+      <c r="D198" s="55" t="s">
         <v>730</v>
       </c>
-      <c r="E198" s="57"/>
+      <c r="E198" s="56"/>
     </row>
     <row r="199" spans="1:5" ht="30">
       <c r="A199" s="42" t="s">
@@ -9338,10 +9347,10 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="55" t="s">
+      <c r="A203" s="57" t="s">
         <v>585</v>
       </c>
-      <c r="B203" s="55"/>
+      <c r="B203" s="57"/>
       <c r="D203" s="44" t="s">
         <v>629</v>
       </c>
@@ -9372,7 +9381,7 @@
         <v>147</v>
       </c>
       <c r="E205" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="30">
@@ -9418,10 +9427,10 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="55" t="s">
+      <c r="A209" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B209" s="55"/>
+      <c r="B209" s="57"/>
       <c r="D209" s="44" t="s">
         <v>473</v>
       </c>
@@ -9452,7 +9461,7 @@
         <v>147</v>
       </c>
       <c r="E211" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="30">
@@ -9480,7 +9489,7 @@
         <v>191</v>
       </c>
       <c r="E213" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -9497,20 +9506,20 @@
         <v>200</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="30">
+    <row r="215" spans="1:5">
       <c r="A215" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B215" s="42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="30">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B216" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -9520,10 +9529,10 @@
       <c r="B217" s="42">
         <v>200</v>
       </c>
-      <c r="D217" s="56" t="s">
+      <c r="D217" s="55" t="s">
         <v>739</v>
       </c>
-      <c r="E217" s="57"/>
+      <c r="E217" s="56"/>
     </row>
     <row r="218" spans="1:5" ht="30">
       <c r="A218" s="42" t="s">
@@ -9582,10 +9591,10 @@
       <c r="E222" s="45"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="55" t="s">
+      <c r="A223" s="57" t="s">
         <v>594</v>
       </c>
-      <c r="B223" s="55"/>
+      <c r="B223" s="57"/>
       <c r="D223" s="42" t="s">
         <v>99</v>
       </c>
@@ -9604,7 +9613,7 @@
         <v>147</v>
       </c>
       <c r="E224" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="45">
@@ -9662,10 +9671,10 @@
       <c r="E228" s="45"/>
     </row>
     <row r="229" spans="1:5" ht="30">
-      <c r="A229" s="55" t="s">
+      <c r="A229" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="B229" s="55"/>
+      <c r="B229" s="57"/>
       <c r="D229" s="42" t="s">
         <v>727</v>
       </c>
@@ -9684,7 +9693,7 @@
         <v>191</v>
       </c>
       <c r="E230" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -9726,7 +9735,7 @@
         <v>277</v>
       </c>
       <c r="E233" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -9748,7 +9757,7 @@
         <v>147</v>
       </c>
       <c r="B235" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D235" s="42" t="s">
         <v>564</v>
@@ -9757,12 +9766,12 @@
         <v>748</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="30">
+    <row r="236" spans="1:5">
       <c r="A236" s="42" t="s">
         <v>556</v>
       </c>
       <c r="B236" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="D236" s="42" t="s">
         <v>24</v>
@@ -9785,12 +9794,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="30">
+    <row r="238" spans="1:5">
       <c r="A238" s="42" t="s">
         <v>563</v>
       </c>
       <c r="B238" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
       <c r="D238" s="42" t="s">
         <v>672</v>
@@ -9822,10 +9831,10 @@
       <c r="B241" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="56" t="s">
+      <c r="D241" s="55" t="s">
         <v>751</v>
       </c>
-      <c r="E241" s="57"/>
+      <c r="E241" s="56"/>
     </row>
     <row r="242" spans="1:5" ht="30">
       <c r="A242" s="42" t="s">
@@ -9877,10 +9886,10 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="56" t="s">
+      <c r="A247" s="55" t="s">
         <v>756</v>
       </c>
-      <c r="B247" s="57"/>
+      <c r="B247" s="56"/>
       <c r="D247" s="42" t="s">
         <v>757</v>
       </c>
@@ -9925,7 +9934,7 @@
         <v>147</v>
       </c>
       <c r="E250" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="45">
@@ -9999,7 +10008,7 @@
         <v>147</v>
       </c>
       <c r="B256" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D256" s="42" t="s">
         <v>548</v>
@@ -10047,7 +10056,7 @@
         <v>147</v>
       </c>
       <c r="E259" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="30">
@@ -10059,7 +10068,7 @@
         <v>191</v>
       </c>
       <c r="E260" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -10087,7 +10096,7 @@
         <v>277</v>
       </c>
       <c r="E262" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -10132,12 +10141,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="30">
+    <row r="266" spans="1:5">
       <c r="A266" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B266" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
       <c r="D266" s="42" t="s">
         <v>672</v>
@@ -10146,12 +10155,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="30">
+    <row r="267" spans="1:5">
       <c r="A267" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B267" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -10162,12 +10171,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="30">
+    <row r="269" spans="1:5">
       <c r="A269" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B269" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -10203,10 +10212,10 @@
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="56" t="s">
+      <c r="A276" s="55" t="s">
         <v>775</v>
       </c>
-      <c r="B276" s="57"/>
+      <c r="B276" s="56"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="42" t="s">
@@ -10270,12 +10279,12 @@
         <v>779</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="30">
+    <row r="285" spans="1:2">
       <c r="A285" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B285" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="30">
@@ -10348,20 +10357,20 @@
         <v>786</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="30">
+    <row r="295" spans="1:2">
       <c r="A295" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B295" s="42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="30">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B296" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -10372,12 +10381,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="30">
+    <row r="298" spans="1:2">
       <c r="A298" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B298" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -10413,10 +10422,10 @@
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="56" t="s">
+      <c r="A305" s="55" t="s">
         <v>787</v>
       </c>
-      <c r="B305" s="57"/>
+      <c r="B305" s="56"/>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="42" t="s">
@@ -10480,12 +10489,12 @@
         <v>791</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="30">
+    <row r="314" spans="1:2">
       <c r="A314" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B314" s="42" t="s">
-        <v>455</v>
+        <v>799</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="30">
@@ -10558,20 +10567,20 @@
         <v>769</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="30">
+    <row r="324" spans="1:2">
       <c r="A324" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B324" s="42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="30">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
       <c r="A325" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>456</v>
+        <v>800</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -10582,12 +10591,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="30">
+    <row r="327" spans="1:2">
       <c r="A327" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B327" s="42" t="s">
-        <v>457</v>
+        <v>801</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -10624,36 +10633,24 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -10670,24 +10667,36 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,10 @@
     <sheet name="TrackCreate" sheetId="23" r:id="rId5"/>
     <sheet name="MultiCardLesson" sheetId="21" r:id="rId6"/>
     <sheet name="CreateTag" sheetId="24" r:id="rId7"/>
-    <sheet name="CreateCampaigns" sheetId="25" r:id="rId8"/>
-    <sheet name="API testing" sheetId="26" r:id="rId9"/>
+    <sheet name="API testing" sheetId="26" r:id="rId8"/>
+    <sheet name="CreateCampaigns" sheetId="28" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="802">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -2837,17 +2837,17 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3717,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60" defaultRowHeight="18.75"/>
@@ -3932,8 +3932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
@@ -6809,10 +6809,89 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7013,10 +7092,10 @@
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="H11" s="45"/>
+      <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:8" ht="30">
       <c r="A12" s="42"/>
@@ -7162,7 +7241,7 @@
       </c>
       <c r="E25" s="59"/>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1">
+    <row r="26" spans="1:5" ht="30">
       <c r="A26" s="55" t="s">
         <v>494</v>
       </c>
@@ -7262,7 +7341,7 @@
       </c>
       <c r="E34" s="59"/>
     </row>
-    <row r="35" spans="1:5" ht="18.75" customHeight="1">
+    <row r="35" spans="1:5">
       <c r="A35" s="55" t="s">
         <v>500</v>
       </c>
@@ -7376,7 +7455,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.75" customHeight="1">
+    <row r="44" spans="1:5">
       <c r="A44" s="55" t="s">
         <v>505</v>
       </c>
@@ -7504,7 +7583,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18.75" customHeight="1">
+    <row r="55" spans="1:5" ht="45">
       <c r="A55" s="55" t="s">
         <v>513</v>
       </c>
@@ -7748,15 +7827,15 @@
         <v>667</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18.75" customHeight="1">
+    <row r="75" spans="1:5">
       <c r="A75" s="55" t="s">
         <v>523</v>
       </c>
       <c r="B75" s="56"/>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="E75" s="45"/>
+      <c r="E75" s="47"/>
     </row>
     <row r="76" spans="1:5" ht="30">
       <c r="A76" s="42" t="s">
@@ -7839,7 +7918,7 @@
         <v>674</v>
       </c>
       <c r="E82" s="56"/>
-      <c r="F82" s="46" t="s">
+      <c r="F82" s="44" t="s">
         <v>675</v>
       </c>
     </row>
@@ -7905,7 +7984,7 @@
         <v>629</v>
       </c>
       <c r="E86" s="59"/>
-      <c r="F86" s="47" t="s">
+      <c r="F86" s="45" t="s">
         <v>629</v>
       </c>
     </row>
@@ -7929,7 +8008,7 @@
       </c>
       <c r="F88" s="42"/>
     </row>
-    <row r="89" spans="1:6" ht="18.75" customHeight="1">
+    <row r="89" spans="1:6" ht="30">
       <c r="A89" s="55" t="s">
         <v>529</v>
       </c>
@@ -7987,7 +8066,7 @@
         <v>473</v>
       </c>
       <c r="E92" s="59"/>
-      <c r="F92" s="47" t="s">
+      <c r="F92" s="45" t="s">
         <v>473</v>
       </c>
     </row>
@@ -8148,7 +8227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="18.75" customHeight="1">
+    <row r="105" spans="1:5">
       <c r="A105" s="57" t="s">
         <v>536</v>
       </c>
@@ -8339,12 +8418,12 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="D120" s="44" t="s">
+      <c r="D120" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="E120" s="45"/>
-    </row>
-    <row r="121" spans="1:5" ht="18.75" customHeight="1">
+      <c r="E120" s="47"/>
+    </row>
+    <row r="121" spans="1:5" ht="30">
       <c r="A121" s="57" t="s">
         <v>541</v>
       </c>
@@ -8468,7 +8547,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="18.75" customHeight="1">
+    <row r="132" spans="1:5" ht="45">
       <c r="A132" s="57" t="s">
         <v>550</v>
       </c>
@@ -8603,10 +8682,10 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="D142" s="44" t="s">
+      <c r="D142" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="E142" s="45"/>
+      <c r="E142" s="47"/>
     </row>
     <row r="143" spans="1:5" ht="30">
       <c r="D143" s="42" t="s">
@@ -8616,7 +8695,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="18.75" customHeight="1">
+    <row r="144" spans="1:5">
       <c r="A144" s="57" t="s">
         <v>557</v>
       </c>
@@ -8836,7 +8915,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="18.75" customHeight="1">
+    <row r="162" spans="1:5" ht="30">
       <c r="A162" s="57" t="s">
         <v>566</v>
       </c>
@@ -8883,10 +8962,10 @@
       <c r="B165" s="42" t="s">
         <v>569</v>
       </c>
-      <c r="D165" s="44" t="s">
+      <c r="D165" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="E165" s="45"/>
+      <c r="E165" s="47"/>
     </row>
     <row r="166" spans="1:5" ht="30">
       <c r="A166" s="42" t="s">
@@ -9080,7 +9159,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="18.75" customHeight="1">
+    <row r="182" spans="1:5">
       <c r="A182" s="57" t="s">
         <v>574</v>
       </c>
@@ -9207,10 +9286,10 @@
       <c r="B191" s="42" t="s">
         <v>580</v>
       </c>
-      <c r="D191" s="44" t="s">
+      <c r="D191" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="E191" s="45"/>
+      <c r="E191" s="47"/>
     </row>
     <row r="192" spans="1:5" ht="30">
       <c r="A192" s="42" t="s">
@@ -9346,15 +9425,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="18.75" customHeight="1">
+    <row r="203" spans="1:5">
       <c r="A203" s="57" t="s">
         <v>585</v>
       </c>
       <c r="B203" s="57"/>
-      <c r="D203" s="44" t="s">
+      <c r="D203" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="E203" s="45"/>
+      <c r="E203" s="47"/>
     </row>
     <row r="204" spans="1:5" ht="30">
       <c r="A204" s="42" t="s">
@@ -9431,10 +9510,10 @@
         <v>473</v>
       </c>
       <c r="B209" s="57"/>
-      <c r="D209" s="44" t="s">
+      <c r="D209" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="E209" s="45"/>
+      <c r="E209" s="47"/>
     </row>
     <row r="210" spans="1:5" ht="30">
       <c r="A210" s="42" t="s">
@@ -9585,12 +9664,12 @@
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="D222" s="44" t="s">
+      <c r="D222" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="E222" s="45"/>
-    </row>
-    <row r="223" spans="1:5" ht="18.75" customHeight="1">
+      <c r="E222" s="47"/>
+    </row>
+    <row r="223" spans="1:5" ht="30">
       <c r="A223" s="57" t="s">
         <v>594</v>
       </c>
@@ -9665,10 +9744,10 @@
       <c r="B228" s="42">
         <v>2</v>
       </c>
-      <c r="D228" s="44" t="s">
+      <c r="D228" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="E228" s="45"/>
+      <c r="E228" s="47"/>
     </row>
     <row r="229" spans="1:5" ht="30">
       <c r="A229" s="57" t="s">
@@ -9904,10 +9983,10 @@
       <c r="B248" s="42" t="s">
         <v>758</v>
       </c>
-      <c r="D248" s="44" t="s">
+      <c r="D248" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="E248" s="45"/>
+      <c r="E248" s="47"/>
     </row>
     <row r="249" spans="1:5" ht="30">
       <c r="A249" s="42" t="s">
@@ -9980,14 +10059,14 @@
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="44" t="s">
+      <c r="A254" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="B254" s="45"/>
-      <c r="D254" s="44" t="s">
+      <c r="B254" s="47"/>
+      <c r="D254" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="E254" s="45"/>
+      <c r="E254" s="47"/>
     </row>
     <row r="255" spans="1:5" ht="30">
       <c r="A255" s="42" t="s">
@@ -10060,10 +10139,10 @@
       </c>
     </row>
     <row r="260" spans="1:5" ht="30">
-      <c r="A260" s="44" t="s">
+      <c r="A260" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="B260" s="45"/>
+      <c r="B260" s="47"/>
       <c r="D260" s="42" t="s">
         <v>191</v>
       </c>
@@ -10266,10 +10345,10 @@
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="44" t="s">
+      <c r="A283" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="B283" s="45"/>
+      <c r="B283" s="47"/>
     </row>
     <row r="284" spans="1:2" ht="30">
       <c r="A284" s="42" t="s">
@@ -10312,10 +10391,10 @@
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="44" t="s">
+      <c r="A289" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="B289" s="45"/>
+      <c r="B289" s="47"/>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="42" t="s">
@@ -10383,41 +10462,25 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="42" t="s">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="B298" s="42" t="s">
-        <v>801</v>
+        <v>749</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B299" s="42">
-        <v>200</v>
+        <v>670</v>
+      </c>
+      <c r="B299" s="42" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="42" t="s">
-        <v>24</v>
+        <v>672</v>
       </c>
       <c r="B300" s="42" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="42" t="s">
-        <v>670</v>
-      </c>
-      <c r="B301" s="42" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="42" t="s">
-        <v>672</v>
-      </c>
-      <c r="B302" s="42" t="s">
         <v>119</v>
       </c>
     </row>
@@ -10476,10 +10539,10 @@
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="44" t="s">
+      <c r="A312" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="B312" s="45"/>
+      <c r="B312" s="47"/>
     </row>
     <row r="313" spans="1:2" ht="30">
       <c r="A313" s="42" t="s">
@@ -10522,10 +10585,10 @@
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="44" t="s">
+      <c r="A318" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="B318" s="45"/>
+      <c r="B318" s="47"/>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="42" t="s">
@@ -10633,155 +10696,71 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="D185:E185"/>
     <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="A203:B203"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="A148:B148"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
     <mergeCell ref="A162:B162"/>
     <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="A111:B111"/>
     <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G1:H1"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B2" t="s">
-        <v>605</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>606</v>
-      </c>
-      <c r="B3" t="s">
-        <v>607</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="CreateTag" sheetId="24" r:id="rId7"/>
     <sheet name="API testing" sheetId="26" r:id="rId8"/>
     <sheet name="CreateCampaigns" sheetId="28" r:id="rId9"/>
+    <sheet name="CampAssign" sheetId="29" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="936">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -2444,6 +2445,408 @@
   </si>
   <si>
     <t>/home/ubuntu/MYGrovo/TestData/test.pdf</t>
+  </si>
+  <si>
+    <t>Create Learner</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>akash_1</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>mylast_1</t>
+  </si>
+  <si>
+    <t>Emailid</t>
+  </si>
+  <si>
+    <t>myemail_1_@gmail.com</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>empid_1</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>New password</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>AssignCampAllCardsLessonToLearner</t>
+  </si>
+  <si>
+    <t>Campaign Title</t>
+  </si>
+  <si>
+    <t>CampForAssignWithAllCardsLesson</t>
+  </si>
+  <si>
+    <t>Campaign to assign to learner with all cards lesson</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_Learner_allcards</t>
+  </si>
+  <si>
+    <t>AssignCampOneLessonOneTrackToLearner</t>
+  </si>
+  <si>
+    <t>CampForAssignOneTrackOneLesson</t>
+  </si>
+  <si>
+    <t>Campaign to assign to learner with One Lesson and One track</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_Learner_1LessonTrack</t>
+  </si>
+  <si>
+    <t>Track</t>
+  </si>
+  <si>
+    <t>Title of track</t>
+  </si>
+  <si>
+    <t>Track_for_CampAssign_withOneLessonOneTrack</t>
+  </si>
+  <si>
+    <t>This is the track for Campaign assigned to learner with one track and one lesson</t>
+  </si>
+  <si>
+    <t>Tag Name `</t>
+  </si>
+  <si>
+    <t>Expected Success</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_CampAssign_withOneLessonOneTrack".</t>
+  </si>
+  <si>
+    <t>learner2_2</t>
+  </si>
+  <si>
+    <t>learner2_6</t>
+  </si>
+  <si>
+    <t>ln2_6</t>
+  </si>
+  <si>
+    <t>learner2_6_@gmail.com</t>
+  </si>
+  <si>
+    <t>123_6</t>
+  </si>
+  <si>
+    <t>AssignCampOneTrackwithFourLessonsLearner</t>
+  </si>
+  <si>
+    <t>CampForAssignOneTrackWithFourLessons</t>
+  </si>
+  <si>
+    <t>Campaign to assign to learner with One Track with Lesson</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_Learner_OneTrack4Lessons1</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_Learner_OneTrack4Lessons2</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_Learner_OneTrack4Lessons3</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_Learner_OneTrack4Lessons4</t>
+  </si>
+  <si>
+    <t>Track_for_CampAssign_withOneTrackFourLesson</t>
+  </si>
+  <si>
+    <t>This is the track for Campaign assigned to learner with one track contains four lessons</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_CampAssign_withOneTrackFourLesson".</t>
+  </si>
+  <si>
+    <t>learner3_15</t>
+  </si>
+  <si>
+    <t>ln3_15</t>
+  </si>
+  <si>
+    <t>learner3_15_@gmail.com</t>
+  </si>
+  <si>
+    <t>emp3_15</t>
+  </si>
+  <si>
+    <t>AssignCampTwoTracksTwoLessonsGraded</t>
+  </si>
+  <si>
+    <t>CampForAssignTwoTrackTwoLessonsGraded</t>
+  </si>
+  <si>
+    <t>Campaign to assign to Learner with TwoTrack and TwoLessons</t>
+  </si>
+  <si>
+    <t>Passing Score</t>
+  </si>
+  <si>
+    <t>Attempts</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_TwoTrackAndLesson1</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_TwoTrackAndLesson2</t>
+  </si>
+  <si>
+    <t>Title of track 1</t>
+  </si>
+  <si>
+    <t>Track_for_CampAssign_TwoTrackTwolesson1</t>
+  </si>
+  <si>
+    <t>Title of track 2</t>
+  </si>
+  <si>
+    <t>Track_for_CampAssign_TwoTrackTwolesson2</t>
+  </si>
+  <si>
+    <t>Expected Success1</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_CampAssign_TwoTrackTwolesson1".</t>
+  </si>
+  <si>
+    <t>Expected Success2</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_CampAssign_TwoTrackTwolesson2".</t>
+  </si>
+  <si>
+    <t>learner4_20</t>
+  </si>
+  <si>
+    <t>ln4_20</t>
+  </si>
+  <si>
+    <t>learner4_20_@gmail.com</t>
+  </si>
+  <si>
+    <t>emp4_20</t>
+  </si>
+  <si>
+    <t>AssignCampTenLessonsGraded</t>
+  </si>
+  <si>
+    <t>CampForAssignTenLessonsGraded</t>
+  </si>
+  <si>
+    <t>Campaign to assign to Learner with Ten Lessons Graded</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_TenLessons1</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_TenLessons2</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_TenLessons3</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_TenLessons4</t>
+  </si>
+  <si>
+    <t>Lesson Name 5</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_TenLessons5</t>
+  </si>
+  <si>
+    <t>Lesson Name 6</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_TenLessons6</t>
+  </si>
+  <si>
+    <t>Lesson Name 7</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_TenLessons7</t>
+  </si>
+  <si>
+    <t>Lesson Name 8</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_TenLessons8</t>
+  </si>
+  <si>
+    <t>Lesson Name 9</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_TenLessons9</t>
+  </si>
+  <si>
+    <t>Lesson Name 10</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_TenLessons10</t>
+  </si>
+  <si>
+    <t>learner5_14</t>
+  </si>
+  <si>
+    <t>ln5_14</t>
+  </si>
+  <si>
+    <t>learner5_14_@gmail.com</t>
+  </si>
+  <si>
+    <t>emp5_14</t>
+  </si>
+  <si>
+    <t>AssignCampOneTrackOneLessonNewHireTriggered</t>
+  </si>
+  <si>
+    <t>CampForAssignNewHireTriggeredOneTrackLesson</t>
+  </si>
+  <si>
+    <t>Campaign with New Hre triggered with one Track one Lesson</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Track_for_TriggeredNewHire_1Track1Lesson</t>
+  </si>
+  <si>
+    <t>This is the track for Campaign with triggered one track one lesson</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_TriggeredNewHire_1Track1Lesson".</t>
+  </si>
+  <si>
+    <t>AssignCampOneLessonToCreator</t>
+  </si>
+  <si>
+    <t>CampForAssignOneLessonToCreator</t>
+  </si>
+  <si>
+    <t>Campaign to assign to Creator with one question lesson</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_ToCreator</t>
+  </si>
+  <si>
+    <t>Learner Details</t>
+  </si>
+  <si>
+    <t>Creator1_4</t>
+  </si>
+  <si>
+    <t>CR6_4</t>
+  </si>
+  <si>
+    <t>Creator1_4_@gmail.com</t>
+  </si>
+  <si>
+    <t>create1_4</t>
+  </si>
+  <si>
+    <t>AssignCampOneLessonToLA</t>
+  </si>
+  <si>
+    <t>CampForAssignOneLessonToLA</t>
+  </si>
+  <si>
+    <t>Campaign to assign to Learning Administrator with one question lesson</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_ToLA</t>
+  </si>
+  <si>
+    <t>LearningAdmin1_4</t>
+  </si>
+  <si>
+    <t>la1_4</t>
+  </si>
+  <si>
+    <t>LA1_4_@gmail.com</t>
+  </si>
+  <si>
+    <t>learn1_4</t>
+  </si>
+  <si>
+    <t>AssignCampOneLessonToMA</t>
+  </si>
+  <si>
+    <t>CampForAssignOneLessonToMA</t>
+  </si>
+  <si>
+    <t>Campaign to assign to Master Administrator with one question lesson</t>
+  </si>
+  <si>
+    <t>Lesson_for_Assignment_ToMA</t>
+  </si>
+  <si>
+    <t>Master1_9</t>
+  </si>
+  <si>
+    <t>ma1_9</t>
+  </si>
+  <si>
+    <t>master1_9_@gmail.com</t>
+  </si>
+  <si>
+    <t>Ma1_9</t>
+  </si>
+  <si>
+    <t>minimum score</t>
+  </si>
+  <si>
+    <t>max no of attempts</t>
+  </si>
+  <si>
+    <t>AssignCampLessonTriggeredToGroup</t>
+  </si>
+  <si>
+    <t>CampTriggeredToGroup</t>
+  </si>
+  <si>
+    <t>Campaign with triggered for New to Group</t>
+  </si>
+  <si>
+    <t>Lesson_for_AssignmentForGroup</t>
+  </si>
+  <si>
+    <t>learner8_6</t>
+  </si>
+  <si>
+    <t>ln8_6</t>
+  </si>
+  <si>
+    <t>mail8_6_@gmail.com</t>
+  </si>
+  <si>
+    <t>eid8_6</t>
+  </si>
+  <si>
+    <t>GroupDetails</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>TestGroup_5</t>
   </si>
 </sst>
 </file>
@@ -2756,7 +3159,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2849,6 +3252,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2883,6 +3289,19 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3372,6 +3791,1654 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E226"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="41" customWidth="1"/>
+    <col min="7" max="24" width="9.140625" style="41" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="59" t="s">
+        <v>802</v>
+      </c>
+      <c r="B1" s="61"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="59" t="s">
+        <v>814</v>
+      </c>
+      <c r="B12" s="61"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="59" t="s">
+        <v>819</v>
+      </c>
+      <c r="B27" s="61"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="59" t="s">
+        <v>823</v>
+      </c>
+      <c r="B32" s="61"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="42" t="s">
+        <v>824</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="42" t="s">
+        <v>827</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="42" t="s">
+        <v>828</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="59" t="s">
+        <v>830</v>
+      </c>
+      <c r="B38" s="61"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="59" t="s">
+        <v>835</v>
+      </c>
+      <c r="B48" s="61"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>840</v>
+      </c>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>841</v>
+      </c>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B62" s="64"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="42" t="s">
+        <v>824</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="42" t="s">
+        <v>827</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="42" t="s">
+        <v>828</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B68" s="64"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="B73" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="B74" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="59" t="s">
+        <v>849</v>
+      </c>
+      <c r="B78" s="61"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="B79" s="42" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="42" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="42" t="s">
+        <v>852</v>
+      </c>
+      <c r="B81" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="42" t="s">
+        <v>853</v>
+      </c>
+      <c r="B82" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="B83" s="42" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B84" s="42" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" s="42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B87" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B88" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B89" s="64"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="42" t="s">
+        <v>856</v>
+      </c>
+      <c r="B90" s="42" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="42" t="s">
+        <v>858</v>
+      </c>
+      <c r="B91" s="42" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="42" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="42" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="42" t="s">
+        <v>827</v>
+      </c>
+      <c r="B94" s="42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="42" t="s">
+        <v>860</v>
+      </c>
+      <c r="B95" s="42" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="42" t="s">
+        <v>862</v>
+      </c>
+      <c r="B96" s="42" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B97" s="64"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B98" s="42" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B99" s="42" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B101" s="42" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="B102" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="B103" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="B104" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="59" t="s">
+        <v>868</v>
+      </c>
+      <c r="B108" s="61"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="B109" s="42" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B110" s="42" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="42" t="s">
+        <v>852</v>
+      </c>
+      <c r="B111" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="42" t="s">
+        <v>853</v>
+      </c>
+      <c r="B112" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="B113" s="42" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B114" s="42" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B115" s="42" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="B116" s="42" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="42" t="s">
+        <v>875</v>
+      </c>
+      <c r="B117" s="42" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="42" t="s">
+        <v>877</v>
+      </c>
+      <c r="B118" s="42" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="42" t="s">
+        <v>879</v>
+      </c>
+      <c r="B119" s="42" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="42" t="s">
+        <v>881</v>
+      </c>
+      <c r="B120" s="42" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="42" t="s">
+        <v>883</v>
+      </c>
+      <c r="B121" s="42" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="42" t="s">
+        <v>885</v>
+      </c>
+      <c r="B122" s="42" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B123" s="42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="42" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B127" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B128" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="B129" s="64"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B130" s="42" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B131" s="42" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B133" s="42" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="B134" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="B135" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="B136" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="59" t="s">
+        <v>891</v>
+      </c>
+      <c r="B139" s="61"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="B140" s="42" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B141" s="42" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="42" t="s">
+        <v>894</v>
+      </c>
+      <c r="B142" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="B143" s="42" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" s="42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B145" s="64"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="42" t="s">
+        <v>824</v>
+      </c>
+      <c r="B146" s="42" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="42" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B148" s="42" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="42" t="s">
+        <v>827</v>
+      </c>
+      <c r="B149" s="42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="42" t="s">
+        <v>828</v>
+      </c>
+      <c r="B150" s="42" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="59" t="s">
+        <v>898</v>
+      </c>
+      <c r="B154" s="61"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="B155" s="42" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B156" s="42" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" s="42" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B159" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B160" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="59" t="s">
+        <v>902</v>
+      </c>
+      <c r="B161" s="61"/>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B162" s="42" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B163" s="42" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B165" s="42" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="B166" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="B167" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="B168" s="42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="59" t="s">
+        <v>907</v>
+      </c>
+      <c r="B171" s="61"/>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="B172" s="42" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B173" s="42" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B174" s="42" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B175" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B176" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B177" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="59" t="s">
+        <v>902</v>
+      </c>
+      <c r="B178" s="61"/>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B179" s="42" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B180" s="42" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B182" s="42" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="B183" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="B184" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="B185" s="42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="59" t="s">
+        <v>915</v>
+      </c>
+      <c r="B189" s="61"/>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="B190" s="42" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B191" s="42" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" s="42" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B193" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B194" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B195" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="59" t="s">
+        <v>902</v>
+      </c>
+      <c r="B196" s="61"/>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B197" s="42" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B198" s="42" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B200" s="42" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="B201" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="B202" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="B203" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="42" t="s">
+        <v>923</v>
+      </c>
+      <c r="B204" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="42" t="s">
+        <v>924</v>
+      </c>
+      <c r="B205" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="59" t="s">
+        <v>925</v>
+      </c>
+      <c r="B208" s="61"/>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="B209" s="42" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B210" s="42" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="42" t="s">
+        <v>923</v>
+      </c>
+      <c r="B211" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="42" t="s">
+        <v>924</v>
+      </c>
+      <c r="B212" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B213" s="42" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B214" s="42" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B215" s="42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="B216" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="59" t="s">
+        <v>902</v>
+      </c>
+      <c r="B217" s="61"/>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B218" s="42" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B219" s="42" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B221" s="42" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="B222" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="B223" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="B224" s="42"/>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="65" t="s">
+        <v>933</v>
+      </c>
+      <c r="B225" s="61"/>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="42" t="s">
+        <v>934</v>
+      </c>
+      <c r="B226" s="42" t="s">
+        <v>935</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A48:B48"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B41" r:id="rId4"/>
+    <hyperlink ref="B43" r:id="rId5"/>
+    <hyperlink ref="B44" r:id="rId6"/>
+    <hyperlink ref="B71" r:id="rId7"/>
+    <hyperlink ref="B73" r:id="rId8"/>
+    <hyperlink ref="B74" r:id="rId9"/>
+    <hyperlink ref="B100" r:id="rId10"/>
+    <hyperlink ref="B102" r:id="rId11"/>
+    <hyperlink ref="B103" r:id="rId12"/>
+    <hyperlink ref="B132" r:id="rId13"/>
+    <hyperlink ref="B134" r:id="rId14"/>
+    <hyperlink ref="B135" r:id="rId15"/>
+    <hyperlink ref="B164" r:id="rId16"/>
+    <hyperlink ref="B166" r:id="rId17"/>
+    <hyperlink ref="B167" r:id="rId18"/>
+    <hyperlink ref="B181" r:id="rId19"/>
+    <hyperlink ref="B183" r:id="rId20"/>
+    <hyperlink ref="B184" r:id="rId21"/>
+    <hyperlink ref="B199" r:id="rId22"/>
+    <hyperlink ref="B201" r:id="rId23"/>
+    <hyperlink ref="B202" r:id="rId24"/>
+    <hyperlink ref="B220" r:id="rId25"/>
+    <hyperlink ref="B222" r:id="rId26"/>
+    <hyperlink ref="B223" r:id="rId27"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
@@ -3730,10 +5797,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -3756,10 +5823,10 @@
       <c r="B4" s="12"/>
     </row>
     <row r="6" spans="1:2" ht="14.1" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
@@ -3806,10 +5873,10 @@
       <c r="B12" s="12"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="49"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -3836,10 +5903,10 @@
       <c r="B18" s="12"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="49"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
@@ -3870,10 +5937,10 @@
       <c r="B24" s="12"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="48"/>
+      <c r="B26" s="49"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
@@ -3948,14 +6015,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -4014,14 +6081,14 @@
       <c r="B7" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="49" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="51"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
@@ -4092,14 +6159,14 @@
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="49" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="50"/>
+      <c r="D18" s="51"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
@@ -4162,14 +6229,14 @@
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="49" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="51"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
@@ -4236,14 +6303,14 @@
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="49" t="s">
+      <c r="B34" s="51"/>
+      <c r="C34" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="51"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
@@ -4310,14 +6377,14 @@
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="49" t="s">
+      <c r="B43" s="51"/>
+      <c r="C43" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="50"/>
+      <c r="D43" s="51"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
@@ -4400,14 +6467,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="49" t="s">
+      <c r="B52" s="51"/>
+      <c r="C52" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="50"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="93.75">
@@ -4501,14 +6568,14 @@
       <c r="E58" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="49" t="s">
+      <c r="B60" s="51"/>
+      <c r="C60" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="50"/>
+      <c r="D60" s="51"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
@@ -4601,14 +6668,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="54"/>
-      <c r="C70" s="49" t="s">
+      <c r="B70" s="55"/>
+      <c r="C70" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="50"/>
+      <c r="D70" s="51"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="11" t="s">
@@ -4645,10 +6712,10 @@
       <c r="B73" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="50"/>
+      <c r="D73" s="51"/>
     </row>
     <row r="74" spans="1:4" ht="37.5">
       <c r="A74" s="11" t="s">
@@ -4691,14 +6758,14 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="54"/>
-      <c r="C79" s="49" t="s">
+      <c r="B79" s="55"/>
+      <c r="C79" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="50"/>
+      <c r="D79" s="51"/>
     </row>
     <row r="80" spans="1:4" ht="37.5">
       <c r="A80" s="11" t="s">
@@ -4735,10 +6802,10 @@
       <c r="B82" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="D82" s="50"/>
+      <c r="D82" s="51"/>
     </row>
     <row r="83" spans="1:4" ht="37.5">
       <c r="A83" s="11" t="s">
@@ -4779,14 +6846,14 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A88" s="51" t="s">
+      <c r="A88" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="51"/>
-      <c r="C88" s="48" t="s">
+      <c r="B88" s="52"/>
+      <c r="C88" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="48"/>
+      <c r="D88" s="49"/>
     </row>
     <row r="89" spans="1:4" ht="37.5">
       <c r="A89" s="11" t="s">
@@ -4837,10 +6904,10 @@
       <c r="B92" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D92" s="48"/>
+      <c r="D92" s="49"/>
     </row>
     <row r="93" spans="1:4" ht="56.25">
       <c r="A93" s="11" t="s">
@@ -4879,10 +6946,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
-      <c r="C96" s="48" t="s">
+      <c r="C96" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="48"/>
+      <c r="D96" s="49"/>
     </row>
     <row r="97" spans="1:4" ht="37.5">
       <c r="A97" s="11"/>
@@ -4925,14 +6992,14 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A103" s="51" t="s">
+      <c r="A103" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="51"/>
-      <c r="C103" s="48" t="s">
+      <c r="B103" s="52"/>
+      <c r="C103" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="D103" s="48"/>
+      <c r="D103" s="49"/>
     </row>
     <row r="104" spans="1:4" ht="37.5">
       <c r="A104" s="11" t="s">
@@ -4955,10 +7022,10 @@
       <c r="B105" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="C105" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="D105" s="50"/>
+      <c r="D105" s="51"/>
     </row>
     <row r="106" spans="1:4" ht="37.5">
       <c r="A106" s="11" t="s">
@@ -5073,14 +7140,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="51" t="s">
+      <c r="A118" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="51"/>
-      <c r="C118" s="48" t="s">
+      <c r="B118" s="52"/>
+      <c r="C118" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="48"/>
+      <c r="D118" s="49"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="11" t="s">
@@ -5163,10 +7230,10 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="50"/>
+      <c r="B125" s="51"/>
       <c r="C125" s="11" t="s">
         <v>24</v>
       </c>
@@ -5213,14 +7280,14 @@
       <c r="D128" s="12"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="51" t="s">
+      <c r="A131" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="B131" s="51"/>
-      <c r="C131" s="48" t="s">
+      <c r="B131" s="52"/>
+      <c r="C131" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="48"/>
+      <c r="D131" s="49"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="11" t="s">
@@ -5351,14 +7418,14 @@
       <c r="D141" s="11"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="51" t="s">
+      <c r="A144" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="B144" s="51"/>
-      <c r="C144" s="48" t="s">
+      <c r="B144" s="52"/>
+      <c r="C144" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="D144" s="48"/>
+      <c r="D144" s="49"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="11" t="s">
@@ -5485,14 +7552,14 @@
       <c r="D154" s="11"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="51" t="s">
+      <c r="A157" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="B157" s="51"/>
-      <c r="C157" s="48" t="s">
+      <c r="B157" s="52"/>
+      <c r="C157" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="D157" s="48"/>
+      <c r="D157" s="49"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
@@ -6890,7 +8957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+    <sheetView topLeftCell="B31" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -6908,18 +8975,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="58"/>
+      <c r="D1" s="56" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="G1" s="55" t="s">
+      <c r="E1" s="57"/>
+      <c r="G1" s="56" t="s">
         <v>625</v>
       </c>
-      <c r="H1" s="56"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="42" t="s">
@@ -6988,14 +9055,14 @@
       <c r="B5" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="G5" s="58" t="s">
+      <c r="E5" s="57"/>
+      <c r="G5" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="H5" s="59"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="42" t="s">
@@ -7120,16 +9187,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="56" t="s">
         <v>636</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="D16" s="42" t="s">
         <v>462</v>
       </c>
@@ -7172,16 +9239,16 @@
       <c r="B19" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="E19" s="59"/>
+      <c r="E19" s="60"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="D20" s="42" t="s">
         <v>99</v>
       </c>
@@ -7236,16 +9303,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="E25" s="59"/>
+      <c r="E25" s="60"/>
     </row>
     <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="B26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="D26" s="42" t="s">
         <v>23</v>
       </c>
@@ -7284,14 +9351,14 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="D30" s="55" t="s">
+      <c r="B30" s="57"/>
+      <c r="D30" s="56" t="s">
         <v>644</v>
       </c>
-      <c r="E30" s="56"/>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="42" t="s">
@@ -7336,16 +9403,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="E34" s="59"/>
+      <c r="E34" s="60"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="56" t="s">
         <v>500</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="57"/>
       <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
@@ -7396,10 +9463,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B39" s="56"/>
+      <c r="B39" s="57"/>
       <c r="D39" s="42" t="s">
         <v>632</v>
       </c>
@@ -7414,10 +9481,10 @@
       <c r="B40" s="42" t="s">
         <v>504</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="E40" s="59"/>
+      <c r="E40" s="60"/>
     </row>
     <row r="41" spans="1:5" ht="30">
       <c r="A41" s="42" t="s">
@@ -7456,10 +9523,10 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="56" t="s">
         <v>505</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="57"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="42" t="s">
@@ -7476,10 +9543,10 @@
       <c r="B46" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="56" t="s">
         <v>652</v>
       </c>
-      <c r="E46" s="56"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" s="42" t="s">
@@ -7496,10 +9563,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B48" s="56"/>
+      <c r="B48" s="57"/>
       <c r="D48" s="42" t="s">
         <v>466</v>
       </c>
@@ -7528,10 +9595,10 @@
       <c r="B50" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="E50" s="59"/>
+      <c r="E50" s="60"/>
     </row>
     <row r="51" spans="1:5" ht="30">
       <c r="A51" s="42" t="s">
@@ -7584,10 +9651,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="45">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="56" t="s">
         <v>513</v>
       </c>
-      <c r="B55" s="56"/>
+      <c r="B55" s="57"/>
       <c r="D55" s="42" t="s">
         <v>632</v>
       </c>
@@ -7602,10 +9669,10 @@
       <c r="B56" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="E56" s="59"/>
+      <c r="E56" s="60"/>
     </row>
     <row r="57" spans="1:5" ht="30">
       <c r="A57" s="42" t="s">
@@ -7636,10 +9703,10 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B59" s="56"/>
+      <c r="B59" s="57"/>
       <c r="D59" s="42" t="s">
         <v>139</v>
       </c>
@@ -7670,10 +9737,10 @@
       <c r="B62" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="56" t="s">
         <v>660</v>
       </c>
-      <c r="E62" s="56"/>
+      <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="30">
       <c r="A63" s="42" t="s">
@@ -7760,14 +9827,14 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="58" t="s">
         <v>519</v>
       </c>
-      <c r="B69" s="57"/>
-      <c r="D69" s="58" t="s">
+      <c r="B69" s="58"/>
+      <c r="D69" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="E69" s="59"/>
+      <c r="E69" s="60"/>
     </row>
     <row r="70" spans="1:5" ht="30">
       <c r="A70" s="42" t="s">
@@ -7828,10 +9895,10 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="56" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="57"/>
       <c r="D75" s="46" t="s">
         <v>473</v>
       </c>
@@ -7880,10 +9947,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B79" s="56"/>
+      <c r="B79" s="57"/>
       <c r="D79" s="42" t="s">
         <v>672</v>
       </c>
@@ -7914,10 +9981,10 @@
       <c r="B82" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="D82" s="55" t="s">
+      <c r="D82" s="56" t="s">
         <v>674</v>
       </c>
-      <c r="E82" s="56"/>
+      <c r="E82" s="57"/>
       <c r="F82" s="44" t="s">
         <v>675</v>
       </c>
@@ -7980,10 +10047,10 @@
       <c r="B86" s="42">
         <v>50</v>
       </c>
-      <c r="D86" s="58" t="s">
+      <c r="D86" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="E86" s="59"/>
+      <c r="E86" s="60"/>
       <c r="F86" s="45" t="s">
         <v>629</v>
       </c>
@@ -8009,10 +10076,10 @@
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="30">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="56" t="s">
         <v>529</v>
       </c>
-      <c r="B89" s="56"/>
+      <c r="B89" s="57"/>
       <c r="D89" s="42" t="s">
         <v>105</v>
       </c>
@@ -8062,19 +10129,19 @@
       <c r="B92" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="D92" s="58" t="s">
+      <c r="D92" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="E92" s="59"/>
+      <c r="E92" s="60"/>
       <c r="F92" s="45" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="B93" s="56"/>
+      <c r="B93" s="57"/>
       <c r="D93" s="42" t="s">
         <v>23</v>
       </c>
@@ -8228,10 +10295,10 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="57" t="s">
+      <c r="A105" s="58" t="s">
         <v>536</v>
       </c>
-      <c r="B105" s="57"/>
+      <c r="B105" s="58"/>
       <c r="D105" s="42" t="s">
         <v>694</v>
       </c>
@@ -8254,10 +10321,10 @@
       <c r="B107" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="D107" s="55" t="s">
+      <c r="D107" s="56" t="s">
         <v>695</v>
       </c>
-      <c r="E107" s="56"/>
+      <c r="E107" s="57"/>
     </row>
     <row r="108" spans="1:5" ht="30">
       <c r="A108" s="42" t="s">
@@ -8302,10 +10369,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="57" t="s">
+      <c r="A111" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="B111" s="57"/>
+      <c r="B111" s="58"/>
       <c r="D111" s="42" t="s">
         <v>692</v>
       </c>
@@ -8348,10 +10415,10 @@
       <c r="B114" s="42">
         <v>200</v>
       </c>
-      <c r="D114" s="58" t="s">
+      <c r="D114" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="E114" s="59"/>
+      <c r="E114" s="60"/>
     </row>
     <row r="115" spans="1:5" ht="30">
       <c r="A115" s="42" t="s">
@@ -8424,10 +10491,10 @@
       <c r="E120" s="47"/>
     </row>
     <row r="121" spans="1:5" ht="30">
-      <c r="A121" s="57" t="s">
+      <c r="A121" s="58" t="s">
         <v>541</v>
       </c>
-      <c r="B121" s="57"/>
+      <c r="B121" s="58"/>
       <c r="D121" s="42" t="s">
         <v>23</v>
       </c>
@@ -8478,10 +10545,10 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="57" t="s">
+      <c r="A125" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="B125" s="57"/>
+      <c r="B125" s="58"/>
       <c r="D125" s="42" t="s">
         <v>670</v>
       </c>
@@ -8526,10 +10593,10 @@
       <c r="B129" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="D129" s="55" t="s">
+      <c r="D129" s="56" t="s">
         <v>703</v>
       </c>
-      <c r="E129" s="56"/>
+      <c r="E129" s="57"/>
     </row>
     <row r="130" spans="1:5" ht="30">
       <c r="D130" s="42" t="s">
@@ -8548,10 +10615,10 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="45">
-      <c r="A132" s="57" t="s">
+      <c r="A132" s="58" t="s">
         <v>550</v>
       </c>
-      <c r="B132" s="57"/>
+      <c r="B132" s="58"/>
       <c r="D132" s="42" t="s">
         <v>109</v>
       </c>
@@ -8602,14 +10669,14 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="57" t="s">
+      <c r="A136" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="B136" s="57"/>
-      <c r="D136" s="58" t="s">
+      <c r="B136" s="58"/>
+      <c r="D136" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="E136" s="59"/>
+      <c r="E136" s="60"/>
     </row>
     <row r="137" spans="1:5" ht="30">
       <c r="A137" s="42" t="s">
@@ -8696,10 +10763,10 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="57" t="s">
+      <c r="A144" s="58" t="s">
         <v>557</v>
       </c>
-      <c r="B144" s="57"/>
+      <c r="B144" s="58"/>
       <c r="D144" s="42" t="s">
         <v>165</v>
       </c>
@@ -8750,10 +10817,10 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="57" t="s">
+      <c r="A148" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="B148" s="57"/>
+      <c r="B148" s="58"/>
       <c r="D148" s="42" t="s">
         <v>670</v>
       </c>
@@ -8798,10 +10865,10 @@
       <c r="B152" s="42" t="s">
         <v>562</v>
       </c>
-      <c r="D152" s="55" t="s">
+      <c r="D152" s="56" t="s">
         <v>711</v>
       </c>
-      <c r="E152" s="56"/>
+      <c r="E152" s="57"/>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" s="42" t="s">
@@ -8894,10 +10961,10 @@
       <c r="B159" s="42">
         <v>60</v>
       </c>
-      <c r="D159" s="58" t="s">
+      <c r="D159" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="E159" s="59"/>
+      <c r="E159" s="60"/>
     </row>
     <row r="160" spans="1:5" ht="30">
       <c r="D160" s="42" t="s">
@@ -8916,10 +10983,10 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="30">
-      <c r="A162" s="57" t="s">
+      <c r="A162" s="58" t="s">
         <v>566</v>
       </c>
-      <c r="B162" s="57"/>
+      <c r="B162" s="58"/>
       <c r="D162" s="42" t="s">
         <v>105</v>
       </c>
@@ -8996,10 +11063,10 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
-      <c r="A168" s="57" t="s">
+      <c r="A168" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="57"/>
+      <c r="B168" s="58"/>
       <c r="D168" s="42" t="s">
         <v>556</v>
       </c>
@@ -9124,10 +11191,10 @@
       <c r="B178" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="55" t="s">
+      <c r="D178" s="56" t="s">
         <v>720</v>
       </c>
-      <c r="E178" s="56"/>
+      <c r="E178" s="57"/>
     </row>
     <row r="179" spans="1:5" ht="30">
       <c r="A179" s="42" t="s">
@@ -9160,10 +11227,10 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="57" t="s">
+      <c r="A182" s="58" t="s">
         <v>574</v>
       </c>
-      <c r="B182" s="57"/>
+      <c r="B182" s="58"/>
       <c r="D182" s="42" t="s">
         <v>692</v>
       </c>
@@ -9206,10 +11273,10 @@
       <c r="B185" s="42" t="s">
         <v>577</v>
       </c>
-      <c r="D185" s="58" t="s">
+      <c r="D185" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="E185" s="59"/>
+      <c r="E185" s="60"/>
     </row>
     <row r="186" spans="1:5" ht="30">
       <c r="A186" s="42" t="s">
@@ -9240,10 +11307,10 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
-      <c r="A188" s="57" t="s">
+      <c r="A188" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="B188" s="57"/>
+      <c r="B188" s="58"/>
       <c r="D188" s="42" t="s">
         <v>105</v>
       </c>
@@ -9370,10 +11437,10 @@
       <c r="B198" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D198" s="55" t="s">
+      <c r="D198" s="56" t="s">
         <v>730</v>
       </c>
-      <c r="E198" s="56"/>
+      <c r="E198" s="57"/>
     </row>
     <row r="199" spans="1:5" ht="30">
       <c r="A199" s="42" t="s">
@@ -9426,10 +11493,10 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="57" t="s">
+      <c r="A203" s="58" t="s">
         <v>585</v>
       </c>
-      <c r="B203" s="57"/>
+      <c r="B203" s="58"/>
       <c r="D203" s="46" t="s">
         <v>629</v>
       </c>
@@ -9506,10 +11573,10 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="57" t="s">
+      <c r="A209" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="B209" s="57"/>
+      <c r="B209" s="58"/>
       <c r="D209" s="46" t="s">
         <v>473</v>
       </c>
@@ -9608,10 +11675,10 @@
       <c r="B217" s="42">
         <v>200</v>
       </c>
-      <c r="D217" s="55" t="s">
+      <c r="D217" s="56" t="s">
         <v>739</v>
       </c>
-      <c r="E217" s="56"/>
+      <c r="E217" s="57"/>
     </row>
     <row r="218" spans="1:5" ht="30">
       <c r="A218" s="42" t="s">
@@ -9670,10 +11737,10 @@
       <c r="E222" s="47"/>
     </row>
     <row r="223" spans="1:5" ht="30">
-      <c r="A223" s="57" t="s">
+      <c r="A223" s="58" t="s">
         <v>594</v>
       </c>
-      <c r="B223" s="57"/>
+      <c r="B223" s="58"/>
       <c r="D223" s="42" t="s">
         <v>99</v>
       </c>
@@ -9750,10 +11817,10 @@
       <c r="E228" s="47"/>
     </row>
     <row r="229" spans="1:5" ht="30">
-      <c r="A229" s="57" t="s">
+      <c r="A229" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="B229" s="57"/>
+      <c r="B229" s="58"/>
       <c r="D229" s="42" t="s">
         <v>727</v>
       </c>
@@ -9910,10 +11977,10 @@
       <c r="B241" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="55" t="s">
+      <c r="D241" s="56" t="s">
         <v>751</v>
       </c>
-      <c r="E241" s="56"/>
+      <c r="E241" s="57"/>
     </row>
     <row r="242" spans="1:5" ht="30">
       <c r="A242" s="42" t="s">
@@ -9965,10 +12032,10 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="55" t="s">
+      <c r="A247" s="56" t="s">
         <v>756</v>
       </c>
-      <c r="B247" s="56"/>
+      <c r="B247" s="57"/>
       <c r="D247" s="42" t="s">
         <v>757</v>
       </c>
@@ -10291,10 +12358,10 @@
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="55" t="s">
+      <c r="A276" s="56" t="s">
         <v>775</v>
       </c>
-      <c r="B276" s="56"/>
+      <c r="B276" s="57"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="42" t="s">
@@ -10485,10 +12552,10 @@
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="55" t="s">
+      <c r="A305" s="56" t="s">
         <v>787</v>
       </c>
-      <c r="B305" s="56"/>
+      <c r="B305" s="57"/>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="42" t="s">
@@ -10704,11 +12771,6 @@
     <mergeCell ref="A229:B229"/>
     <mergeCell ref="D241:E241"/>
     <mergeCell ref="A247:B247"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D198:E198"/>
     <mergeCell ref="A203:B203"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="A148:B148"/>
@@ -10716,11 +12778,11 @@
     <mergeCell ref="D159:E159"/>
     <mergeCell ref="A162:B162"/>
     <mergeCell ref="A168:B168"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D198:E198"/>
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="D136:E136"/>
     <mergeCell ref="A89:B89"/>
@@ -10729,11 +12791,11 @@
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="D86:E86"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="D50:E50"/>
@@ -10741,11 +12803,11 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D82:E82"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="D19:E19"/>
@@ -10754,12 +12816,17 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
